--- a/ocean_microbiomics_results/Sulfate.xlsx
+++ b/ocean_microbiomics_results/Sulfate.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/DOSTraits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAFEB3C-ABDD-3148-BAB1-E8C4683513CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3478BDE8-338A-904E-BA95-F879138A8F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="640" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{C46F703C-E130-4146-8E70-4FF57A214435}"/>
+    <workbookView xWindow="-29400" yWindow="-720" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{C46F703C-E130-4146-8E70-4FF57A214435}"/>
   </bookViews>
   <sheets>
     <sheet name="Pathways" sheetId="1" r:id="rId1"/>
     <sheet name="Pathways Logic" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="385">
   <si>
     <t>Metabolite</t>
   </si>
@@ -321,9 +322,6 @@
     <t>2,5,6,8</t>
   </si>
   <si>
-    <t>3,4,6,9</t>
-  </si>
-  <si>
     <t>1,7,9</t>
   </si>
   <si>
@@ -1111,6 +1109,90 @@
   </si>
   <si>
     <t>3,5,6,9</t>
+  </si>
+  <si>
+    <t>1,4,6 NOT 8</t>
+  </si>
+  <si>
+    <t>1,4,8 NOT 6</t>
+  </si>
+  <si>
+    <t>1,6,8 NOT 4</t>
+  </si>
+  <si>
+    <t>4,6,8 not 1</t>
+  </si>
+  <si>
+    <t>1,4, NOT 6,8</t>
+  </si>
+  <si>
+    <t>1,6 NOT 4,8</t>
+  </si>
+  <si>
+    <t>1,8 NOT 4,6</t>
+  </si>
+  <si>
+    <t>4,6 NOT 1,8</t>
+  </si>
+  <si>
+    <t>4,8 NOT 1,6</t>
+  </si>
+  <si>
+    <t>6,8 NOT 1,4</t>
+  </si>
+  <si>
+    <t>1 NOT 4,6,8</t>
+  </si>
+  <si>
+    <t>4 NOT 1,6,8</t>
+  </si>
+  <si>
+    <t>6 NOT 1,4,8</t>
+  </si>
+  <si>
+    <t>8 NOT 1,4,6</t>
+  </si>
+  <si>
+    <t>1,4,6 NOT 9</t>
+  </si>
+  <si>
+    <t>1,4,9 NOT 6</t>
+  </si>
+  <si>
+    <t>1,6,9 NOT 4</t>
+  </si>
+  <si>
+    <t>4,6,9 not 1</t>
+  </si>
+  <si>
+    <t>1,4, NOT 6,9</t>
+  </si>
+  <si>
+    <t>1,6 NOT 4,9</t>
+  </si>
+  <si>
+    <t>1,9 NOT 4,6</t>
+  </si>
+  <si>
+    <t>4,6 NOT 1,9</t>
+  </si>
+  <si>
+    <t>4,9 NOT 1,6</t>
+  </si>
+  <si>
+    <t>6,9 NOT 1,4</t>
+  </si>
+  <si>
+    <t>1 NOT 4,6,9</t>
+  </si>
+  <si>
+    <t>4 NOT 1,6,9</t>
+  </si>
+  <si>
+    <t>6 NOT 1,4,9</t>
+  </si>
+  <si>
+    <t>9 NOT 1,4,6</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -2376,31 +2458,31 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28">
+        <v>-2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
         <v>98</v>
       </c>
-      <c r="D28">
-        <v>-2</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>99</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>100</v>
       </c>
-      <c r="N28" t="s">
-        <v>101</v>
-      </c>
       <c r="P28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -2408,10 +2490,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" t="s">
-        <v>98</v>
       </c>
       <c r="D29">
         <v>-2</v>
@@ -2423,16 +2505,16 @@
         <v>2</v>
       </c>
       <c r="L29" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" t="s">
         <v>99</v>
       </c>
-      <c r="M29" t="s">
-        <v>100</v>
-      </c>
       <c r="N29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2440,31 +2522,31 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
         <v>97</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30">
+        <v>-2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
         <v>98</v>
       </c>
-      <c r="D30">
-        <v>-2</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>99</v>
       </c>
-      <c r="M30" t="s">
-        <v>100</v>
-      </c>
       <c r="N30" t="s">
+        <v>176</v>
+      </c>
+      <c r="P30" t="s">
         <v>177</v>
-      </c>
-      <c r="P30" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2472,10 +2554,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
         <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
       </c>
       <c r="D31">
         <v>-2</v>
@@ -2487,16 +2569,16 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
+        <v>104</v>
+      </c>
+      <c r="M31" t="s">
         <v>105</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>106</v>
       </c>
-      <c r="N31" t="s">
-        <v>107</v>
-      </c>
       <c r="P31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2504,10 +2586,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
       </c>
       <c r="D32">
         <v>-2</v>
@@ -2519,16 +2601,16 @@
         <v>2</v>
       </c>
       <c r="L32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M32" t="s">
         <v>105</v>
       </c>
-      <c r="M32" t="s">
-        <v>106</v>
-      </c>
       <c r="N32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2536,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
         <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
       </c>
       <c r="D33">
         <v>-2</v>
@@ -2551,16 +2633,16 @@
         <v>3</v>
       </c>
       <c r="L33" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" t="s">
         <v>105</v>
       </c>
-      <c r="M33" t="s">
-        <v>106</v>
-      </c>
       <c r="N33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -2568,10 +2650,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
         <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>98</v>
       </c>
       <c r="D34">
         <v>-2</v>
@@ -2583,16 +2665,16 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" t="s">
         <v>105</v>
       </c>
-      <c r="M34" t="s">
-        <v>106</v>
-      </c>
       <c r="N34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2600,10 +2682,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
         <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
       </c>
       <c r="D35">
         <v>-2</v>
@@ -2615,16 +2697,16 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
+        <v>104</v>
+      </c>
+      <c r="M35" t="s">
         <v>105</v>
       </c>
-      <c r="M35" t="s">
-        <v>106</v>
-      </c>
       <c r="N35" t="s">
+        <v>118</v>
+      </c>
+      <c r="P35" t="s">
         <v>119</v>
-      </c>
-      <c r="P35" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -2632,11 +2714,11 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
         <v>97</v>
       </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
       <c r="D36">
         <v>-2</v>
       </c>
@@ -2647,16 +2729,16 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2664,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
         <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
       </c>
       <c r="D37">
         <v>-2</v>
@@ -2679,16 +2761,16 @@
         <v>2</v>
       </c>
       <c r="L37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" t="s">
         <v>115</v>
-      </c>
-      <c r="P37" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -2696,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
         <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>98</v>
       </c>
       <c r="D38">
         <v>-2</v>
@@ -2711,16 +2793,16 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
+        <v>126</v>
+      </c>
+      <c r="M38" t="s">
         <v>127</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>128</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>129</v>
-      </c>
-      <c r="P38" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -2728,10 +2810,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
         <v>97</v>
-      </c>
-      <c r="C39" t="s">
-        <v>98</v>
       </c>
       <c r="D39">
         <v>-2</v>
@@ -2743,16 +2825,16 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
+        <v>120</v>
+      </c>
+      <c r="M39" t="s">
         <v>121</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P39" t="s">
         <v>122</v>
-      </c>
-      <c r="N39" t="s">
-        <v>124</v>
-      </c>
-      <c r="P39" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -2760,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
         <v>97</v>
-      </c>
-      <c r="C40" t="s">
-        <v>98</v>
       </c>
       <c r="D40">
         <v>-2</v>
@@ -2775,16 +2857,16 @@
         <v>2</v>
       </c>
       <c r="L40" t="s">
+        <v>120</v>
+      </c>
+      <c r="M40" t="s">
         <v>121</v>
       </c>
-      <c r="M40" t="s">
-        <v>122</v>
-      </c>
       <c r="N40" t="s">
+        <v>124</v>
+      </c>
+      <c r="P40" t="s">
         <v>125</v>
-      </c>
-      <c r="P40" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -2792,10 +2874,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
         <v>97</v>
-      </c>
-      <c r="C41" t="s">
-        <v>98</v>
       </c>
       <c r="D41">
         <v>-2</v>
@@ -2807,16 +2889,16 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -2824,10 +2906,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
       </c>
       <c r="D42">
         <v>-2</v>
@@ -2839,16 +2921,16 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -2856,10 +2938,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
         <v>97</v>
-      </c>
-      <c r="C43" t="s">
-        <v>98</v>
       </c>
       <c r="D43">
         <v>-2</v>
@@ -2871,16 +2953,16 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -2888,10 +2970,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
         <v>97</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
       </c>
       <c r="D44">
         <v>-2</v>
@@ -2903,16 +2985,16 @@
         <v>2</v>
       </c>
       <c r="L44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s">
+        <v>143</v>
+      </c>
+      <c r="N44" t="s">
         <v>144</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
         <v>145</v>
-      </c>
-      <c r="P44" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -2920,10 +3002,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
         <v>97</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
       </c>
       <c r="D45">
         <v>-2</v>
@@ -2935,16 +3017,16 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -2952,10 +3034,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
         <v>97</v>
-      </c>
-      <c r="C46" t="s">
-        <v>98</v>
       </c>
       <c r="D46">
         <v>-2</v>
@@ -2967,16 +3049,16 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
+        <v>150</v>
+      </c>
+      <c r="M46" t="s">
+        <v>148</v>
+      </c>
+      <c r="N46" t="s">
+        <v>149</v>
+      </c>
+      <c r="P46" t="s">
         <v>151</v>
-      </c>
-      <c r="M46" t="s">
-        <v>149</v>
-      </c>
-      <c r="N46" t="s">
-        <v>150</v>
-      </c>
-      <c r="P46" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -2984,10 +3066,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
         <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
       </c>
       <c r="D47">
         <v>-2</v>
@@ -2999,16 +3081,16 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
+        <v>153</v>
+      </c>
+      <c r="M47" t="s">
+        <v>152</v>
+      </c>
+      <c r="N47" t="s">
         <v>154</v>
       </c>
-      <c r="M47" t="s">
-        <v>153</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
         <v>155</v>
-      </c>
-      <c r="P47" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -3016,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
         <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
       </c>
       <c r="D48">
         <v>-2</v>
@@ -3031,16 +3113,16 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
+        <v>157</v>
+      </c>
+      <c r="M48" t="s">
+        <v>156</v>
+      </c>
+      <c r="N48" t="s">
         <v>158</v>
       </c>
-      <c r="M48" t="s">
-        <v>157</v>
-      </c>
-      <c r="N48" t="s">
-        <v>159</v>
-      </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -3048,10 +3130,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" t="s">
-        <v>98</v>
       </c>
       <c r="D49">
         <v>-2</v>
@@ -3063,16 +3145,16 @@
         <v>2</v>
       </c>
       <c r="L49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -3080,10 +3162,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
       </c>
       <c r="D50">
         <v>-2</v>
@@ -3095,16 +3177,16 @@
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -3112,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
         <v>97</v>
-      </c>
-      <c r="C51" t="s">
-        <v>98</v>
       </c>
       <c r="D51">
         <v>-2</v>
@@ -3127,16 +3209,16 @@
         <v>4</v>
       </c>
       <c r="L51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -3144,10 +3226,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
         <v>97</v>
-      </c>
-      <c r="C52" t="s">
-        <v>98</v>
       </c>
       <c r="D52">
         <v>-2</v>
@@ -3159,16 +3241,16 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
+        <v>168</v>
+      </c>
+      <c r="M52" t="s">
+        <v>166</v>
+      </c>
+      <c r="N52" t="s">
+        <v>167</v>
+      </c>
+      <c r="P52" t="s">
         <v>169</v>
-      </c>
-      <c r="M52" t="s">
-        <v>167</v>
-      </c>
-      <c r="N52" t="s">
-        <v>168</v>
-      </c>
-      <c r="P52" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -3176,10 +3258,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
         <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>98</v>
       </c>
       <c r="D53">
         <v>-2</v>
@@ -3191,16 +3273,16 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
+        <v>172</v>
+      </c>
+      <c r="M53" t="s">
+        <v>170</v>
+      </c>
+      <c r="N53" t="s">
+        <v>171</v>
+      </c>
+      <c r="P53" t="s">
         <v>173</v>
-      </c>
-      <c r="M53" t="s">
-        <v>171</v>
-      </c>
-      <c r="N53" t="s">
-        <v>172</v>
-      </c>
-      <c r="P53" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -3208,10 +3290,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
         <v>97</v>
-      </c>
-      <c r="C54" t="s">
-        <v>98</v>
       </c>
       <c r="D54">
         <v>-2</v>
@@ -3223,16 +3305,16 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -3240,10 +3322,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
         <v>97</v>
-      </c>
-      <c r="C55" t="s">
-        <v>98</v>
       </c>
       <c r="D55">
         <v>-2</v>
@@ -3255,16 +3337,16 @@
         <v>2</v>
       </c>
       <c r="L55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -3272,10 +3354,10 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
         <v>97</v>
-      </c>
-      <c r="C56" t="s">
-        <v>98</v>
       </c>
       <c r="D56">
         <v>-2</v>
@@ -3287,16 +3369,16 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
+        <v>184</v>
+      </c>
+      <c r="M56" t="s">
+        <v>182</v>
+      </c>
+      <c r="N56" t="s">
+        <v>183</v>
+      </c>
+      <c r="P56" t="s">
         <v>185</v>
-      </c>
-      <c r="M56" t="s">
-        <v>183</v>
-      </c>
-      <c r="N56" t="s">
-        <v>184</v>
-      </c>
-      <c r="P56" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3304,10 +3386,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
         <v>97</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
       </c>
       <c r="D57">
         <v>-2</v>
@@ -3319,16 +3401,16 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -3336,10 +3418,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
         <v>97</v>
-      </c>
-      <c r="C58" t="s">
-        <v>98</v>
       </c>
       <c r="D58">
         <v>-2</v>
@@ -3351,16 +3433,16 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
+        <v>188</v>
+      </c>
+      <c r="M58" t="s">
         <v>189</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>190</v>
       </c>
-      <c r="N58" t="s">
+      <c r="P58" t="s">
         <v>191</v>
-      </c>
-      <c r="P58" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -3368,10 +3450,10 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
         <v>97</v>
-      </c>
-      <c r="C59" t="s">
-        <v>98</v>
       </c>
       <c r="D59">
         <v>-2</v>
@@ -3383,16 +3465,16 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
+        <v>194</v>
+      </c>
+      <c r="M59" t="s">
+        <v>192</v>
+      </c>
+      <c r="N59" t="s">
+        <v>193</v>
+      </c>
+      <c r="P59" t="s">
         <v>195</v>
-      </c>
-      <c r="M59" t="s">
-        <v>193</v>
-      </c>
-      <c r="N59" t="s">
-        <v>194</v>
-      </c>
-      <c r="P59" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -3400,10 +3482,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
         <v>97</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
       </c>
       <c r="D60">
         <v>-2</v>
@@ -3415,16 +3497,16 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
+        <v>197</v>
+      </c>
+      <c r="M60" t="s">
+        <v>196</v>
+      </c>
+      <c r="N60" t="s">
         <v>198</v>
       </c>
-      <c r="M60" t="s">
-        <v>197</v>
-      </c>
-      <c r="N60" t="s">
-        <v>199</v>
-      </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -3432,10 +3514,10 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s">
         <v>97</v>
-      </c>
-      <c r="C61" t="s">
-        <v>98</v>
       </c>
       <c r="D61">
         <v>-2</v>
@@ -3447,16 +3529,16 @@
         <v>2</v>
       </c>
       <c r="L61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -3464,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
         <v>97</v>
-      </c>
-      <c r="C62" t="s">
-        <v>98</v>
       </c>
       <c r="D62">
         <v>-2</v>
@@ -3479,16 +3561,16 @@
         <v>3</v>
       </c>
       <c r="L62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N62" t="s">
+        <v>176</v>
+      </c>
+      <c r="P62" t="s">
         <v>177</v>
-      </c>
-      <c r="P62" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -3496,10 +3578,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" t="s">
         <v>97</v>
-      </c>
-      <c r="C63" t="s">
-        <v>98</v>
       </c>
       <c r="D63">
         <v>-2</v>
@@ -3511,16 +3593,16 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
+        <v>204</v>
+      </c>
+      <c r="M63" t="s">
+        <v>202</v>
+      </c>
+      <c r="N63" t="s">
+        <v>203</v>
+      </c>
+      <c r="P63" t="s">
         <v>205</v>
-      </c>
-      <c r="M63" t="s">
-        <v>203</v>
-      </c>
-      <c r="N63" t="s">
-        <v>204</v>
-      </c>
-      <c r="P63" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -3528,10 +3610,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
         <v>97</v>
-      </c>
-      <c r="C64" t="s">
-        <v>98</v>
       </c>
       <c r="D64">
         <v>-2</v>
@@ -3543,16 +3625,16 @@
         <v>2</v>
       </c>
       <c r="L64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -3560,10 +3642,10 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
         <v>97</v>
-      </c>
-      <c r="C65" t="s">
-        <v>98</v>
       </c>
       <c r="D65">
         <v>-2</v>
@@ -3575,16 +3657,16 @@
         <v>3</v>
       </c>
       <c r="L65" t="s">
+        <v>206</v>
+      </c>
+      <c r="M65" t="s">
         <v>207</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>208</v>
       </c>
-      <c r="N65" t="s">
+      <c r="P65" t="s">
         <v>209</v>
-      </c>
-      <c r="P65" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -3595,7 +3677,7 @@
         <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -3607,10 +3689,10 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -3621,7 +3703,7 @@
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -3633,10 +3715,10 @@
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -3647,7 +3729,7 @@
         <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D69">
         <v>6</v>
@@ -3659,10 +3741,10 @@
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -3670,11 +3752,11 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" t="s">
         <v>228</v>
       </c>
-      <c r="C71" t="s">
-        <v>229</v>
-      </c>
       <c r="D71">
         <v>-2</v>
       </c>
@@ -3685,16 +3767,16 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -3702,10 +3784,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" t="s">
         <v>228</v>
-      </c>
-      <c r="C72" t="s">
-        <v>229</v>
       </c>
       <c r="D72">
         <v>-2</v>
@@ -3717,16 +3799,16 @@
         <v>2</v>
       </c>
       <c r="L72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -3734,10 +3816,10 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" t="s">
         <v>228</v>
-      </c>
-      <c r="C73" t="s">
-        <v>229</v>
       </c>
       <c r="D73">
         <v>-2</v>
@@ -3749,16 +3831,16 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
+        <v>206</v>
+      </c>
+      <c r="M73" t="s">
         <v>207</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>208</v>
       </c>
-      <c r="N73" t="s">
+      <c r="P73" t="s">
         <v>209</v>
-      </c>
-      <c r="P73" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -3766,11 +3848,11 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" t="s">
         <v>228</v>
       </c>
-      <c r="C74" t="s">
-        <v>229</v>
-      </c>
       <c r="D74">
         <v>-2</v>
       </c>
@@ -3781,16 +3863,16 @@
         <v>1</v>
       </c>
       <c r="L74" t="s">
+        <v>235</v>
+      </c>
+      <c r="M74" t="s">
+        <v>232</v>
+      </c>
+      <c r="N74" t="s">
+        <v>233</v>
+      </c>
+      <c r="P74" t="s">
         <v>236</v>
-      </c>
-      <c r="M74" t="s">
-        <v>233</v>
-      </c>
-      <c r="N74" t="s">
-        <v>234</v>
-      </c>
-      <c r="P74" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -3798,10 +3880,10 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" t="s">
         <v>228</v>
-      </c>
-      <c r="C75" t="s">
-        <v>229</v>
       </c>
       <c r="D75">
         <v>-2</v>
@@ -3813,16 +3895,16 @@
         <v>2</v>
       </c>
       <c r="L75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N75" t="s">
+        <v>237</v>
+      </c>
+      <c r="P75" t="s">
         <v>238</v>
-      </c>
-      <c r="P75" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -3830,11 +3912,11 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" t="s">
         <v>228</v>
       </c>
-      <c r="C76" t="s">
-        <v>229</v>
-      </c>
       <c r="D76">
         <v>-2</v>
       </c>
@@ -3845,16 +3927,16 @@
         <v>3</v>
       </c>
       <c r="L76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -3862,10 +3944,10 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" t="s">
         <v>228</v>
-      </c>
-      <c r="C77" t="s">
-        <v>229</v>
       </c>
       <c r="D77">
         <v>-2</v>
@@ -3877,16 +3959,16 @@
         <v>1</v>
       </c>
       <c r="L77" t="s">
+        <v>243</v>
+      </c>
+      <c r="M77" t="s">
+        <v>240</v>
+      </c>
+      <c r="N77" t="s">
+        <v>241</v>
+      </c>
+      <c r="P77" t="s">
         <v>244</v>
-      </c>
-      <c r="M77" t="s">
-        <v>241</v>
-      </c>
-      <c r="N77" t="s">
-        <v>242</v>
-      </c>
-      <c r="P77" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -3894,10 +3976,10 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="s">
         <v>228</v>
-      </c>
-      <c r="C78" t="s">
-        <v>229</v>
       </c>
       <c r="D78">
         <v>-2</v>
@@ -3909,16 +3991,16 @@
         <v>2</v>
       </c>
       <c r="L78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -3926,10 +4008,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" t="s">
         <v>228</v>
-      </c>
-      <c r="C79" t="s">
-        <v>229</v>
       </c>
       <c r="D79">
         <v>-2</v>
@@ -3941,16 +4023,16 @@
         <v>3</v>
       </c>
       <c r="L79" t="s">
+        <v>247</v>
+      </c>
+      <c r="M79" t="s">
+        <v>246</v>
+      </c>
+      <c r="N79" t="s">
         <v>248</v>
       </c>
-      <c r="M79" t="s">
-        <v>247</v>
-      </c>
-      <c r="N79" t="s">
+      <c r="P79" t="s">
         <v>249</v>
-      </c>
-      <c r="P79" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -3958,10 +4040,10 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" t="s">
         <v>228</v>
-      </c>
-      <c r="C80" t="s">
-        <v>229</v>
       </c>
       <c r="D80">
         <v>-2</v>
@@ -3973,16 +4055,16 @@
         <v>4</v>
       </c>
       <c r="L80" t="s">
+        <v>252</v>
+      </c>
+      <c r="M80" t="s">
+        <v>251</v>
+      </c>
+      <c r="N80" t="s">
+        <v>250</v>
+      </c>
+      <c r="P80" t="s">
         <v>253</v>
-      </c>
-      <c r="M80" t="s">
-        <v>252</v>
-      </c>
-      <c r="N80" t="s">
-        <v>251</v>
-      </c>
-      <c r="P80" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -3990,10 +4072,10 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" t="s">
         <v>228</v>
-      </c>
-      <c r="C81" t="s">
-        <v>229</v>
       </c>
       <c r="D81">
         <v>-2</v>
@@ -4005,16 +4087,16 @@
         <v>5</v>
       </c>
       <c r="L81" t="s">
+        <v>254</v>
+      </c>
+      <c r="M81" t="s">
         <v>255</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>256</v>
       </c>
-      <c r="N81" t="s">
+      <c r="P81" t="s">
         <v>257</v>
-      </c>
-      <c r="P81" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -4022,10 +4104,10 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" t="s">
         <v>228</v>
-      </c>
-      <c r="C82" t="s">
-        <v>229</v>
       </c>
       <c r="D82">
         <v>-2</v>
@@ -4037,16 +4119,16 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
+        <v>262</v>
+      </c>
+      <c r="M82" t="s">
+        <v>258</v>
+      </c>
+      <c r="N82" t="s">
+        <v>259</v>
+      </c>
+      <c r="P82" t="s">
         <v>263</v>
-      </c>
-      <c r="M82" t="s">
-        <v>259</v>
-      </c>
-      <c r="N82" t="s">
-        <v>260</v>
-      </c>
-      <c r="P82" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -4054,10 +4136,10 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" t="s">
         <v>228</v>
-      </c>
-      <c r="C83" t="s">
-        <v>229</v>
       </c>
       <c r="D83">
         <v>-2</v>
@@ -4069,16 +4151,16 @@
         <v>2</v>
       </c>
       <c r="L83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -4086,10 +4168,10 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" t="s">
         <v>228</v>
-      </c>
-      <c r="C84" t="s">
-        <v>229</v>
       </c>
       <c r="D84">
         <v>-2</v>
@@ -4101,16 +4183,16 @@
         <v>3</v>
       </c>
       <c r="L84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -4118,10 +4200,10 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" t="s">
         <v>228</v>
-      </c>
-      <c r="C85" t="s">
-        <v>229</v>
       </c>
       <c r="D85">
         <v>-2</v>
@@ -4133,16 +4215,16 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
+        <v>247</v>
+      </c>
+      <c r="M85" t="s">
+        <v>246</v>
+      </c>
+      <c r="N85" t="s">
         <v>248</v>
       </c>
-      <c r="M85" t="s">
-        <v>247</v>
-      </c>
-      <c r="N85" t="s">
+      <c r="P85" t="s">
         <v>249</v>
-      </c>
-      <c r="P85" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -4150,10 +4232,10 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" t="s">
         <v>228</v>
-      </c>
-      <c r="C86" t="s">
-        <v>229</v>
       </c>
       <c r="D86">
         <v>-2</v>
@@ -4165,16 +4247,16 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
+        <v>197</v>
+      </c>
+      <c r="M86" t="s">
+        <v>196</v>
+      </c>
+      <c r="N86" t="s">
         <v>198</v>
       </c>
-      <c r="M86" t="s">
-        <v>197</v>
-      </c>
-      <c r="N86" t="s">
-        <v>199</v>
-      </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
@@ -4182,10 +4264,10 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" t="s">
         <v>228</v>
-      </c>
-      <c r="C87" t="s">
-        <v>229</v>
       </c>
       <c r="D87">
         <v>-2</v>
@@ -4197,16 +4279,16 @@
         <v>2</v>
       </c>
       <c r="L87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
@@ -4214,10 +4296,10 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" t="s">
         <v>228</v>
-      </c>
-      <c r="C88" t="s">
-        <v>229</v>
       </c>
       <c r="D88">
         <v>-2</v>
@@ -4229,16 +4311,16 @@
         <v>3</v>
       </c>
       <c r="L88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N88" t="s">
+        <v>176</v>
+      </c>
+      <c r="P88" t="s">
         <v>177</v>
-      </c>
-      <c r="P88" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
@@ -4246,10 +4328,10 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" t="s">
         <v>228</v>
-      </c>
-      <c r="C89" t="s">
-        <v>229</v>
       </c>
       <c r="D89">
         <v>-2</v>
@@ -4261,16 +4343,16 @@
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M89" t="s">
+        <v>202</v>
+      </c>
+      <c r="N89" t="s">
         <v>203</v>
       </c>
-      <c r="N89" t="s">
-        <v>204</v>
-      </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -4278,10 +4360,10 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" t="s">
         <v>228</v>
-      </c>
-      <c r="C90" t="s">
-        <v>229</v>
       </c>
       <c r="D90">
         <v>-2</v>
@@ -4293,16 +4375,16 @@
         <v>2</v>
       </c>
       <c r="L90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
@@ -4310,10 +4392,10 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" t="s">
         <v>228</v>
-      </c>
-      <c r="C91" t="s">
-        <v>229</v>
       </c>
       <c r="D91">
         <v>-2</v>
@@ -4325,16 +4407,16 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
+        <v>243</v>
+      </c>
+      <c r="M91" t="s">
+        <v>240</v>
+      </c>
+      <c r="N91" t="s">
+        <v>241</v>
+      </c>
+      <c r="P91" t="s">
         <v>244</v>
-      </c>
-      <c r="M91" t="s">
-        <v>241</v>
-      </c>
-      <c r="N91" t="s">
-        <v>242</v>
-      </c>
-      <c r="P91" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
@@ -4342,10 +4424,10 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" t="s">
         <v>228</v>
-      </c>
-      <c r="C92" t="s">
-        <v>229</v>
       </c>
       <c r="D92">
         <v>-2</v>
@@ -4357,16 +4439,16 @@
         <v>2</v>
       </c>
       <c r="L92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
@@ -4374,10 +4456,10 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" t="s">
         <v>228</v>
-      </c>
-      <c r="C93" t="s">
-        <v>229</v>
       </c>
       <c r="D93">
         <v>-2</v>
@@ -4389,16 +4471,16 @@
         <v>3</v>
       </c>
       <c r="L93" t="s">
+        <v>247</v>
+      </c>
+      <c r="M93" t="s">
+        <v>246</v>
+      </c>
+      <c r="N93" t="s">
         <v>248</v>
       </c>
-      <c r="M93" t="s">
-        <v>247</v>
-      </c>
-      <c r="N93" t="s">
+      <c r="P93" t="s">
         <v>249</v>
-      </c>
-      <c r="P93" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -4406,10 +4488,10 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" t="s">
         <v>228</v>
-      </c>
-      <c r="C94" t="s">
-        <v>229</v>
       </c>
       <c r="D94">
         <v>-2</v>
@@ -4421,16 +4503,16 @@
         <v>1</v>
       </c>
       <c r="L94" t="s">
+        <v>272</v>
+      </c>
+      <c r="M94" t="s">
+        <v>267</v>
+      </c>
+      <c r="N94" t="s">
+        <v>268</v>
+      </c>
+      <c r="P94" t="s">
         <v>273</v>
-      </c>
-      <c r="M94" t="s">
-        <v>268</v>
-      </c>
-      <c r="N94" t="s">
-        <v>269</v>
-      </c>
-      <c r="P94" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -4438,10 +4520,10 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" t="s">
         <v>228</v>
-      </c>
-      <c r="C95" t="s">
-        <v>229</v>
       </c>
       <c r="D95">
         <v>-2</v>
@@ -4453,16 +4535,16 @@
         <v>2</v>
       </c>
       <c r="L95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
@@ -4470,10 +4552,10 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" t="s">
         <v>228</v>
-      </c>
-      <c r="C96" t="s">
-        <v>229</v>
       </c>
       <c r="D96">
         <v>-2</v>
@@ -4485,16 +4567,16 @@
         <v>3</v>
       </c>
       <c r="L96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
@@ -4502,10 +4584,10 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" t="s">
         <v>228</v>
-      </c>
-      <c r="C97" t="s">
-        <v>229</v>
       </c>
       <c r="D97">
         <v>-2</v>
@@ -4517,16 +4599,16 @@
         <v>4</v>
       </c>
       <c r="L97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M97" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
@@ -4534,10 +4616,10 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" t="s">
         <v>228</v>
-      </c>
-      <c r="C98" t="s">
-        <v>229</v>
       </c>
       <c r="D98">
         <v>-2</v>
@@ -4549,16 +4631,16 @@
         <v>1</v>
       </c>
       <c r="L98" t="s">
+        <v>279</v>
+      </c>
+      <c r="M98" t="s">
+        <v>277</v>
+      </c>
+      <c r="N98" t="s">
+        <v>278</v>
+      </c>
+      <c r="P98" t="s">
         <v>280</v>
-      </c>
-      <c r="M98" t="s">
-        <v>278</v>
-      </c>
-      <c r="N98" t="s">
-        <v>279</v>
-      </c>
-      <c r="P98" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
@@ -4566,10 +4648,10 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" t="s">
         <v>228</v>
-      </c>
-      <c r="C99" t="s">
-        <v>229</v>
       </c>
       <c r="D99">
         <v>-2</v>
@@ -4581,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="L99" t="s">
+        <v>282</v>
+      </c>
+      <c r="M99" t="s">
+        <v>281</v>
+      </c>
+      <c r="N99" t="s">
         <v>283</v>
       </c>
-      <c r="M99" t="s">
-        <v>282</v>
-      </c>
-      <c r="N99" t="s">
-        <v>284</v>
-      </c>
       <c r="P99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
@@ -4598,10 +4680,10 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" t="s">
         <v>228</v>
-      </c>
-      <c r="C100" t="s">
-        <v>229</v>
       </c>
       <c r="D100">
         <v>-2</v>
@@ -4613,16 +4695,16 @@
         <v>2</v>
       </c>
       <c r="L100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M100" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
@@ -4630,25 +4712,25 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C102" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102">
+        <v>-2</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
         <v>289</v>
       </c>
-      <c r="D102">
-        <v>-2</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="N102" t="s">
-        <v>290</v>
-      </c>
       <c r="P102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
@@ -4656,10 +4738,10 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103">
         <v>-2</v>
@@ -4671,10 +4753,10 @@
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
@@ -4682,10 +4764,10 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C104" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104">
         <v>-2</v>
@@ -4697,10 +4779,10 @@
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4711,15 +4793,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65014A18-B2D8-8B4D-B757-A477CADA3FA4}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -4727,13 +4809,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" t="s">
         <v>352</v>
       </c>
-      <c r="D1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4746,53 +4828,8 @@
       <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K2" t="s">
-        <v>301</v>
-      </c>
-      <c r="L2" t="s">
-        <v>302</v>
-      </c>
-      <c r="M2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O2" t="s">
-        <v>305</v>
-      </c>
-      <c r="P2" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>307</v>
-      </c>
-      <c r="R2" t="s">
-        <v>308</v>
-      </c>
-      <c r="S2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4805,53 +4842,8 @@
       <c r="D3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I3" t="s">
-        <v>313</v>
-      </c>
-      <c r="J3" t="s">
-        <v>314</v>
-      </c>
-      <c r="K3" t="s">
-        <v>315</v>
-      </c>
-      <c r="L3" t="s">
-        <v>316</v>
-      </c>
-      <c r="M3" t="s">
-        <v>317</v>
-      </c>
-      <c r="N3" t="s">
-        <v>318</v>
-      </c>
-      <c r="O3" t="s">
-        <v>319</v>
-      </c>
-      <c r="P3" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>321</v>
-      </c>
-      <c r="R3" t="s">
-        <v>322</v>
-      </c>
-      <c r="S3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4864,53 +4856,8 @@
       <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="E4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J4" t="s">
-        <v>328</v>
-      </c>
-      <c r="K4" t="s">
-        <v>329</v>
-      </c>
-      <c r="L4" t="s">
-        <v>330</v>
-      </c>
-      <c r="M4" t="s">
-        <v>331</v>
-      </c>
-      <c r="N4" t="s">
-        <v>332</v>
-      </c>
-      <c r="O4" t="s">
-        <v>333</v>
-      </c>
-      <c r="P4" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>335</v>
-      </c>
-      <c r="R4" t="s">
-        <v>336</v>
-      </c>
-      <c r="S4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4921,55 +4868,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G5" t="s">
-        <v>339</v>
-      </c>
-      <c r="H5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I5" t="s">
-        <v>341</v>
-      </c>
-      <c r="J5" t="s">
-        <v>342</v>
-      </c>
-      <c r="K5" t="s">
-        <v>343</v>
-      </c>
-      <c r="L5" t="s">
-        <v>344</v>
-      </c>
-      <c r="M5" t="s">
-        <v>345</v>
-      </c>
-      <c r="N5" t="s">
-        <v>346</v>
-      </c>
-      <c r="O5" t="s">
-        <v>347</v>
-      </c>
-      <c r="P5" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>349</v>
-      </c>
-      <c r="R5" t="s">
-        <v>350</v>
-      </c>
-      <c r="S5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4980,13 +4882,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4997,10 +4896,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5011,10 +4910,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5025,10 +4924,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5042,88 +4941,88 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5131,13 +5030,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5145,13 +5044,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -5159,13 +5058,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -5173,13 +5072,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5187,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5201,13 +5100,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5215,13 +5114,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5229,13 +5128,13 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -5243,13 +5142,315 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD5603F-5390-9C46-9203-D9C9D93DBAA1}">
+  <dimension ref="A2:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" t="s">
+        <v>307</v>
+      </c>
+      <c r="O2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N3" t="s">
+        <v>321</v>
+      </c>
+      <c r="O3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4" t="s">
+        <v>333</v>
+      </c>
+      <c r="M4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N4" t="s">
+        <v>335</v>
+      </c>
+      <c r="O4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I5" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" t="s">
+        <v>347</v>
+      </c>
+      <c r="M5" t="s">
+        <v>348</v>
+      </c>
+      <c r="N5" t="s">
+        <v>349</v>
+      </c>
+      <c r="O5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L7" t="s">
+        <v>367</v>
+      </c>
+      <c r="M7" t="s">
+        <v>368</v>
+      </c>
+      <c r="N7" t="s">
+        <v>369</v>
+      </c>
+      <c r="O7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" t="s">
+        <v>377</v>
+      </c>
+      <c r="I8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J8" t="s">
+        <v>379</v>
+      </c>
+      <c r="K8" t="s">
+        <v>380</v>
+      </c>
+      <c r="L8" t="s">
+        <v>381</v>
+      </c>
+      <c r="M8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N8" t="s">
+        <v>383</v>
+      </c>
+      <c r="O8" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/ocean_microbiomics_results/Sulfate.xlsx
+++ b/ocean_microbiomics_results/Sulfate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/DOSTraits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/GitHub/sulfurtraits/ocean_microbiomics_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80A877D-727F-4144-B7EF-3875FDEE9A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB0DD44-EE07-054A-93EB-086856BD4494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C46F703C-E130-4146-8E70-4FF57A214435}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{C46F703C-E130-4146-8E70-4FF57A214435}"/>
   </bookViews>
   <sheets>
     <sheet name="Pathways" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="1087">
   <si>
     <t>Metabolite</t>
   </si>
@@ -2461,150 +2461,33 @@
     <t>deamination, desulfonation, and oxidation to pyruvate</t>
   </si>
   <si>
-    <t>transport</t>
-  </si>
-  <si>
     <t>γ-glutamylcysteine is synthesized from cysteine and glutamate by gamma-glutamylcysteine synthetase</t>
   </si>
   <si>
     <t>phosphorylation</t>
   </si>
   <si>
-    <t>biotin</t>
-  </si>
-  <si>
-    <t>biotin transporter</t>
-  </si>
-  <si>
-    <t>biotin degradation</t>
-  </si>
-  <si>
-    <t>oxidation with hydrolysis</t>
-  </si>
-  <si>
-    <t>nucleophillic substitution reaction</t>
-  </si>
-  <si>
     <t>Coenzyme A</t>
   </si>
   <si>
-    <t>coeznyme A degradation</t>
-  </si>
-  <si>
-    <t>condensation to form Acetyl-CoA</t>
-  </si>
-  <si>
-    <t>combination to form Acetyl-CoA</t>
-  </si>
-  <si>
-    <t>transfer of CoA between compounds</t>
-  </si>
-  <si>
-    <t>coeznyme A transport</t>
-  </si>
-  <si>
-    <t>methanethiol</t>
-  </si>
-  <si>
-    <t>methanethiol degradation</t>
-  </si>
-  <si>
-    <t>nucleophilic substitution to create methionine and acetate</t>
-  </si>
-  <si>
-    <t>hydroegnation of thiol to end up with hydrogen sulfide</t>
-  </si>
-  <si>
-    <t>methanethiol synthesis</t>
-  </si>
-  <si>
-    <t>hydrolysis and production of ammonia</t>
-  </si>
-  <si>
-    <t>condensation to form methanthiol</t>
-  </si>
-  <si>
-    <t>3-mercaptopyruvate</t>
-  </si>
-  <si>
-    <t>3-mercaptopyruvate degradation</t>
-  </si>
-  <si>
-    <t>nucleophilic addition to mercaptopyruvate</t>
-  </si>
-  <si>
-    <t>3-mercaptopyruvate synthesis</t>
-  </si>
-  <si>
-    <t>glutathione disulfide</t>
-  </si>
-  <si>
-    <t>glutathione disulfide transport</t>
-  </si>
-  <si>
-    <t>transporter</t>
-  </si>
-  <si>
-    <t>glutathione disulfide degradation (and synthesis)</t>
-  </si>
-  <si>
-    <t>reduction of glutathione to form glutathione disulfide</t>
-  </si>
-  <si>
-    <t>dimethylsulfoxide</t>
-  </si>
-  <si>
-    <t>dimethylsulfoxide degradation</t>
-  </si>
-  <si>
     <t>reduction of DMSO to DMS</t>
   </si>
   <si>
-    <t>dimethylsulfone</t>
-  </si>
-  <si>
-    <t>dimethylsulfone degradation</t>
-  </si>
-  <si>
     <t>oxidation of DMSO2 to methanesulfonic</t>
   </si>
   <si>
     <t>reduction of DMSO2 to DMSO</t>
   </si>
   <si>
-    <t>methanesulfonate</t>
-  </si>
-  <si>
-    <t>methanesulfonate transport</t>
-  </si>
-  <si>
-    <t>methanesulfonate degradation</t>
-  </si>
-  <si>
     <t>sulfite formation through condenstion and oxidation of NADH</t>
   </si>
   <si>
     <t>condensation and oxidation of FMN to form sulfite</t>
   </si>
   <si>
-    <t>homotaurine</t>
-  </si>
-  <si>
-    <t>homotaurine transport</t>
-  </si>
-  <si>
-    <t>homotaurine degradation</t>
-  </si>
-  <si>
     <t>aminotransfer</t>
   </si>
   <si>
-    <t>sulfolactate</t>
-  </si>
-  <si>
-    <t>sulfolactate degradation</t>
-  </si>
-  <si>
     <t>oxidation of sulfolactate</t>
   </si>
   <si>
@@ -2629,54 +2512,21 @@
     <t>hydrolysis to form ammonia</t>
   </si>
   <si>
-    <t>sulfolactate transporter</t>
-  </si>
-  <si>
-    <t>sulfopyruvate</t>
-  </si>
-  <si>
-    <t>sulfopyruvate degradation</t>
-  </si>
-  <si>
-    <t>sulfoacetaldehyde</t>
-  </si>
-  <si>
-    <t>sulfoacetaldehyde degradation</t>
-  </si>
-  <si>
     <t>S-adenosyl-L-homocysteine</t>
   </si>
   <si>
     <t>S-adenosyl-L-homocysteine degradation</t>
   </si>
   <si>
-    <t>hydrolysis to release adenosine</t>
-  </si>
-  <si>
     <t>SQDG membrane sulfolipids</t>
   </si>
   <si>
     <t>SQDG membrane sulfolipids synthesis</t>
   </si>
   <si>
-    <t>condensation reaction</t>
-  </si>
-  <si>
-    <t>sulfoquinovosyltransfer to form SQDG</t>
-  </si>
-  <si>
-    <t>SQDG membrane sulfolipids degradation</t>
-  </si>
-  <si>
     <t>R00355</t>
   </si>
   <si>
-    <t>L-cysteate bisulfite-lyase (deaminating)</t>
-  </si>
-  <si>
-    <t>L-Cysteate + H2O &lt;=&gt; Pyruvate + HSO3- + Ammonia</t>
-  </si>
-  <si>
     <t>SPO2658</t>
   </si>
   <si>
@@ -2830,78 +2680,15 @@
     <t>R10127</t>
   </si>
   <si>
-    <t>biotin:NADP+ S-oxidoreductase (biotin S-oxide-forming)</t>
-  </si>
-  <si>
-    <t>Biotin sulfoxide + NADPH + H+ &lt;=&gt; Biotin + NADP+ + H2O</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>K08351</t>
   </si>
   <si>
-    <t>R04562</t>
-  </si>
-  <si>
-    <t>Biotin:apo-[acetyl-CoA:carbondioxide ligase (ADP-forming)] ligase (AMP-forming)</t>
-  </si>
-  <si>
-    <t>ATP + Biotin + Apo-[acetyl-CoA:carbon-dioxide ligase (ADP-forming)] &lt;=&gt; AMP + Diphosphate + [Acetyl-CoA:carbon-dioxide ligase (ADP-forming)]</t>
-  </si>
-  <si>
-    <t>6.3.4.15</t>
-  </si>
-  <si>
-    <t>R04563</t>
-  </si>
-  <si>
-    <t>Biotin:apo[methylmalonyl-CoA:pyruvate carboxyltransferase] ligase (AMP-forming)</t>
-  </si>
-  <si>
-    <t>ATP + Biotin + Apo-[methylmalonyl-CoA:pyruvate carboxytransferase] &lt;=&gt; AMP + Diphosphate + [Methylmalonyl-CoA:pyruvate carboxytransferase]</t>
-  </si>
-  <si>
-    <t>6.3.4.9</t>
-  </si>
-  <si>
     <t>K01942</t>
   </si>
   <si>
-    <t>R04582</t>
-  </si>
-  <si>
-    <t>Biotin:apo-[propionyl-CoA:carbon-dioxide ligase (ADP-forming)]</t>
-  </si>
-  <si>
-    <t>ATP + Biotin + Apo-[propionyl-CoA:carbon-dioxide ligase (ADP-forming)] &lt;=&gt; AMP + Diphosphate + [Propionyl-CoA:carbon-dioxide ligase (ADP-forming)]</t>
-  </si>
-  <si>
-    <t>6.3.4.10</t>
-  </si>
-  <si>
-    <t>R04604</t>
-  </si>
-  <si>
-    <t>Biotin:apo-[3-methylcrotonoyl-CoA:carbon-dioxide ligase (ADP-forming)] ligase (AMP-forming)</t>
-  </si>
-  <si>
-    <t>ATP + Biotin + Apo-[3-methylcrotonoyl-CoA:carbon-dioxide ligase (ADP-forming)] &lt;=&gt; AMP + Diphosphate + [3-Methylcrotonoyl-CoA:carbon-dioxide ligase (ADP-forming)]</t>
-  </si>
-  <si>
-    <t>6.3.4.11</t>
-  </si>
-  <si>
     <t>R00227</t>
   </si>
   <si>
-    <t>Acetyl-CoA hydrolase</t>
-  </si>
-  <si>
-    <t>Acetyl-CoA + H2O &lt;=&gt; CoA + Acetate</t>
-  </si>
-  <si>
     <t>3.1.2.1</t>
   </si>
   <si>
@@ -2911,45 +2698,18 @@
     <t>R00238</t>
   </si>
   <si>
-    <t>acetyl-CoA:acetyl-CoA C-acetyltransferase</t>
-  </si>
-  <si>
-    <t>2 Acetyl-CoA &lt;=&gt; CoA + Acetoacetyl-CoA</t>
-  </si>
-  <si>
     <t>2.3.1.16</t>
   </si>
   <si>
-    <t>K00632;K07508;K07509;K07513;K00626</t>
-  </si>
-  <si>
     <t>R01177</t>
   </si>
   <si>
-    <t>butanoyl-CoA:acetyl-CoA C-butanoyltransferase</t>
-  </si>
-  <si>
-    <t>Acetyl-CoA + Butanoyl-CoA &lt;=&gt; CoA + 3-Oxohexanoyl-CoA</t>
-  </si>
-  <si>
     <t>K15085</t>
   </si>
   <si>
-    <t>O-Acetyl-L-homoserine acetate-lyase</t>
-  </si>
-  <si>
-    <t>O-Acetyl-L-homoserine + Methanethiol &lt;=&gt; L-Methionine + Acetate</t>
-  </si>
-  <si>
     <t>R01851</t>
   </si>
   <si>
-    <t>Methanethiol:oxygen oxidoreductase</t>
-  </si>
-  <si>
-    <t>Methanethiol + Oxygen + H2O &lt;=&gt; Hydrogen sulfide + Formaldehyde + Hydrogen peroxide</t>
-  </si>
-  <si>
     <t>1.8.3.4</t>
   </si>
   <si>
@@ -2959,12 +2719,6 @@
     <t>R00654</t>
   </si>
   <si>
-    <t>L-methionine methanethiol-lyase (deaminating;2-oxobutanoate-forming)</t>
-  </si>
-  <si>
-    <t>L-Methionine + H2O &lt;=&gt; Methanethiol + Ammonia + 2-Oxobutanoate</t>
-  </si>
-  <si>
     <t>4.4.1.11</t>
   </si>
   <si>
@@ -2974,12 +2728,6 @@
     <t>R09786</t>
   </si>
   <si>
-    <t>dimethyl sulfide,NADH:oxygen oxidoreductase</t>
-  </si>
-  <si>
-    <t>Dimethyl sulfide + Oxygen + NADH + H+ &lt;=&gt; Methanethiol + Formaldehyde + NAD+ + H2O</t>
-  </si>
-  <si>
     <t>1.14.13.131</t>
   </si>
   <si>
@@ -2989,57 +2737,24 @@
     <t>R12689</t>
   </si>
   <si>
-    <t>3-mercaptopyruvate sulfurtransferase</t>
-  </si>
-  <si>
-    <t>Mercaptopyruvate + [Protein]-L-cysteine &lt;=&gt; Pyruvate + [Protein]-S-sulfanyl-L-cysteine</t>
-  </si>
-  <si>
     <t>2.8.1.2</t>
   </si>
   <si>
     <t>K01011</t>
   </si>
   <si>
-    <t>ABC-type glutathione-S-conjugate transporter</t>
-  </si>
-  <si>
-    <t>ATP + H2O + glutathione-S-conjugate[side 1] = ADP + phosphate + glutathione-S-conjugate[side 2]</t>
-  </si>
-  <si>
     <t>7.6.2.3</t>
   </si>
   <si>
-    <t xml:space="preserve">K05665 </t>
-  </si>
-  <si>
-    <t>glutathione:NADP+ oxidoreductase</t>
-  </si>
-  <si>
-    <t>2 Glutathione + NADP+ &lt;=&gt; Glutathione disulfide + NADPH + H+</t>
-  </si>
-  <si>
     <t>R09501</t>
   </si>
   <si>
-    <t>dimethyl sulfide:menaquinone oxidoreductase</t>
-  </si>
-  <si>
-    <t>Dimethyl sulfide + Menaquinone + H2O &lt;=&gt; Dimethyl sulfoxide + Menaquinol</t>
-  </si>
-  <si>
     <t>1.8.5.3</t>
   </si>
   <si>
     <t>R10203</t>
   </si>
   <si>
-    <t>dimethyl sulfone,FMNH2:oxygen oxidoreductase</t>
-  </si>
-  <si>
-    <t>dimethyl sulfone + FMNH2 + O2 = methanesulfinate + formaldehyde + FMN + H2O</t>
-  </si>
-  <si>
     <t>1.14.14.35</t>
   </si>
   <si>
@@ -3049,36 +2764,18 @@
     <t>R09498</t>
   </si>
   <si>
-    <t>dimethylsulfone reductase</t>
-  </si>
-  <si>
-    <t>Dimethyl sulfoxide + H2O + NAD+ &lt;=&gt; Dimethyl sulfone + NADH + H+</t>
-  </si>
-  <si>
     <t>1.8.1.17</t>
   </si>
   <si>
     <t>R09513</t>
   </si>
   <si>
-    <t>methanesulfonate,NADH:oxygen oxidoreductase</t>
-  </si>
-  <si>
-    <t>Methanesulfonic acid + NADH + H+ + Oxygen &lt;=&gt; Formaldehyde + NAD+ + Sulfite + H2O</t>
-  </si>
-  <si>
     <t>1.14.13.111</t>
   </si>
   <si>
     <t>R10206</t>
   </si>
   <si>
-    <t>methanesulfonate,FMNH2:oxygen oxidoreductase</t>
-  </si>
-  <si>
-    <t>Methanesulfonic acid + Reduced FMN + Oxygen &lt;=&gt; FMN + Sulfite + H2O + Formaldehyde</t>
-  </si>
-  <si>
     <t>1.14.14.34</t>
   </si>
   <si>
@@ -3094,78 +2791,15 @@
     <t>R00713</t>
   </si>
   <si>
-    <t>succinate-semialdehyde:NAD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t>Succinate semialdehyde + NAD+ + H2O &lt;=&gt; Succinate + NADH + H+</t>
-  </si>
-  <si>
     <t>1.2.1.24</t>
   </si>
   <si>
-    <t>K00139;K08324;K17761</t>
-  </si>
-  <si>
-    <t>(R)-2-hydroxyacid:NAD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t>(S)-3-Sulfolactate + NAD+ &lt;=&gt; 3-Sulfopyruvate + NADH + H+</t>
-  </si>
-  <si>
-    <t>(2R)-3-sulfolactate:NADP+ oxidoreductase</t>
-  </si>
-  <si>
-    <t>(2R)-3-Sulfolactate + NADP+ &lt;=&gt; 3-Sulfopyruvate + NADPH + H+</t>
-  </si>
-  <si>
-    <t>3-sulfolactate bisulfite-lyase</t>
-  </si>
-  <si>
-    <t>(2R)-3-Sulfolactate &lt;=&gt; Pyruvate + HSO3-</t>
-  </si>
-  <si>
-    <t>sulfopyruvate carboxy-lyase</t>
-  </si>
-  <si>
-    <t>3-Sulfopyruvate &lt;=&gt; Sulfoacetaldehyde + CO2</t>
-  </si>
-  <si>
-    <t>acetyl-phosphate:sulfite S-acetyltransferase (acyl-phosphate hydrolysing, 2-oxoethyl-forming)</t>
-  </si>
-  <si>
-    <t>Sulfoacetaldehyde + Orthophosphate &lt;=&gt; Acetyl phosphate + Sulfite</t>
-  </si>
-  <si>
-    <t>acetyl-CoA:phosphate acetyltransferase</t>
-  </si>
-  <si>
-    <t>Acetyl-CoA + Orthophosphate &lt;=&gt; CoA + Acetyl phosphate</t>
-  </si>
-  <si>
-    <t>L-Aspartate:2-oxoglutarate aminotransferase</t>
-  </si>
-  <si>
-    <t>L-Aspartate + 2-Oxoglutarate &lt;=&gt; Oxaloacetate + L-Glutamate</t>
-  </si>
-  <si>
-    <t>S-Adenosyl-L-homocysteine hydrolase</t>
-  </si>
-  <si>
-    <t>S-Adenosyl-L-homocysteine + H2O &lt;=&gt; Adenosine + L-Homocysteine</t>
-  </si>
-  <si>
     <t>3.3.1.1</t>
   </si>
   <si>
     <t>R05775</t>
   </si>
   <si>
-    <t>UDP-6-sulfo-6-deoxyglucose sulfohydrolase</t>
-  </si>
-  <si>
-    <t>UDP-glucose + Sulfite &lt;=&gt; UDP-6-sulfoquinovose + H2O</t>
-  </si>
-  <si>
     <t>3.13.1.1</t>
   </si>
   <si>
@@ -3175,12 +2809,6 @@
     <t>R06867</t>
   </si>
   <si>
-    <t>UDP-sulfoquinovose:diacylglycerol alpha-D-sulfoquinovosyltransferase</t>
-  </si>
-  <si>
-    <t>UDP-6-sulfoquinovose + 1,2-Diacyl-sn-glycerol &lt;=&gt; Sulfoquinovosyldiacylglycerol + UDP</t>
-  </si>
-  <si>
     <t>K06119</t>
   </si>
   <si>
@@ -3247,426 +2875,6 @@
     <t>thiF</t>
   </si>
   <si>
-    <r>
-      <t>K01942</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K01947</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K03524</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K07306</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K07307</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K07308</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K00184</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K00185</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K10117</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K10118</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K10119</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K16968</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K16969</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K16845</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K16846</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K06034</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K13039</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K24393</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K00625</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K13788</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K15024</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K00812</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K00811</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K00813</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K11358</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K14454</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K14455</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K15849</t>
-    </r>
-  </si>
-  <si>
     <t>thiI</t>
   </si>
   <si>
@@ -3797,6 +3005,300 @@
   </si>
   <si>
     <t>11,12,13</t>
+  </si>
+  <si>
+    <t>Biotin</t>
+  </si>
+  <si>
+    <t>Biotin Transport</t>
+  </si>
+  <si>
+    <t>Biotin Degradation</t>
+  </si>
+  <si>
+    <t>bisC</t>
+  </si>
+  <si>
+    <t>R04562;R04563;R04582;R04604</t>
+  </si>
+  <si>
+    <t>K01947</t>
+  </si>
+  <si>
+    <t>K03524</t>
+  </si>
+  <si>
+    <t>hlcs</t>
+  </si>
+  <si>
+    <t>birA</t>
+  </si>
+  <si>
+    <t>birAcoaX</t>
+  </si>
+  <si>
+    <t>Coenzyme A Degradation</t>
+  </si>
+  <si>
+    <t>ach1</t>
+  </si>
+  <si>
+    <t>K00632</t>
+  </si>
+  <si>
+    <t>K07508</t>
+  </si>
+  <si>
+    <t>K07509</t>
+  </si>
+  <si>
+    <t>K07513</t>
+  </si>
+  <si>
+    <t>fadA</t>
+  </si>
+  <si>
+    <t>acaa2</t>
+  </si>
+  <si>
+    <t>hadhB</t>
+  </si>
+  <si>
+    <t>acaa1</t>
+  </si>
+  <si>
+    <t>K00626</t>
+  </si>
+  <si>
+    <t>2.3.1.9</t>
+  </si>
+  <si>
+    <t>acat</t>
+  </si>
+  <si>
+    <t>Coenzyme A Transport</t>
+  </si>
+  <si>
+    <t>SLC25A42</t>
+  </si>
+  <si>
+    <t>Methanethiol</t>
+  </si>
+  <si>
+    <t>Methanethiol Degradation</t>
+  </si>
+  <si>
+    <t>Methanethiol Synthesis</t>
+  </si>
+  <si>
+    <t>mgl</t>
+  </si>
+  <si>
+    <t>selenbp1</t>
+  </si>
+  <si>
+    <t>dmoA</t>
+  </si>
+  <si>
+    <t>3-Mercaptopyruvate</t>
+  </si>
+  <si>
+    <t>3-Mercaptopyruvate Degradation</t>
+  </si>
+  <si>
+    <t>3-Mercaptopyruvate Synthesis</t>
+  </si>
+  <si>
+    <t>Glutathione disulfide</t>
+  </si>
+  <si>
+    <t>Glutathione disulfide transport</t>
+  </si>
+  <si>
+    <t>K05665</t>
+  </si>
+  <si>
+    <t>Glutathione disulfide degradation and synthesis</t>
+  </si>
+  <si>
+    <t>gsr</t>
+  </si>
+  <si>
+    <t>abcc1</t>
+  </si>
+  <si>
+    <t>tst</t>
+  </si>
+  <si>
+    <t>Dimethylsulfoxide</t>
+  </si>
+  <si>
+    <t>Dimethylsulfoxide Degradation</t>
+  </si>
+  <si>
+    <t>dmsA</t>
+  </si>
+  <si>
+    <t>K07306</t>
+  </si>
+  <si>
+    <t>K07307</t>
+  </si>
+  <si>
+    <t>K07308</t>
+  </si>
+  <si>
+    <t>K00184</t>
+  </si>
+  <si>
+    <t>K00185</t>
+  </si>
+  <si>
+    <t>dmsB</t>
+  </si>
+  <si>
+    <t>dmsC</t>
+  </si>
+  <si>
+    <t>dmsB2</t>
+  </si>
+  <si>
+    <t>dmsC2</t>
+  </si>
+  <si>
+    <t>Dimethylsulfone</t>
+  </si>
+  <si>
+    <t>Dimethylsulfone Degradation</t>
+  </si>
+  <si>
+    <t>sfnG</t>
+  </si>
+  <si>
+    <t>Methanesulfonate</t>
+  </si>
+  <si>
+    <t>Methanesulfonate Transport</t>
+  </si>
+  <si>
+    <t>K10117</t>
+  </si>
+  <si>
+    <t>K10118</t>
+  </si>
+  <si>
+    <t>K10119</t>
+  </si>
+  <si>
+    <t>msmF</t>
+  </si>
+  <si>
+    <t>msmE</t>
+  </si>
+  <si>
+    <t>msmG</t>
+  </si>
+  <si>
+    <t>Methanesulfonate Degradation</t>
+  </si>
+  <si>
+    <t>K16968</t>
+  </si>
+  <si>
+    <t>K16969</t>
+  </si>
+  <si>
+    <t>K15762</t>
+  </si>
+  <si>
+    <t>K15765</t>
+  </si>
+  <si>
+    <t>ssuD</t>
+  </si>
+  <si>
+    <t>msmA</t>
+  </si>
+  <si>
+    <t>msmB</t>
+  </si>
+  <si>
+    <t>tmoC</t>
+  </si>
+  <si>
+    <t>tmoF</t>
+  </si>
+  <si>
+    <t>Homotaurine</t>
+  </si>
+  <si>
+    <t>Homotaurine Degradation</t>
+  </si>
+  <si>
+    <t>Homotaurine Transport</t>
+  </si>
+  <si>
+    <t>gabP</t>
+  </si>
+  <si>
+    <t>gabT</t>
+  </si>
+  <si>
+    <t>K00139</t>
+  </si>
+  <si>
+    <t>K17761</t>
+  </si>
+  <si>
+    <t>K08324</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>aldh5a1</t>
+  </si>
+  <si>
+    <t>ssadh</t>
+  </si>
+  <si>
+    <t>Sulfolactate</t>
+  </si>
+  <si>
+    <t>Sulfolactate degradation</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>pta</t>
+  </si>
+  <si>
+    <t>Sulfolactate Transport</t>
+  </si>
+  <si>
+    <t>Sulfopyruvate</t>
+  </si>
+  <si>
+    <t>Sulfopyruvate Degradation</t>
+  </si>
+  <si>
+    <t>Sulfoacetaldehyde</t>
+  </si>
+  <si>
+    <t>Sulfoacetaldehyde Degradation</t>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>6,7</t>
   </si>
 </sst>
 </file>
@@ -4244,10 +3746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E88251-DA92-7748-8897-50AC81C61AF4}">
-  <dimension ref="A1:AB413"/>
+  <dimension ref="A1:AB435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D316" sqref="D316"/>
+    <sheetView topLeftCell="A353" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="C378" activeCellId="5" sqref="A371 C371 A376 C376 A378 C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11518,7 +11020,7 @@
         <v>24</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1114</v>
+        <v>982</v>
       </c>
       <c r="F259" s="2">
         <v>1</v>
@@ -11541,7 +11043,7 @@
         <v>25</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1115</v>
+        <v>983</v>
       </c>
       <c r="F260" s="2">
         <v>1</v>
@@ -11570,7 +11072,7 @@
         <v>25</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1115</v>
+        <v>983</v>
       </c>
       <c r="F261" s="2">
         <v>1</v>
@@ -11599,7 +11101,7 @@
         <v>26</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1116</v>
+        <v>984</v>
       </c>
       <c r="F262" s="2">
         <v>1</v>
@@ -11628,7 +11130,7 @@
         <v>26</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>1116</v>
+        <v>984</v>
       </c>
       <c r="F263" s="2">
         <v>1</v>
@@ -11793,10 +11295,10 @@
         <v>29</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="F272" s="2">
         <v>1</v>
@@ -11808,7 +11310,7 @@
         <v>805</v>
       </c>
       <c r="L272" s="2" t="s">
-        <v>876</v>
+        <v>828</v>
       </c>
       <c r="M272" s="2" t="s">
         <v>391</v>
@@ -11825,10 +11327,10 @@
         <v>29</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="F273" s="2">
         <v>1</v>
@@ -11840,7 +11342,7 @@
         <v>805</v>
       </c>
       <c r="L273" s="2" t="s">
-        <v>876</v>
+        <v>828</v>
       </c>
       <c r="M273" s="2" t="s">
         <v>391</v>
@@ -11857,10 +11359,10 @@
         <v>29</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="F274" s="2">
         <v>1</v>
@@ -11872,7 +11374,7 @@
         <v>805</v>
       </c>
       <c r="L274" s="2" t="s">
-        <v>876</v>
+        <v>828</v>
       </c>
       <c r="M274" s="2" t="s">
         <v>391</v>
@@ -11889,10 +11391,10 @@
         <v>29</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="F275" s="2">
         <v>1</v>
@@ -11904,7 +11406,7 @@
         <v>805</v>
       </c>
       <c r="L275" s="2" t="s">
-        <v>876</v>
+        <v>828</v>
       </c>
       <c r="M275" s="2" t="s">
         <v>391</v>
@@ -11921,10 +11423,10 @@
         <v>29</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="F276" s="2">
         <v>1</v>
@@ -11936,7 +11438,7 @@
         <v>805</v>
       </c>
       <c r="L276" s="2" t="s">
-        <v>876</v>
+        <v>828</v>
       </c>
       <c r="M276" s="2" t="s">
         <v>391</v>
@@ -11953,10 +11455,10 @@
         <v>29</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="F277" s="2">
         <v>1</v>
@@ -11968,7 +11470,7 @@
         <v>805</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>876</v>
+        <v>828</v>
       </c>
       <c r="M277" s="2" t="s">
         <v>391</v>
@@ -11985,10 +11487,10 @@
         <v>29</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="F278" s="2">
         <v>2</v>
@@ -12017,10 +11519,10 @@
         <v>29</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="F279" s="2">
         <v>3</v>
@@ -12046,10 +11548,10 @@
         <v>29</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="F280" s="2">
         <v>4</v>
@@ -12075,10 +11577,10 @@
         <v>29</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="F281" s="2">
         <v>4</v>
@@ -12104,10 +11606,10 @@
         <v>30</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1050</v>
+        <v>926</v>
       </c>
       <c r="F283" s="2">
         <v>1</v>
@@ -12116,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>879</v>
+        <v>829</v>
       </c>
       <c r="N283" s="2" t="s">
         <v>723</v>
@@ -12127,10 +11629,10 @@
         <v>30</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1050</v>
+        <v>926</v>
       </c>
       <c r="F284" s="2">
         <v>1</v>
@@ -12139,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="N284" s="2" t="s">
         <v>723</v>
@@ -12150,10 +11652,10 @@
         <v>30</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>1050</v>
+        <v>926</v>
       </c>
       <c r="F285" s="2">
         <v>1</v>
@@ -12162,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>881</v>
+        <v>831</v>
       </c>
       <c r="N285" s="2" t="s">
         <v>723</v>
@@ -12173,10 +11675,10 @@
         <v>30</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1048</v>
+        <v>924</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1050</v>
+        <v>926</v>
       </c>
       <c r="F286" s="2">
         <v>1</v>
@@ -12185,7 +11687,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="N286" s="2" t="s">
         <v>723</v>
@@ -12196,10 +11698,10 @@
         <v>31</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1051</v>
+        <v>927</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>1052</v>
+        <v>928</v>
       </c>
       <c r="F288" s="2">
         <v>1</v>
@@ -12208,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L288" s="2" t="s">
         <v>538</v>
@@ -12228,10 +11730,10 @@
         <v>31</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1051</v>
+        <v>927</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>1052</v>
+        <v>928</v>
       </c>
       <c r="F289" s="2">
         <v>1</v>
@@ -12240,7 +11742,7 @@
         <v>2</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L289" s="2" t="s">
         <v>538</v>
@@ -12260,10 +11762,10 @@
         <v>31</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1051</v>
+        <v>927</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1052</v>
+        <v>928</v>
       </c>
       <c r="F290" s="2">
         <v>1</v>
@@ -12272,7 +11774,7 @@
         <v>3</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L290" s="2" t="s">
         <v>538</v>
@@ -12292,10 +11794,10 @@
         <v>31</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1051</v>
+        <v>927</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1052</v>
+        <v>928</v>
       </c>
       <c r="F291" s="2">
         <v>1</v>
@@ -12304,7 +11806,7 @@
         <v>4</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L291" s="2" t="s">
         <v>538</v>
@@ -12324,10 +11826,10 @@
         <v>31</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1051</v>
+        <v>927</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1052</v>
+        <v>928</v>
       </c>
       <c r="F292" s="2">
         <v>2</v>
@@ -12336,10 +11838,10 @@
         <v>1</v>
       </c>
       <c r="L292" s="2" t="s">
-        <v>883</v>
+        <v>833</v>
       </c>
       <c r="M292" s="2" t="s">
-        <v>884</v>
+        <v>834</v>
       </c>
       <c r="N292" s="2" t="s">
         <v>723</v>
@@ -12350,10 +11852,10 @@
         <v>32</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1058</v>
+        <v>934</v>
       </c>
       <c r="F294" s="2">
         <v>1</v>
@@ -12362,10 +11864,10 @@
         <v>1</v>
       </c>
       <c r="N294" s="2" t="s">
-        <v>885</v>
+        <v>835</v>
       </c>
       <c r="P294" s="2" t="s">
-        <v>1053</v>
+        <v>929</v>
       </c>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
@@ -12373,10 +11875,10 @@
         <v>32</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1058</v>
+        <v>934</v>
       </c>
       <c r="F295" s="2">
         <v>1</v>
@@ -12385,10 +11887,10 @@
         <v>1</v>
       </c>
       <c r="N295" s="2" t="s">
-        <v>886</v>
+        <v>836</v>
       </c>
       <c r="P295" s="2" t="s">
-        <v>1054</v>
+        <v>930</v>
       </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
@@ -12396,10 +11898,10 @@
         <v>32</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1058</v>
+        <v>934</v>
       </c>
       <c r="F296" s="2">
         <v>1</v>
@@ -12408,10 +11910,10 @@
         <v>1</v>
       </c>
       <c r="N296" s="2" t="s">
-        <v>887</v>
+        <v>837</v>
       </c>
       <c r="P296" s="2" t="s">
-        <v>1055</v>
+        <v>931</v>
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
@@ -12419,10 +11921,10 @@
         <v>33</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F298" s="2">
         <v>1</v>
@@ -12431,16 +11933,16 @@
         <v>1</v>
       </c>
       <c r="L298" s="2" t="s">
-        <v>888</v>
+        <v>838</v>
       </c>
       <c r="M298" s="2" t="s">
-        <v>889</v>
+        <v>839</v>
       </c>
       <c r="N298" s="2" t="s">
-        <v>890</v>
+        <v>840</v>
       </c>
       <c r="P298" s="2" t="s">
-        <v>1056</v>
+        <v>932</v>
       </c>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
@@ -12448,10 +11950,10 @@
         <v>33</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F299" s="2">
         <v>2</v>
@@ -12460,16 +11962,16 @@
         <v>1</v>
       </c>
       <c r="L299" s="2" t="s">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="M299" s="2" t="s">
-        <v>892</v>
+        <v>842</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>1060</v>
+        <v>936</v>
       </c>
       <c r="P299" s="2" t="s">
-        <v>1061</v>
+        <v>937</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
@@ -12477,10 +11979,10 @@
         <v>33</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F300" s="2">
         <v>2</v>
@@ -12489,16 +11991,16 @@
         <v>2</v>
       </c>
       <c r="L300" s="2" t="s">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="M300" s="2" t="s">
-        <v>892</v>
+        <v>842</v>
       </c>
       <c r="N300" s="2" t="s">
-        <v>1062</v>
+        <v>938</v>
       </c>
       <c r="P300" s="2" t="s">
-        <v>1065</v>
+        <v>941</v>
       </c>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
@@ -12506,10 +12008,10 @@
         <v>33</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F301" s="2">
         <v>2</v>
@@ -12518,16 +12020,16 @@
         <v>3</v>
       </c>
       <c r="L301" s="2" t="s">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="M301" s="2" t="s">
-        <v>892</v>
+        <v>842</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>1063</v>
+        <v>939</v>
       </c>
       <c r="P301" s="2" t="s">
-        <v>1066</v>
+        <v>942</v>
       </c>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
@@ -12535,10 +12037,10 @@
         <v>33</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F302" s="2">
         <v>2</v>
@@ -12547,16 +12049,16 @@
         <v>4</v>
       </c>
       <c r="L302" s="2" t="s">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="M302" s="2" t="s">
-        <v>892</v>
+        <v>842</v>
       </c>
       <c r="N302" s="2" t="s">
-        <v>1064</v>
+        <v>940</v>
       </c>
       <c r="P302" s="2" t="s">
-        <v>1067</v>
+        <v>943</v>
       </c>
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.2">
@@ -12564,10 +12066,10 @@
         <v>33</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F303" s="2">
         <v>3</v>
@@ -12576,16 +12078,16 @@
         <v>1</v>
       </c>
       <c r="L303" s="2" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="M303" s="2" t="s">
-        <v>898</v>
+        <v>848</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="P303" s="2" t="s">
-        <v>1068</v>
+        <v>944</v>
       </c>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.2">
@@ -12593,10 +12095,10 @@
         <v>33</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F304" s="2">
         <v>4</v>
@@ -12605,16 +12107,16 @@
         <v>1</v>
       </c>
       <c r="L304" s="2" t="s">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="M304" s="2" t="s">
-        <v>901</v>
+        <v>851</v>
       </c>
       <c r="N304" s="2" t="s">
-        <v>902</v>
+        <v>852</v>
       </c>
       <c r="P304" s="2" t="s">
-        <v>1077</v>
+        <v>945</v>
       </c>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.2">
@@ -12622,10 +12124,10 @@
         <v>33</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F305" s="2">
         <v>5</v>
@@ -12634,16 +12136,16 @@
         <v>1</v>
       </c>
       <c r="L305" s="2" t="s">
-        <v>903</v>
+        <v>853</v>
       </c>
       <c r="M305" s="2" t="s">
-        <v>904</v>
+        <v>854</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>905</v>
+        <v>855</v>
       </c>
       <c r="P305" s="2" t="s">
-        <v>1078</v>
+        <v>946</v>
       </c>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.2">
@@ -12651,10 +12153,10 @@
         <v>33</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F306" s="2">
         <v>6</v>
@@ -12663,16 +12165,16 @@
         <v>1</v>
       </c>
       <c r="L306" s="2" t="s">
-        <v>906</v>
+        <v>856</v>
       </c>
       <c r="M306" s="2" t="s">
-        <v>907</v>
+        <v>857</v>
       </c>
       <c r="N306" s="2" t="s">
-        <v>908</v>
+        <v>858</v>
       </c>
       <c r="P306" s="2" t="s">
-        <v>1079</v>
+        <v>947</v>
       </c>
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.2">
@@ -12680,10 +12182,10 @@
         <v>33</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F307" s="2">
         <v>7</v>
@@ -12692,16 +12194,16 @@
         <v>1</v>
       </c>
       <c r="L307" s="2" t="s">
-        <v>909</v>
+        <v>859</v>
       </c>
       <c r="M307" s="2" t="s">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="N307" s="2" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="P307" s="2" t="s">
-        <v>1080</v>
+        <v>948</v>
       </c>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.2">
@@ -12709,10 +12211,10 @@
         <v>33</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F308" s="2">
         <v>8</v>
@@ -12721,16 +12223,16 @@
         <v>1</v>
       </c>
       <c r="L308" s="2" t="s">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="M308" s="2" t="s">
-        <v>913</v>
+        <v>863</v>
       </c>
       <c r="N308" s="2" t="s">
-        <v>914</v>
+        <v>864</v>
       </c>
       <c r="P308" s="2" t="s">
-        <v>1081</v>
+        <v>949</v>
       </c>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.2">
@@ -12738,10 +12240,10 @@
         <v>33</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F309" s="2">
         <v>9</v>
@@ -12750,16 +12252,16 @@
         <v>1</v>
       </c>
       <c r="L309" s="2" t="s">
-        <v>893</v>
+        <v>843</v>
       </c>
       <c r="M309" s="2" t="s">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="N309" s="2" t="s">
-        <v>1083</v>
+        <v>951</v>
       </c>
       <c r="P309" s="2" t="s">
-        <v>1082</v>
+        <v>950</v>
       </c>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.2">
@@ -12767,10 +12269,10 @@
         <v>33</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F310" s="2">
         <v>9</v>
@@ -12779,16 +12281,16 @@
         <v>2</v>
       </c>
       <c r="L310" s="2" t="s">
-        <v>893</v>
+        <v>843</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="N310" s="2" t="s">
-        <v>1085</v>
+        <v>953</v>
       </c>
       <c r="P310" s="2" t="s">
-        <v>1084</v>
+        <v>952</v>
       </c>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.2">
@@ -12796,10 +12298,10 @@
         <v>33</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F311" s="2">
         <v>9</v>
@@ -12808,16 +12310,16 @@
         <v>3</v>
       </c>
       <c r="L311" s="2" t="s">
-        <v>893</v>
+        <v>843</v>
       </c>
       <c r="M311" s="2" t="s">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="N311" s="2" t="s">
-        <v>1063</v>
+        <v>939</v>
       </c>
       <c r="P311" s="2" t="s">
-        <v>1066</v>
+        <v>942</v>
       </c>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.2">
@@ -12825,10 +12327,10 @@
         <v>33</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F312" s="2">
         <v>9</v>
@@ -12837,16 +12339,16 @@
         <v>4</v>
       </c>
       <c r="L312" s="2" t="s">
-        <v>893</v>
+        <v>843</v>
       </c>
       <c r="M312" s="2" t="s">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="N312" s="2" t="s">
-        <v>1064</v>
+        <v>940</v>
       </c>
       <c r="P312" s="2" t="s">
-        <v>1067</v>
+        <v>943</v>
       </c>
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.2">
@@ -12854,10 +12356,10 @@
         <v>33</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F313" s="2">
         <v>9</v>
@@ -12866,16 +12368,16 @@
         <v>5</v>
       </c>
       <c r="L313" s="2" t="s">
-        <v>893</v>
+        <v>843</v>
       </c>
       <c r="M313" s="2" t="s">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="N313" s="2" t="s">
-        <v>1086</v>
+        <v>954</v>
       </c>
       <c r="P313" s="2" t="s">
-        <v>1087</v>
+        <v>955</v>
       </c>
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.2">
@@ -12883,10 +12385,10 @@
         <v>33</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F314" s="3">
         <v>10</v>
@@ -12897,16 +12399,16 @@
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="L314" s="2" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="M314" s="2" t="s">
-        <v>896</v>
+        <v>846</v>
       </c>
       <c r="N314" s="2" t="s">
-        <v>1089</v>
+        <v>957</v>
       </c>
       <c r="P314" s="2" t="s">
-        <v>1088</v>
+        <v>956</v>
       </c>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.2">
@@ -12914,10 +12416,10 @@
         <v>33</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F315" s="3">
         <v>10</v>
@@ -12928,16 +12430,16 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
       <c r="L315" s="2" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="M315" s="2" t="s">
-        <v>1094</v>
+        <v>962</v>
       </c>
       <c r="N315" s="2" t="s">
-        <v>1091</v>
+        <v>959</v>
       </c>
       <c r="P315" s="2" t="s">
-        <v>1090</v>
+        <v>958</v>
       </c>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.2">
@@ -12945,10 +12447,10 @@
         <v>33</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F316" s="3">
         <v>10</v>
@@ -12959,16 +12461,16 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
       <c r="L316" s="2" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="M316" s="2" t="s">
-        <v>1094</v>
+        <v>962</v>
       </c>
       <c r="N316" s="2" t="s">
-        <v>1092</v>
+        <v>960</v>
       </c>
       <c r="P316" s="2" t="s">
-        <v>1095</v>
+        <v>963</v>
       </c>
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.2">
@@ -12976,10 +12478,10 @@
         <v>33</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F317" s="3">
         <v>10</v>
@@ -12990,16 +12492,16 @@
       <c r="I317" s="3"/>
       <c r="J317" s="6"/>
       <c r="L317" s="2" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="M317" s="2" t="s">
-        <v>1094</v>
+        <v>962</v>
       </c>
       <c r="N317" s="2" t="s">
-        <v>1093</v>
+        <v>961</v>
       </c>
       <c r="P317" s="2" t="s">
-        <v>1096</v>
+        <v>964</v>
       </c>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.2">
@@ -13007,10 +12509,10 @@
         <v>33</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F318" s="3">
         <v>10</v>
@@ -13021,16 +12523,16 @@
       <c r="I318" s="3"/>
       <c r="J318" s="6"/>
       <c r="L318" s="2" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="M318" s="2" t="s">
-        <v>1099</v>
+        <v>967</v>
       </c>
       <c r="N318" s="2" t="s">
-        <v>1097</v>
+        <v>965</v>
       </c>
       <c r="P318" s="2" t="s">
-        <v>1100</v>
+        <v>968</v>
       </c>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.2">
@@ -13038,10 +12540,10 @@
         <v>33</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F319" s="3">
         <v>10</v>
@@ -13052,16 +12554,16 @@
       <c r="I319" s="3"/>
       <c r="J319" s="6"/>
       <c r="L319" s="2" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="M319" s="2" t="s">
-        <v>1099</v>
+        <v>967</v>
       </c>
       <c r="N319" s="2" t="s">
-        <v>1098</v>
+        <v>966</v>
       </c>
       <c r="P319" s="2" t="s">
-        <v>1101</v>
+        <v>969</v>
       </c>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.2">
@@ -13069,10 +12571,10 @@
         <v>33</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F320" s="3">
         <v>11</v>
@@ -13083,16 +12585,16 @@
       <c r="I320" s="3"/>
       <c r="J320" s="6"/>
       <c r="L320" s="2" t="s">
-        <v>915</v>
+        <v>865</v>
       </c>
       <c r="M320" s="2" t="s">
-        <v>916</v>
+        <v>866</v>
       </c>
       <c r="N320" s="2" t="s">
-        <v>917</v>
+        <v>867</v>
       </c>
       <c r="P320" s="2" t="s">
-        <v>1102</v>
+        <v>970</v>
       </c>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.2">
@@ -13100,10 +12602,10 @@
         <v>33</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F321" s="3">
         <v>12</v>
@@ -13114,16 +12616,16 @@
       <c r="I321" s="3"/>
       <c r="J321" s="6"/>
       <c r="L321" s="2" t="s">
-        <v>918</v>
+        <v>868</v>
       </c>
       <c r="M321" s="2" t="s">
-        <v>919</v>
+        <v>869</v>
       </c>
       <c r="N321" s="2" t="s">
-        <v>1104</v>
+        <v>972</v>
       </c>
       <c r="P321" s="2" t="s">
-        <v>1103</v>
+        <v>971</v>
       </c>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.2">
@@ -13131,10 +12633,10 @@
         <v>33</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F322" s="3">
         <v>12</v>
@@ -13145,16 +12647,16 @@
       <c r="I322" s="3"/>
       <c r="J322" s="6"/>
       <c r="L322" s="2" t="s">
-        <v>918</v>
+        <v>868</v>
       </c>
       <c r="M322" s="2" t="s">
-        <v>919</v>
+        <v>869</v>
       </c>
       <c r="N322" s="2" t="s">
-        <v>1060</v>
+        <v>936</v>
       </c>
       <c r="P322" s="2" t="s">
-        <v>1061</v>
+        <v>937</v>
       </c>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.2">
@@ -13162,10 +12664,10 @@
         <v>33</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1057</v>
+        <v>933</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="F323" s="3">
         <v>13</v>
@@ -13174,16 +12676,16 @@
         <v>1</v>
       </c>
       <c r="L323" s="2" t="s">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="M323" s="2" t="s">
-        <v>921</v>
+        <v>871</v>
       </c>
       <c r="N323" s="2" t="s">
-        <v>922</v>
+        <v>872</v>
       </c>
       <c r="P323" s="2" t="s">
-        <v>1084</v>
+        <v>952</v>
       </c>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.2">
@@ -13191,1608 +12693,2659 @@
       <c r="I324" s="3"/>
       <c r="J324" s="6"/>
     </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A325" s="2">
+        <v>34</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="F325" s="3">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2">
+        <v>1</v>
+      </c>
+      <c r="N325" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="P325" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F326" s="3"/>
+      <c r="A326" s="2">
+        <v>34</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="F326" s="3">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2">
+        <v>1</v>
+      </c>
       <c r="I326" s="3"/>
       <c r="J326" s="6"/>
+      <c r="N326" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="P326" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A327" s="2">
+        <v>34</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="F327" s="3">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2">
+        <v>1</v>
+      </c>
+      <c r="N327" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="P327" s="2" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A329" s="2">
+        <v>35</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="F329" s="3">
+        <v>1</v>
+      </c>
+      <c r="H329" s="2">
+        <v>1</v>
+      </c>
+      <c r="L329" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="N329" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="P329" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="2">
+        <v>35</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="F330" s="3">
+        <v>2</v>
+      </c>
+      <c r="H330" s="2">
+        <v>1</v>
+      </c>
+      <c r="J330" s="3"/>
+      <c r="L330" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="N330" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="P330" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A331" s="2">
+        <v>35</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="F331" s="3">
+        <v>2</v>
+      </c>
+      <c r="H331" s="2">
+        <v>2</v>
+      </c>
+      <c r="J331" s="3"/>
+      <c r="L331" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="N331" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="P331" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A332" s="2">
+        <v>35</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="F332" s="3">
+        <v>2</v>
+      </c>
+      <c r="H332" s="2">
+        <v>3</v>
+      </c>
+      <c r="J332" s="3"/>
+      <c r="L332" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="N332" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="P332" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A334" s="2">
+        <v>36</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F334" s="7">
+        <v>1</v>
+      </c>
+      <c r="H334" s="2">
+        <v>1</v>
+      </c>
+      <c r="J334" s="3"/>
+      <c r="L334" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="M334" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="N334" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="P334" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A335" s="2">
+        <v>36</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F335" s="3">
+        <v>1</v>
+      </c>
+      <c r="H335" s="2">
+        <v>2</v>
+      </c>
+      <c r="L335" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="M335" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="N335" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P335" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A336" s="2">
+        <v>36</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F336" s="3">
+        <v>1</v>
+      </c>
+      <c r="H336" s="2">
+        <v>3</v>
+      </c>
+      <c r="I336" s="3"/>
+      <c r="J336" s="6"/>
+      <c r="L336" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="M336" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="N336" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P336" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A337" s="2">
+        <v>36</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F337" s="3">
+        <v>1</v>
+      </c>
+      <c r="H337" s="2">
+        <v>4</v>
+      </c>
+      <c r="I337" s="3"/>
+      <c r="J337" s="3"/>
+      <c r="L337" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="M337" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="N337" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P337" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A338" s="2">
+        <v>36</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F338" s="3">
+        <v>1</v>
+      </c>
+      <c r="H338" s="2">
+        <v>5</v>
+      </c>
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+      <c r="L338" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="M338" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="N338" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P338" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
+        <v>36</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F339" s="3">
+        <v>1</v>
+      </c>
+      <c r="H339" s="2">
+        <v>6</v>
+      </c>
+      <c r="I339" s="3"/>
+      <c r="J339" s="3"/>
+      <c r="L339" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="M339" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N339" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="P339" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A341" s="2">
+        <v>37</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F341" s="3">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2">
+        <v>1</v>
+      </c>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="N341" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="P341" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <v>38</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F343" s="3">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2">
+        <v>1</v>
+      </c>
+      <c r="I343" s="3"/>
+      <c r="J343" s="7"/>
+      <c r="L343" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M343" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N343" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P343" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <v>38</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F344" s="2">
+        <v>2</v>
+      </c>
+      <c r="H344" s="2">
+        <v>1</v>
+      </c>
+      <c r="L344" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="M344" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="N344" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="P344" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F345" s="3"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="7"/>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <v>39</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F346" s="2">
+        <v>1</v>
+      </c>
+      <c r="H346" s="2">
+        <v>1</v>
+      </c>
+      <c r="L346" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="M346" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="N346" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="P346" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <v>39</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F347" s="3">
+        <v>2</v>
+      </c>
+      <c r="H347" s="2">
+        <v>1</v>
+      </c>
+      <c r="J347" s="3"/>
+      <c r="L347" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="M347" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="N347" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="P347" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A349" s="2">
+        <v>40</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F349" s="3">
+        <v>1</v>
+      </c>
+      <c r="H349" s="2">
+        <v>1</v>
+      </c>
+      <c r="I349" s="3"/>
+      <c r="J349" s="3"/>
+      <c r="L349" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="M349" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="N349" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="P349" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A351" s="2">
+        <v>41</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F351" s="3">
+        <v>1</v>
+      </c>
+      <c r="H351" s="2">
+        <v>1</v>
+      </c>
+      <c r="I351" s="3"/>
+      <c r="J351" s="3"/>
+      <c r="N351" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A353" s="2">
+        <v>42</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F353" s="8">
+        <v>1</v>
+      </c>
+      <c r="H353" s="2">
+        <v>1</v>
+      </c>
+      <c r="I353" s="3"/>
+      <c r="J353" s="3"/>
+      <c r="M353" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="N353" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P353" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F354" s="3"/>
+      <c r="I354" s="3"/>
+      <c r="J354" s="3"/>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>43</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F355" s="2">
+        <v>1</v>
+      </c>
+      <c r="H355" s="2">
+        <v>1</v>
+      </c>
+      <c r="L355" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="M355" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="N355" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="P355" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F356" s="3"/>
+      <c r="I356" s="3"/>
+      <c r="J356" s="3"/>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A357" s="2">
+        <v>44</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F357" s="2">
+        <v>1</v>
+      </c>
+      <c r="H357" s="2">
+        <v>1</v>
+      </c>
+      <c r="I357" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="L357" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="M357" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="N357" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P357" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>44</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F358" s="2">
+        <v>1</v>
+      </c>
+      <c r="H358" s="2">
+        <v>1</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="L358" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="M358" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="N358" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="P358" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>44</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F359" s="2">
+        <v>1</v>
+      </c>
+      <c r="H359" s="2">
+        <v>1</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="L359" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="M359" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="N359" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P359" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>44</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F360" s="2">
+        <v>1</v>
+      </c>
+      <c r="H360" s="2">
+        <v>1</v>
+      </c>
+      <c r="I360" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="J360" s="3"/>
+      <c r="L360" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="M360" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="N360" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P360" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>44</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F361" s="2">
+        <v>1</v>
+      </c>
+      <c r="H361" s="2">
+        <v>1</v>
+      </c>
+      <c r="I361" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="L361" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="M361" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="N361" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P361" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F362" s="3"/>
+      <c r="I362" s="3"/>
+      <c r="J362" s="3"/>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>45</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F363" s="2">
+        <v>1</v>
+      </c>
+      <c r="H363" s="2">
+        <v>1</v>
+      </c>
+      <c r="I363" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C330" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="D330" s="2">
-        <v>1</v>
-      </c>
-      <c r="E330" s="2">
-        <v>1</v>
-      </c>
-      <c r="G330" s="2" t="s">
+      <c r="L363" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="M363" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="N363" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="P363" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>45</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F364" s="3">
+        <v>2</v>
+      </c>
+      <c r="H364" s="2">
+        <v>1</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="J364" s="6"/>
+      <c r="L364" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="M364" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="N364" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>46</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F366" s="3">
+        <v>1</v>
+      </c>
+      <c r="H366" s="2">
+        <v>1</v>
+      </c>
+      <c r="I366" s="3"/>
+      <c r="J366" s="3"/>
+      <c r="N366" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P366" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>46</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F367" s="2">
+        <v>1</v>
+      </c>
+      <c r="H367" s="2">
+        <v>2</v>
+      </c>
+      <c r="N367" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P367" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>46</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F368" s="3">
+        <v>1</v>
+      </c>
+      <c r="H368" s="2">
+        <v>3</v>
+      </c>
+      <c r="I368" s="3"/>
+      <c r="J368" s="6"/>
+      <c r="N368" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="P368" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>47</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F370" s="3">
+        <v>1</v>
+      </c>
+      <c r="H370" s="2">
+        <v>1</v>
+      </c>
+      <c r="I370" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="J370" s="6"/>
+      <c r="L370" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="M370" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="N370" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="P370" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>47</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F371" s="2">
+        <v>1</v>
+      </c>
+      <c r="H371" s="2">
+        <v>1</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="J371" s="6"/>
+      <c r="L371" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="M371" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="N371" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="P371" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>47</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F372" s="3">
+        <v>1</v>
+      </c>
+      <c r="H372" s="2">
+        <v>1</v>
+      </c>
+      <c r="I372" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="J372" s="6"/>
+      <c r="L372" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="M372" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="N372" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P372" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>47</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F373" s="2">
+        <v>1</v>
+      </c>
+      <c r="H373" s="2">
+        <v>1</v>
+      </c>
+      <c r="I373" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="J373" s="6"/>
+      <c r="L373" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="M373" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="N373" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P373" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>47</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F374" s="3">
+        <v>2</v>
+      </c>
+      <c r="H374" s="2">
+        <v>1</v>
+      </c>
+      <c r="I374" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="L374" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="M374" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="N374" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="P374" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F375" s="3"/>
+      <c r="I375" s="3"/>
+      <c r="J375" s="6"/>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A376" s="2">
+        <v>48</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F376" s="3">
+        <v>1</v>
+      </c>
+      <c r="H376" s="2">
+        <v>1</v>
+      </c>
+      <c r="N376" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="P376" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F377" s="3"/>
+      <c r="I377" s="3"/>
+      <c r="J377" s="3"/>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A378" s="2">
+        <v>49</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F378" s="3">
+        <v>1</v>
+      </c>
+      <c r="H378" s="2">
+        <v>1</v>
+      </c>
+      <c r="I378" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="N378" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="P378" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A379" s="2">
+        <v>49</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F379" s="3">
+        <v>2</v>
+      </c>
+      <c r="H379" s="2">
+        <v>1</v>
+      </c>
+      <c r="J379" s="3"/>
+      <c r="L379" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="M379" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="N379" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="P379" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A380" s="2">
+        <v>49</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F380" s="3">
+        <v>2</v>
+      </c>
+      <c r="H380" s="2">
+        <v>2</v>
+      </c>
+      <c r="L380" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="M380" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="N380" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="P380" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A381" s="2">
+        <v>49</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F381" s="3">
+        <v>2</v>
+      </c>
+      <c r="H381" s="2">
+        <v>3</v>
+      </c>
+      <c r="J381" s="3"/>
+      <c r="L381" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="M381" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="N381" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P381" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F382" s="3"/>
+      <c r="J382" s="3"/>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A383" s="2">
+        <v>50</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F383" s="3">
+        <v>1</v>
+      </c>
+      <c r="H383" s="2">
+        <v>1</v>
+      </c>
+      <c r="I383" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="J383" s="3"/>
+      <c r="L383" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="M383" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="N383" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="P383" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A384" s="2">
+        <v>50</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F384" s="3">
+        <v>2</v>
+      </c>
+      <c r="H384" s="2">
+        <v>1</v>
+      </c>
+      <c r="I384" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="J384" s="3"/>
+      <c r="L384" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M384" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="N384" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="P384" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A385" s="2">
+        <v>50</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F385" s="3">
+        <v>3</v>
+      </c>
+      <c r="H385" s="2">
+        <v>1</v>
+      </c>
+      <c r="I385" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="J385" s="3"/>
+      <c r="L385" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="M385" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="N385" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="P385" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A386" s="2">
+        <v>50</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F386" s="3">
+        <v>3</v>
+      </c>
+      <c r="H386" s="2">
+        <v>1</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="J386" s="3"/>
+      <c r="L386" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="M386" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="N386" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="P386" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A387" s="2">
+        <v>50</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F387" s="3">
+        <v>4</v>
+      </c>
+      <c r="H387" s="2">
+        <v>1</v>
+      </c>
+      <c r="I387" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="J387" s="3"/>
+      <c r="N387" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A388" s="2">
+        <v>50</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F388" s="3">
+        <v>5</v>
+      </c>
+      <c r="H388" s="2">
+        <v>1</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="J388" s="3"/>
+      <c r="L388" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M388" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="N388" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="P388" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A389" s="2">
+        <v>50</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F389" s="3">
+        <v>5</v>
+      </c>
+      <c r="H389" s="2">
+        <v>1</v>
+      </c>
+      <c r="I389" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="J389" s="3"/>
+      <c r="L389" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M389" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="N389" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="P389" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A390" s="2">
+        <v>50</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F390" s="3">
+        <v>5</v>
+      </c>
+      <c r="H390" s="2">
+        <v>2</v>
+      </c>
+      <c r="I390" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="J390" s="7"/>
+      <c r="L390" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M390" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="N390" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="P390" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A391" s="2">
+        <v>50</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F391" s="3">
+        <v>6</v>
+      </c>
+      <c r="H391" s="2">
+        <v>1</v>
+      </c>
+      <c r="I391" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="L391" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="M391" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="N391" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="P391" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A392" s="2">
+        <v>50</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F392" s="3">
+        <v>7</v>
+      </c>
+      <c r="H392" s="2">
+        <v>1</v>
+      </c>
+      <c r="I392" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J392" s="3"/>
+      <c r="L392" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="M392" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="N392" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="P392" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A393" s="2">
+        <v>50</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F393" s="3">
+        <v>7</v>
+      </c>
+      <c r="H393" s="2">
+        <v>2</v>
+      </c>
+      <c r="I393" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J393" s="3"/>
+      <c r="L393" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="M393" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="N393" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="P393" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A394" s="2">
+        <v>50</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F394" s="3">
+        <v>7</v>
+      </c>
+      <c r="H394" s="2">
+        <v>3</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J394" s="6"/>
+      <c r="L394" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="M394" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="N394" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="P394" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A395" s="2">
+        <v>50</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F395" s="3">
+        <v>8</v>
+      </c>
+      <c r="H395" s="2">
+        <v>1</v>
+      </c>
+      <c r="L395" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M395" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N395" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P395" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A396" s="2">
+        <v>50</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F396" s="3">
+        <v>8</v>
+      </c>
+      <c r="H396" s="2">
+        <v>2</v>
+      </c>
+      <c r="L396" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M396" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N396" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="P396" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
+        <v>50</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F397" s="3">
+        <v>8</v>
+      </c>
+      <c r="H397" s="2">
+        <v>3</v>
+      </c>
+      <c r="I397" s="3"/>
+      <c r="J397" s="6"/>
+      <c r="L397" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M397" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N397" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="P397" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
+        <v>50</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F398" s="3">
+        <v>8</v>
+      </c>
+      <c r="H398" s="2">
+        <v>4</v>
+      </c>
+      <c r="I398" s="3"/>
+      <c r="J398" s="3"/>
+      <c r="L398" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M398" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N398" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="P398" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>50</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F399" s="3">
+        <v>8</v>
+      </c>
+      <c r="H399" s="2">
+        <v>5</v>
+      </c>
+      <c r="I399" s="3"/>
+      <c r="J399" s="6"/>
+      <c r="L399" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M399" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N399" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="P399" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A400" s="2">
+        <v>50</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F400" s="3">
+        <v>8</v>
+      </c>
+      <c r="H400" s="2">
+        <v>6</v>
+      </c>
+      <c r="L400" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="M400" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N400" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P400" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>50</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F401" s="3">
+        <v>8</v>
+      </c>
+      <c r="H401" s="2">
+        <v>7</v>
+      </c>
+      <c r="L401" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="M401" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N401" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="P401" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A402" s="2">
+        <v>50</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F402" s="3">
+        <v>9</v>
+      </c>
+      <c r="H402" s="2">
+        <v>1</v>
+      </c>
+      <c r="I402" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="L402" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="M402" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="N402" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="P402" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F403" s="3"/>
+      <c r="I403" s="3"/>
+      <c r="J403" s="6"/>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A404" s="2">
+        <v>51</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F404" s="3">
+        <v>1</v>
+      </c>
+      <c r="H404" s="2">
+        <v>1</v>
+      </c>
+      <c r="I404" s="3"/>
+      <c r="J404" s="3"/>
+      <c r="N404" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="P404" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>52</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F406" s="3">
+        <v>1</v>
+      </c>
+      <c r="H406" s="2">
+        <v>1</v>
+      </c>
+      <c r="L406" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M406" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="N406" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="P406" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A407" s="2">
+        <v>52</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F407" s="3">
+        <v>2</v>
+      </c>
+      <c r="H407" s="2">
+        <v>1</v>
+      </c>
+      <c r="L407" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="M407" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="N407" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="P407" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>52</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F408" s="7">
+        <v>2</v>
+      </c>
+      <c r="H408" s="2">
+        <v>2</v>
+      </c>
+      <c r="I408" s="3"/>
+      <c r="J408" s="3"/>
+      <c r="L408" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="M408" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="N408" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="P408" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A409" s="2">
+        <v>52</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F409" s="7">
+        <v>3</v>
+      </c>
+      <c r="H409" s="2">
+        <v>1</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="J409" s="6"/>
+      <c r="L409" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M409" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="N409" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="P409" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A410" s="2">
+        <v>52</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F410" s="2">
+        <v>3</v>
+      </c>
+      <c r="H410" s="2">
+        <v>2</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="L410" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M410" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="N410" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="P410" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A411" s="2">
+        <v>52</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F411" s="7">
+        <v>3</v>
+      </c>
+      <c r="H411" s="2">
+        <v>3</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="J411" s="6"/>
+      <c r="L411" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M411" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="N411" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="P411" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A412" s="2">
+        <v>52</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F412" s="7">
+        <v>4</v>
+      </c>
+      <c r="H412" s="2">
+        <v>1</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="L412" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="M412" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="N412" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="P412" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A413" s="2">
+        <v>52</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F413" s="7">
+        <v>5</v>
+      </c>
+      <c r="H413" s="2">
+        <v>1</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J413" s="6"/>
+      <c r="L413" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="M413" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="N413" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="P413" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A414" s="2">
+        <v>52</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F414" s="7">
+        <v>5</v>
+      </c>
+      <c r="H414" s="2">
+        <v>2</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J414" s="6"/>
+      <c r="L414" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="M414" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="N414" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="P414" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A415" s="2">
+        <v>52</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F415" s="7">
+        <v>5</v>
+      </c>
+      <c r="H415" s="2">
+        <v>3</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J415" s="6"/>
+      <c r="L415" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="M415" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="N415" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="P415" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A416" s="2">
+        <v>52</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F416" s="7">
+        <v>5</v>
+      </c>
+      <c r="H416" s="2">
+        <v>4</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J416" s="6"/>
+      <c r="L416" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="M416" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="N416" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="P416" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A417" s="2">
+        <v>52</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F417" s="7">
+        <v>6</v>
+      </c>
+      <c r="H417" s="2">
+        <v>1</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="J417" s="3"/>
+      <c r="L417" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M417" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N417" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P417" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A418" s="2">
+        <v>52</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F418" s="3">
+        <v>6</v>
+      </c>
+      <c r="H418" s="2">
+        <v>2</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="J418" s="6"/>
+      <c r="L418" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M418" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N418" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P418" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A419" s="2">
+        <v>52</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F419" s="7">
+        <v>6</v>
+      </c>
+      <c r="H419" s="2">
+        <v>3</v>
+      </c>
+      <c r="I419" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="L419" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M419" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N419" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="P419" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A420" s="2">
+        <v>52</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F420" s="3">
+        <v>6</v>
+      </c>
+      <c r="H420" s="2">
+        <v>4</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="J420" s="6"/>
+      <c r="L420" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M420" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N420" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="P420" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A421" s="2">
+        <v>52</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F421" s="7">
+        <v>6</v>
+      </c>
+      <c r="H421" s="2">
+        <v>5</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="J421" s="3"/>
+      <c r="L421" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M421" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N421" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="P421" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A422" s="2">
+        <v>52</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F422" s="3">
+        <v>6</v>
+      </c>
+      <c r="H422" s="2">
+        <v>6</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="L422" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M422" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N422" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="P422" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>52</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F423" s="3">
+        <v>6</v>
+      </c>
+      <c r="H423" s="2">
+        <v>7</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="L423" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="M423" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N423" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="P423" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A424" s="2">
+        <v>52</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F424" s="3">
+        <v>7</v>
+      </c>
+      <c r="H424" s="2">
+        <v>1</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="L424" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="M424" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="N424" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="P424" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A426" s="2">
+        <v>53</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F426" s="3">
+        <v>1</v>
+      </c>
+      <c r="H426" s="2">
+        <v>1</v>
+      </c>
+      <c r="I426" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="L426" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="M426" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="N426" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="P426" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A428" s="2">
+        <v>54</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="F428" s="3">
+        <v>1</v>
+      </c>
+      <c r="H428" s="2">
+        <v>1</v>
+      </c>
+      <c r="L428" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M428" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="N428" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="P428" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>55</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F430" s="3">
+        <v>1</v>
+      </c>
+      <c r="H430" s="2">
+        <v>1</v>
+      </c>
+      <c r="I430" s="3"/>
+      <c r="J430" s="3"/>
+      <c r="L430" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="M430" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="N430" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>55</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F431" s="2">
+        <v>2</v>
+      </c>
+      <c r="H431" s="2">
+        <v>1</v>
+      </c>
+      <c r="L431" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="M431" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="N431" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="J330" s="3" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B331" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="D331" s="2">
-        <v>1</v>
-      </c>
-      <c r="E331" s="2">
-        <v>2</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="J331" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B332" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="D332" s="2">
-        <v>1</v>
-      </c>
-      <c r="E332" s="2">
-        <v>3</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="J332" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B334" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D334" s="2">
-        <v>1</v>
-      </c>
-      <c r="E334" s="2">
-        <v>1</v>
-      </c>
-      <c r="F334" s="7" t="s">
-        <v>929</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="H334" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="I334" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="J334" s="3" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B336" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D336" s="2">
-        <v>2</v>
-      </c>
-      <c r="E336" s="2">
-        <v>1</v>
-      </c>
-      <c r="F336" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="H336" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="I336" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="J336" s="6" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B337" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D337" s="2">
-        <v>3</v>
-      </c>
-      <c r="E337" s="2">
-        <v>1</v>
-      </c>
-      <c r="F337" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="H337" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="I337" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="J337" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B338" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D338" s="2">
-        <v>4</v>
-      </c>
-      <c r="E338" s="2">
-        <v>1</v>
-      </c>
-      <c r="F338" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="H338" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="I338" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="J338" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B339" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D339" s="2">
-        <v>5</v>
-      </c>
-      <c r="E339" s="2">
-        <v>1</v>
-      </c>
-      <c r="F339" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="G339" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="H339" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="I339" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="J339" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A341" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D341" s="2">
-        <v>1</v>
-      </c>
-      <c r="E341" s="2">
-        <v>1</v>
-      </c>
-      <c r="F341" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="G341" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="H341" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="I341" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="J341" s="3" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B343" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D343" s="2">
-        <v>2</v>
-      </c>
-      <c r="E343" s="2">
-        <v>1</v>
-      </c>
-      <c r="F343" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="G343" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="H343" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="I343" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="J343" s="7" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B345" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="D345" s="2">
-        <v>3</v>
-      </c>
-      <c r="E345" s="2">
-        <v>1</v>
-      </c>
-      <c r="F345" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="G345" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="H345" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="I345" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="J345" s="7" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B347" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="D347" s="2">
-        <v>1</v>
-      </c>
-      <c r="E347" s="2">
-        <v>1</v>
-      </c>
-      <c r="F347" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="G347" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="H347" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="I347" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="J347" s="3" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A349" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D349" s="2">
-        <v>1</v>
-      </c>
-      <c r="E349" s="2">
-        <v>1</v>
-      </c>
-      <c r="F349" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G349" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="H349" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="I349" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J349" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B351" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="D351" s="2">
-        <v>2</v>
-      </c>
-      <c r="E351" s="2">
-        <v>1</v>
-      </c>
-      <c r="F351" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="G351" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="H351" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="I351" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="J351" s="3" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B353" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="D353" s="2">
-        <v>1</v>
-      </c>
-      <c r="E353" s="2">
-        <v>1</v>
-      </c>
-      <c r="F353" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="G353" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="H353" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="I353" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="J353" s="3" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B354" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="D354" s="2">
-        <v>1</v>
-      </c>
-      <c r="E354" s="2">
-        <v>1</v>
-      </c>
-      <c r="F354" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="H354" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="I354" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="J354" s="3" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A356" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="D356" s="2">
-        <v>1</v>
-      </c>
-      <c r="E356" s="2">
-        <v>1</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="H356" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="I356" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="J356" s="3" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B358" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="D358" s="2">
-        <v>1</v>
-      </c>
-      <c r="E358" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A360" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D360" s="2">
-        <v>1</v>
-      </c>
-      <c r="E360" s="2">
-        <v>1</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="H360" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="I360" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="J360" s="3" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B362" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="D362" s="2">
-        <v>1</v>
-      </c>
-      <c r="E362" s="2">
-        <v>1</v>
-      </c>
-      <c r="F362" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="G362" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="H362" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="I362" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="J362" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A364" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="D364" s="2">
-        <v>1</v>
-      </c>
-      <c r="E364" s="2">
-        <v>1</v>
-      </c>
-      <c r="F364" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="G364" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="H364" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="I364" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="J364" s="6" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A366" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="D366" s="2">
-        <v>1</v>
-      </c>
-      <c r="E366" s="2">
-        <v>1</v>
-      </c>
-      <c r="F366" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="G366" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="H366" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="I366" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J366" s="3" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C368" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="D368" s="2">
-        <v>2</v>
-      </c>
-      <c r="E368" s="2">
-        <v>1</v>
-      </c>
-      <c r="F368" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G368" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H368" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I368" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J368" s="6" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A370" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D370" s="2">
-        <v>1</v>
-      </c>
-      <c r="E370" s="2">
-        <v>1</v>
-      </c>
-      <c r="F370" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="G370" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="H370" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="I370" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="J370" s="6" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B372" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="D372" s="2">
-        <v>1</v>
-      </c>
-      <c r="E372" s="2">
-        <v>1</v>
-      </c>
-      <c r="F372" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G372" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H372" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I372" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J372" s="6" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B374" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="D374" s="2">
-        <v>2</v>
-      </c>
-      <c r="E374" s="2">
-        <v>1</v>
-      </c>
-      <c r="F374" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G374" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H374" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I374" s="3" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J374" s="3" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A376" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D376" s="2">
-        <v>1</v>
-      </c>
-      <c r="E376" s="2">
-        <v>1</v>
-      </c>
-      <c r="F376" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="G376" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="H376" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="I376" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="J376" s="3" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B378" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="D378" s="2">
-        <v>1</v>
-      </c>
-      <c r="E378" s="2">
-        <v>1</v>
-      </c>
-      <c r="F378" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="G378" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="H378" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="I378" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="J378" s="3" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B379" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="D379" s="2">
-        <v>1</v>
-      </c>
-      <c r="E379" s="2">
-        <v>2</v>
-      </c>
-      <c r="F379" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G379" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H379" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I379" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J379" s="7" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A381" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="D381" s="2">
-        <v>1</v>
-      </c>
-      <c r="E381" s="2">
-        <v>1</v>
-      </c>
-      <c r="F381" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="G381" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H381" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I381" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="J381" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B382" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="D382" s="2">
-        <v>1</v>
-      </c>
-      <c r="E382" s="2">
-        <v>2</v>
-      </c>
-      <c r="F382" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="G382" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H382" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I382" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="J382" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B383" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="D383" s="2">
-        <v>1</v>
-      </c>
-      <c r="E383" s="2">
-        <v>3</v>
-      </c>
-      <c r="F383" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="G383" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H383" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I383" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="J383" s="6" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B385" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="D385" s="2">
-        <v>2</v>
-      </c>
-      <c r="E385" s="2">
-        <v>1</v>
-      </c>
-      <c r="F385" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="G385" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="H385" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="I385" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="J385" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B386" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="D386" s="2">
-        <v>2</v>
-      </c>
-      <c r="E386" s="2">
-        <v>2</v>
-      </c>
-      <c r="F386" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="G386" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H386" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I386" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="J386" s="6" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B387" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D387" s="2">
-        <v>2</v>
-      </c>
-      <c r="E387" s="2">
-        <v>3</v>
-      </c>
-      <c r="F387" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="G387" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H387" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I387" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="J387" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B388" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="D388" s="2">
-        <v>2</v>
-      </c>
-      <c r="E388" s="2">
-        <v>4</v>
-      </c>
-      <c r="F388" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="G388" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H388" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I388" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="J388" s="6" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B390" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="D390" s="2">
-        <v>3</v>
-      </c>
-      <c r="E390" s="2">
-        <v>1</v>
-      </c>
-      <c r="F390" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="G390" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="H390" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="I390" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="J390" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B391" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="D391" s="2">
-        <v>3</v>
-      </c>
-      <c r="E391" s="2">
-        <v>2</v>
-      </c>
-      <c r="F391" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="G391" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H391" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I391" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="J391" s="6" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B392" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D392" s="2">
-        <v>3</v>
-      </c>
-      <c r="E392" s="2">
-        <v>3</v>
-      </c>
-      <c r="F392" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="H392" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="I392" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="J392" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B394" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="D394" s="2">
-        <v>1</v>
-      </c>
-      <c r="E394" s="2">
-        <v>1</v>
-      </c>
-      <c r="F394" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="H394" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="I394" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A396" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="D396" s="2">
-        <v>1</v>
-      </c>
-      <c r="E396" s="2">
-        <v>1</v>
-      </c>
-      <c r="F396" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="G396" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H396" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I396" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="J396" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B397" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="D397" s="2">
-        <v>1</v>
-      </c>
-      <c r="E397" s="2">
-        <v>2</v>
-      </c>
-      <c r="F397" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="G397" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H397" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I397" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="J397" s="6" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B399" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="D399" s="2">
-        <v>2</v>
-      </c>
-      <c r="E399" s="2">
-        <v>1</v>
-      </c>
-      <c r="F399" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="G399" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H399" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I399" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="J399" s="6" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B400" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D400" s="2">
-        <v>2</v>
-      </c>
-      <c r="E400" s="2">
-        <v>2</v>
-      </c>
-      <c r="F400" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="G400" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H400" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I400" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="J400" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B401" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="D401" s="2">
-        <v>2</v>
-      </c>
-      <c r="E401" s="2">
-        <v>3</v>
-      </c>
-      <c r="F401" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="G401" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H401" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I401" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="J401" s="6" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B403" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="D403" s="2">
-        <v>3</v>
-      </c>
-      <c r="E403" s="2">
-        <v>1</v>
-      </c>
-      <c r="F403" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H403" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I403" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="J403" s="6" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B404" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D404" s="2">
-        <v>3</v>
-      </c>
-      <c r="E404" s="2">
-        <v>2</v>
-      </c>
-      <c r="F404" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="G404" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="H404" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="I404" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="J404" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A406" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="D406" s="2">
-        <v>1</v>
-      </c>
-      <c r="E406" s="2">
-        <v>1</v>
-      </c>
-      <c r="F406" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H406" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I406" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="J406" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A408" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="D408" s="2">
-        <v>1</v>
-      </c>
-      <c r="E408" s="2">
-        <v>1</v>
-      </c>
-      <c r="F408" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H408" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I408" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="J408" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A410" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="D410" s="2">
-        <v>1</v>
-      </c>
-      <c r="E410" s="2">
-        <v>1</v>
-      </c>
-      <c r="F410" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G410" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H410" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I410" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J410" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B411" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="D411" s="2">
-        <v>1</v>
-      </c>
-      <c r="E411" s="2">
-        <v>1</v>
-      </c>
-      <c r="F411" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G411" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H411" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I411" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="J411" s="3" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B413" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D413" s="2">
-        <v>1</v>
-      </c>
-      <c r="E413" s="2">
-        <v>1</v>
-      </c>
-      <c r="F413" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="G413" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="H413" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="I413" s="2" t="s">
-        <v>932</v>
-      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F432" s="3"/>
+      <c r="I432" s="3"/>
+      <c r="J432" s="3"/>
+    </row>
+    <row r="434" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F434" s="3"/>
+      <c r="I434" s="3"/>
+      <c r="J434" s="3"/>
+    </row>
+    <row r="435" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F435" s="3"/>
+      <c r="J435" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N106" r:id="rId1" display="https://www.genome.jp/entry/K00456" xr:uid="{CED0AB15-CE19-BA4B-923A-0ECC85F7D950}"/>
-    <hyperlink ref="J330" r:id="rId2" display="https://www.genome.jp/entry/K03523" xr:uid="{DC6B86C2-6A8D-6040-8C3E-848C03C2CE93}"/>
-    <hyperlink ref="J331" r:id="rId3" display="https://www.genome.jp/entry/K16783" xr:uid="{1D37A788-09F7-DC4E-8C3E-E1F3BBA6CF25}"/>
-    <hyperlink ref="J332" r:id="rId4" display="https://www.genome.jp/entry/K16784" xr:uid="{C3A806C8-976E-3C42-BB58-F32FB1A39BB8}"/>
-    <hyperlink ref="J334" r:id="rId5" display="https://www.genome.jp/entry/K08351" xr:uid="{C70CF76E-0508-7C4B-942D-8F1466D12030}"/>
-    <hyperlink ref="F336" r:id="rId6" display="https://www.genome.jp/entry/R04562" xr:uid="{87B163A8-1F6C-0842-ACE2-75E31AC34377}"/>
-    <hyperlink ref="I336" r:id="rId7" display="https://www.genome.jp/entry/6.3.4.15" xr:uid="{C3FB0AE2-AA82-5643-BE10-CD5F477661DE}"/>
-    <hyperlink ref="F337" r:id="rId8" display="https://www.genome.jp/entry/R04563" xr:uid="{6D940677-CC47-314A-B65D-54E3BF05937F}"/>
-    <hyperlink ref="I337" r:id="rId9" display="https://www.genome.jp/entry/6.3.4.9" xr:uid="{30DEE4AB-8AB3-B348-B217-628A2BDC8B92}"/>
-    <hyperlink ref="J337" r:id="rId10" display="https://www.genome.jp/entry/K01942" xr:uid="{0F69701A-1B10-EC4E-BB68-BB9F47E4B068}"/>
-    <hyperlink ref="F338" r:id="rId11" display="https://www.genome.jp/entry/R04582" xr:uid="{5F52818B-9DD2-5C4D-81DB-694E337CBEEA}"/>
-    <hyperlink ref="I338" r:id="rId12" display="https://www.genome.jp/entry/6.3.4.10" xr:uid="{FCB577FE-3B12-3847-8B2D-2A75166EF1D9}"/>
-    <hyperlink ref="J338" r:id="rId13" display="https://www.genome.jp/entry/K01942" xr:uid="{F264A1CB-7D91-9C4F-91BF-F7C87D3ADBDC}"/>
-    <hyperlink ref="F339" r:id="rId14" display="https://www.genome.jp/entry/R04604" xr:uid="{0E787CA3-63D0-CA49-8EE5-53FA0B3307D0}"/>
-    <hyperlink ref="I339" r:id="rId15" display="https://www.genome.jp/entry/6.3.4.11" xr:uid="{8948EE6C-E32D-8E4D-99F2-0790050A30CF}"/>
-    <hyperlink ref="J339" r:id="rId16" display="https://www.genome.jp/entry/K01942" xr:uid="{9641CB57-16AF-534C-9049-AB88CEF1EC8B}"/>
-    <hyperlink ref="F341" r:id="rId17" display="https://www.genome.jp/entry/R00227" xr:uid="{9647D9BD-9778-614B-9B16-889ED2266B4A}"/>
-    <hyperlink ref="I341" r:id="rId18" display="https://www.genome.jp/entry/3.1.2.1" xr:uid="{CD5178CF-5C0F-5444-9E4A-5B9931309B6D}"/>
-    <hyperlink ref="J341" r:id="rId19" display="https://www.genome.jp/entry/K01067" xr:uid="{0DACEA8E-B79E-6D48-A2C7-E4B821A2AFB2}"/>
-    <hyperlink ref="F343" r:id="rId20" display="https://www.genome.jp/entry/R00238" xr:uid="{CDEFF21A-D7E5-D54C-A7F4-ACD4EE5E0495}"/>
-    <hyperlink ref="I343" r:id="rId21" display="https://www.genome.jp/entry/2.3.1.16" xr:uid="{400DAE80-EC40-0B44-9E34-DA23C10DC097}"/>
-    <hyperlink ref="F345" r:id="rId22" display="https://www.genome.jp/entry/R01177" xr:uid="{879772A1-224B-9C49-818A-A48FD376E53C}"/>
-    <hyperlink ref="I345" r:id="rId23" display="https://www.genome.jp/entry/2.3.1.16" xr:uid="{7BE66F57-2DC1-2847-B6E9-39CE808AAC1A}"/>
-    <hyperlink ref="J347" r:id="rId24" display="https://www.genome.jp/dbget-bin/www_bget?ko:K15085" xr:uid="{7303ACEA-6AFE-8841-B01B-5356482CAB00}"/>
-    <hyperlink ref="F349" r:id="rId25" display="https://www.genome.jp/entry/R00651" xr:uid="{2B4630FA-F839-5241-8CBE-780F82793F0E}"/>
-    <hyperlink ref="I349" r:id="rId26" display="https://www.genome.jp/entry/2.5.1.49" xr:uid="{2FE7DA89-683B-AB4D-BF11-199E3E23EE82}"/>
-    <hyperlink ref="J349" r:id="rId27" display="https://www.genome.jp/dbget-bin/www_bget?K01740" xr:uid="{D72E7D15-B5C1-9841-A6E6-E0C7B1BF0C12}"/>
-    <hyperlink ref="F351" r:id="rId28" display="https://www.genome.jp/entry/R01851" xr:uid="{8334DB46-2387-0944-91B4-5CFECA6E6E3C}"/>
-    <hyperlink ref="I351" r:id="rId29" display="https://www.genome.jp/entry/1.8.3.4" xr:uid="{F67D270E-913B-D645-9C07-B8F1F6A16819}"/>
-    <hyperlink ref="J351" r:id="rId30" display="https://www.genome.jp/dbget-bin/www_bget?ko:K17285" xr:uid="{303FA54C-A700-C647-A6F6-D2F8DEBCD5DD}"/>
-    <hyperlink ref="I353" r:id="rId31" display="https://www.genome.jp/entry/4.4.1.11" xr:uid="{7B98EDAE-3DC2-214D-B225-85EB047C51B5}"/>
-    <hyperlink ref="J353" r:id="rId32" display="https://www.genome.jp/entry/K01761" xr:uid="{EF03DB0E-9C73-2240-A8C9-610A5E4FD388}"/>
-    <hyperlink ref="F354" r:id="rId33" display="https://www.genome.jp/entry/R09786" xr:uid="{C6F362D1-A1D9-9449-856F-5DC6F1C9DCAB}"/>
-    <hyperlink ref="I354" r:id="rId34" display="https://www.genome.jp/entry/1.14.13.131" xr:uid="{88E35C20-7780-4B4A-9D77-EA3AA9EE455D}"/>
-    <hyperlink ref="J354" r:id="rId35" display="https://www.genome.jp/entry/K16967" xr:uid="{FB3FA4EC-2A86-5640-99BC-E4B50DD761E7}"/>
-    <hyperlink ref="F356" r:id="rId36" display="https://www.genome.jp/entry/R12689" xr:uid="{6C1FA49D-DD90-B440-B9D9-416FABB4957B}"/>
-    <hyperlink ref="I356" r:id="rId37" display="https://www.genome.jp/entry/2.8.1.2" xr:uid="{2DABD2C7-8BEE-8F44-B104-BD505790E8CB}"/>
-    <hyperlink ref="J356" r:id="rId38" display="https://www.genome.jp/dbget-bin/www_bget?ko:K01011" xr:uid="{2D55CCDD-08EE-D945-9989-992DCF7D1001}"/>
-    <hyperlink ref="I360" r:id="rId39" display="https://www.genome.jp/entry/7.6.2.3" xr:uid="{C6DD060E-0319-4241-B7A3-B6B07521F1F0}"/>
-    <hyperlink ref="J360" r:id="rId40" display="https://www.genome.jp/dbget-bin/www_bget?K05665" xr:uid="{693B02C7-CF6A-B244-85D3-36AF2330BF37}"/>
-    <hyperlink ref="F362" r:id="rId41" display="https://www.genome.jp/entry/R00115" xr:uid="{230B5E68-D4C7-554B-BBA6-ABB21EDC4AF1}"/>
-    <hyperlink ref="I362" r:id="rId42" display="https://www.genome.jp/entry/1.8.1.7" xr:uid="{B6C263CA-72CF-7746-8558-27853E8ABC53}"/>
-    <hyperlink ref="J362" r:id="rId43" display="https://www.genome.jp/dbget-bin/www_bget?ko:K00383" xr:uid="{B77D8B64-C38D-DE42-808B-20243965B32C}"/>
-    <hyperlink ref="F364" r:id="rId44" display="https://www.genome.jp/entry/R09501" xr:uid="{7967B0F3-5701-4247-B880-9741FF411A2D}"/>
-    <hyperlink ref="I364" r:id="rId45" display="https://www.genome.jp/entry/1.8.5.3" xr:uid="{8B7B3B7F-1FCB-0246-AB44-AF1A35BCDA74}"/>
-    <hyperlink ref="F366" r:id="rId46" display="https://www.genome.jp/entry/R10203" xr:uid="{87B6DAF4-5B7B-404C-9127-68364CAA8A43}"/>
-    <hyperlink ref="I366" r:id="rId47" display="https://www.genome.jp/entry/1.14.14.35" xr:uid="{E41E8D90-06FA-214C-ADAF-C8869BAA0E35}"/>
-    <hyperlink ref="J366" r:id="rId48" display="https://www.genome.jp/dbget-bin/www_bget?ko:K17228" xr:uid="{80AD3155-23C3-A644-A027-4BCA7AF24CFE}"/>
-    <hyperlink ref="F368" r:id="rId49" display="https://www.genome.jp/entry/R09498" xr:uid="{BD519D62-6FB9-3B45-BAE4-52D30F35E75F}"/>
-    <hyperlink ref="I368" r:id="rId50" display="https://www.genome.jp/entry/1.8.1.17" xr:uid="{9193A552-8715-5E47-B46F-EB8DF15CDC33}"/>
-    <hyperlink ref="F372" r:id="rId51" display="https://www.genome.jp/entry/R09513" xr:uid="{358BC633-A613-6D48-ADFA-2E2B35ECDF97}"/>
-    <hyperlink ref="I372" r:id="rId52" display="https://www.genome.jp/entry/1.14.13.111" xr:uid="{E11A23B4-3C72-8C42-AC6B-35F9FAD6AD7D}"/>
-    <hyperlink ref="F374" r:id="rId53" display="https://www.genome.jp/entry/R10206" xr:uid="{7E0EDD3E-0FEC-7A41-8DB5-2F98E586A99C}"/>
-    <hyperlink ref="I374" r:id="rId54" display="https://www.genome.jp/entry/1.14.14.34" xr:uid="{47FAC277-C262-F44F-AA37-3D13A95ECD2B}"/>
-    <hyperlink ref="J374" r:id="rId55" display="https://www.genome.jp/entry/K04091" xr:uid="{A7720B00-2EF9-2543-A6DB-833759C1D522}"/>
-    <hyperlink ref="J376" r:id="rId56" display="https://www.genome.jp/dbget-bin/www_bget?ko:K11735" xr:uid="{5E2F1070-65C2-1D4A-B70E-449784FA7E3C}"/>
-    <hyperlink ref="J378" r:id="rId57" display="https://www.genome.jp/entry/K07250" xr:uid="{E5AB4716-D9BF-3E43-A8FF-5981D1504851}"/>
-    <hyperlink ref="F379" r:id="rId58" display="https://www.genome.jp/entry/R00713" xr:uid="{23169BA7-3D2F-E04E-9C23-C0914C30DDB1}"/>
-    <hyperlink ref="I379" r:id="rId59" display="https://www.genome.jp/entry/1.2.1.24" xr:uid="{9D1B7F8A-90B2-BD45-B416-87654DD1431E}"/>
-    <hyperlink ref="F381" r:id="rId60" display="https://www.genome.jp/entry/R05693" xr:uid="{21E2207B-A948-C142-ACEC-6C9893662E96}"/>
-    <hyperlink ref="I381" r:id="rId61" display="https://www.genome.jp/entry/1.1.1.310" xr:uid="{5C150F01-D917-7B49-80B4-D93635C5CD94}"/>
-    <hyperlink ref="J381" r:id="rId62" display="https://www.genome.jp/entry/K16843" xr:uid="{B76A0814-AFCF-5B4F-842D-359DB0B8F2D9}"/>
-    <hyperlink ref="F382" r:id="rId63" display="https://www.genome.jp/entry/R07137" xr:uid="{0D1E4F40-6B23-784C-A91D-F4389A743004}"/>
-    <hyperlink ref="I382" r:id="rId64" display="https://www.genome.jp/entry/1.1.1.338" xr:uid="{8748AA10-D929-E946-A49E-5AF77D44C5AD}"/>
-    <hyperlink ref="J382" r:id="rId65" display="https://www.genome.jp/entry/K16844" xr:uid="{A04234B2-3390-AD49-82D3-8C852A36F6D7}"/>
-    <hyperlink ref="F383" r:id="rId66" display="https://www.genome.jp/entry/R07633" xr:uid="{4E15B567-82D1-F54C-817C-2AF5C118D728}"/>
-    <hyperlink ref="I383" r:id="rId67" display="https://www.genome.jp/entry/4.4.1.24" xr:uid="{C28403EF-D0B2-DB44-A1F5-A20DBE885A8F}"/>
-    <hyperlink ref="F386" r:id="rId68" display="https://www.genome.jp/entry/R05774" xr:uid="{381A4007-DCE6-A942-AC67-BBD2A63F2CEC}"/>
-    <hyperlink ref="I386" r:id="rId69" display="https://www.genome.jp/entry/4.1.1.79" xr:uid="{B0F97082-A232-0C49-A74E-6C2C4A1E3CC5}"/>
-    <hyperlink ref="F387" r:id="rId70" display="https://www.genome.jp/entry/R05651" xr:uid="{D79EE9D8-E61B-984C-9B6C-85818BF62746}"/>
-    <hyperlink ref="I387" r:id="rId71" display="https://www.genome.jp/entry/2.3.3.15" xr:uid="{AB181A19-9160-8D4B-B136-7CA851C6A9D2}"/>
-    <hyperlink ref="J387" r:id="rId72" display="https://www.genome.jp/entry/K03852" xr:uid="{16B6AB40-AAB2-8045-9915-DC0B13FBF1F6}"/>
-    <hyperlink ref="F388" r:id="rId73" display="https://www.genome.jp/entry/R00230" xr:uid="{3D2DD1D1-1D30-4646-91D2-A594D3EE9B9D}"/>
-    <hyperlink ref="I388" r:id="rId74" display="https://www.genome.jp/entry/2.3.1.8" xr:uid="{EA071E7D-1520-3C46-AB09-3F46EC0EAEEB}"/>
-    <hyperlink ref="F391" r:id="rId75" display="https://www.genome.jp/entry/R00355" xr:uid="{5CA916E3-EB9E-C743-B1A6-D088E52C8031}"/>
-    <hyperlink ref="I391" r:id="rId76" display="https://www.genome.jp/entry/2.6.1.1" xr:uid="{9DF1A01D-1E81-414E-B91C-8B55D5339871}"/>
-    <hyperlink ref="F392" r:id="rId77" display="https://www.genome.jp/entry/R07634" xr:uid="{EB3C5B8D-C286-564F-8646-BA235BFBCC89}"/>
-    <hyperlink ref="I392" r:id="rId78" display="https://www.genome.jp/entry/4.4.1.25" xr:uid="{C004AFA2-EB15-084E-8F0C-5CECE5FF8FCD}"/>
-    <hyperlink ref="J392" r:id="rId79" display="https://www.genome.jp/entry/K17950" xr:uid="{EBF29BD0-FD2D-1A44-886F-1DB3969F247D}"/>
-    <hyperlink ref="I396" r:id="rId80" display="https://www.genome.jp/entry/1.1.1.338" xr:uid="{E80A1123-92A3-704F-B3D8-E395E02B4F9C}"/>
-    <hyperlink ref="J396" r:id="rId81" display="https://www.genome.jp/entry/K16844" xr:uid="{8F2783A6-1C2D-3241-B7BD-0A4C5E3A80E5}"/>
-    <hyperlink ref="I397" r:id="rId82" display="https://www.genome.jp/entry/4.4.1.24" xr:uid="{10AA6E3D-0E94-AF40-8BB6-D1F01C968413}"/>
-    <hyperlink ref="I399" r:id="rId83" display="https://www.genome.jp/entry/4.1.1.79" xr:uid="{37C922E7-0512-5444-8B53-E471DD1D7A94}"/>
-    <hyperlink ref="I400" r:id="rId84" display="https://www.genome.jp/entry/2.3.3.15" xr:uid="{5893D573-042C-4B4C-B61E-F2D2099CB4BF}"/>
-    <hyperlink ref="J400" r:id="rId85" display="https://www.genome.jp/entry/K03852" xr:uid="{A5E241E1-7D5E-7244-BC2B-8BE315B0736A}"/>
-    <hyperlink ref="F401" r:id="rId86" display="https://www.genome.jp/entry/R00230" xr:uid="{9707F394-9E91-E941-936A-12CD4E52AE61}"/>
-    <hyperlink ref="I401" r:id="rId87" display="https://www.genome.jp/entry/2.3.1.8" xr:uid="{BE4D366D-BD23-604A-85C9-FF948A1242D2}"/>
-    <hyperlink ref="F403" r:id="rId88" display="https://www.genome.jp/entry/R00355" xr:uid="{57C3E696-EF68-4545-A769-AFC180788A70}"/>
-    <hyperlink ref="I403" r:id="rId89" display="https://www.genome.jp/entry/2.6.1.1" xr:uid="{13FEAB78-4E0F-6641-9792-728CCA5BD3A0}"/>
-    <hyperlink ref="I404" r:id="rId90" display="https://www.genome.jp/entry/4.4.1.25" xr:uid="{3BC617F7-1671-C140-A223-7147B1295ED0}"/>
-    <hyperlink ref="J404" r:id="rId91" display="https://www.genome.jp/entry/K17950" xr:uid="{4A957825-A160-7C4A-9EF6-006B6265D715}"/>
-    <hyperlink ref="F406" r:id="rId92" display="https://www.genome.jp/entry/R05651" xr:uid="{9DCDE44B-CFC9-064E-B415-12D5D816B812}"/>
-    <hyperlink ref="I406" r:id="rId93" display="https://www.genome.jp/entry/2.3.3.15" xr:uid="{7C4F655E-0BF1-F049-B1DA-E61DA3B66DA0}"/>
-    <hyperlink ref="J406" r:id="rId94" display="https://www.genome.jp/entry/K03852" xr:uid="{CB9A0E29-D137-0145-96BE-96800B44F2BA}"/>
-    <hyperlink ref="F408" r:id="rId95" display="https://www.genome.jp/entry/R00192" xr:uid="{2709B3DC-9B08-F445-94AE-F1EEBE263DF1}"/>
-    <hyperlink ref="I408" r:id="rId96" display="https://www.genome.jp/entry/3.3.1.1" xr:uid="{452BD73C-9F03-044D-8CBB-2EF76D4A34E2}"/>
-    <hyperlink ref="J408" r:id="rId97" display="https://www.genome.jp/entry/K01251" xr:uid="{261408B2-8730-D340-B9C0-C2E44B15C0C0}"/>
-    <hyperlink ref="F410" r:id="rId98" display="https://www.genome.jp/entry/R05775" xr:uid="{12FE8C3C-A142-D14C-8164-91F75E6E3C42}"/>
-    <hyperlink ref="I410" r:id="rId99" display="https://www.genome.jp/entry/3.13.1.1" xr:uid="{E3E90029-7FA8-1240-A01A-041982CAD8B1}"/>
-    <hyperlink ref="J410" r:id="rId100" display="https://www.genome.jp/entry/K06118" xr:uid="{551A9DF7-909F-F644-8100-CD94B0E92EE4}"/>
-    <hyperlink ref="F411" r:id="rId101" display="https://www.genome.jp/entry/R06867" xr:uid="{F1D8D994-1B23-5749-AA93-F62017414287}"/>
-    <hyperlink ref="J411" r:id="rId102" display="https://www.genome.jp/dbget-bin/www_bget?K06119+R06867" xr:uid="{340110F7-AECA-154C-933E-896D34FE6E66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14800,10 +15353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65014A18-B2D8-8B4D-B757-A477CADA3FA4}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15239,7 +15792,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>1105</v>
+        <v>973</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -15253,7 +15806,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>1106</v>
+        <v>974</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -15267,7 +15820,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>1108</v>
+        <v>976</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -15281,7 +15834,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>1109</v>
+        <v>977</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -15295,7 +15848,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>1107</v>
+        <v>975</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -15337,7 +15890,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>1105</v>
+        <v>973</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -15379,7 +15932,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>1110</v>
+        <v>978</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -15393,7 +15946,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>1111</v>
+        <v>979</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -15407,7 +15960,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>1112</v>
+        <v>980</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -15435,7 +15988,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>1113</v>
+        <v>981</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -15569,7 +16122,7 @@
         <v>24</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1114</v>
+        <v>982</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -15583,7 +16136,7 @@
         <v>25</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1115</v>
+        <v>983</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -15597,7 +16150,7 @@
         <v>26</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1116</v>
+        <v>984</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -15639,7 +16192,7 @@
         <v>29</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -15653,13 +16206,13 @@
         <v>29</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1049</v>
+        <v>925</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>1117</v>
+        <v>985</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -15667,7 +16220,7 @@
         <v>30</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1050</v>
+        <v>926</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -15681,7 +16234,7 @@
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1052</v>
+        <v>928</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -15695,7 +16248,7 @@
         <v>32</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1058</v>
+        <v>934</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -15709,13 +16262,13 @@
         <v>33</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1118</v>
+        <v>986</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -15723,13 +16276,13 @@
         <v>33</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>1119</v>
+        <v>987</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -15737,13 +16290,461 @@
         <v>33</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1059</v>
+        <v>935</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>1120</v>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>34</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>35</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>35</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>36</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>37</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>38</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>38</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>39</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>39</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>40</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>41</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>42</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>43</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>44</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>45</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>45</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>46</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>47</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>47</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>48</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>49</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>50</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>50</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>50</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>50</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>51</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>52</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>52</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>52</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>53</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>54</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>55</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/ocean_microbiomics_results/Sulfate.xlsx
+++ b/ocean_microbiomics_results/Sulfate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/GitHub/sulfurtraits/ocean_microbiomics_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3128910-25D8-5D46-9741-E98F758FFC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B27B30FF-1681-7D40-9D08-B8BAFAAC11B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17440" activeTab="1" xr2:uid="{C46F703C-E130-4146-8E70-4FF57A214435}"/>
+    <workbookView xWindow="-32680" yWindow="-320" windowWidth="28800" windowHeight="17440" xr2:uid="{C46F703C-E130-4146-8E70-4FF57A214435}"/>
   </bookViews>
   <sheets>
     <sheet name="Sulfate" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="1122">
   <si>
     <t>Metabolite</t>
   </si>
@@ -3385,6 +3385,24 @@
   </si>
   <si>
     <t>SO4thiosulfate transporter</t>
+  </si>
+  <si>
+    <t>K01133</t>
+  </si>
+  <si>
+    <t>betC_hmm</t>
+  </si>
+  <si>
+    <t>K05846</t>
+  </si>
+  <si>
+    <t>K05847</t>
+  </si>
+  <si>
+    <t>opuBD</t>
+  </si>
+  <si>
+    <t>opuA</t>
   </si>
 </sst>
 </file>
@@ -3832,10 +3850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E88251-DA92-7748-8897-50AC81C61AF4}">
-  <dimension ref="A1:AB456"/>
+  <dimension ref="A1:AB463"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A439" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="E457" sqref="E457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10075,25 +10093,16 @@
         <v>592</v>
       </c>
       <c r="F217" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H217" s="2">
-        <v>1</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="L217" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="M217" s="2" t="s">
-        <v>390</v>
+        <v>2</v>
       </c>
       <c r="N217" s="2" t="s">
-        <v>391</v>
+        <v>1107</v>
       </c>
       <c r="P217" s="2" t="s">
-        <v>397</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.2">
@@ -10110,10 +10119,10 @@
         <v>8</v>
       </c>
       <c r="H218" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L218" s="2" t="s">
         <v>635</v>
@@ -10122,10 +10131,10 @@
         <v>390</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P218" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.2">
@@ -10142,7 +10151,7 @@
         <v>8</v>
       </c>
       <c r="H219" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>638</v>
@@ -10154,10 +10163,10 @@
         <v>390</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P219" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.2">
@@ -10174,7 +10183,7 @@
         <v>8</v>
       </c>
       <c r="H220" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>638</v>
@@ -10186,10 +10195,10 @@
         <v>390</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P220" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.2">
@@ -10206,10 +10215,10 @@
         <v>8</v>
       </c>
       <c r="H221" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L221" s="2" t="s">
         <v>635</v>
@@ -10218,10 +10227,10 @@
         <v>390</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P221" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.2">
@@ -10238,10 +10247,10 @@
         <v>8</v>
       </c>
       <c r="H222" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L222" s="2" t="s">
         <v>635</v>
@@ -10250,10 +10259,10 @@
         <v>390</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P222" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.2">
@@ -10270,7 +10279,10 @@
         <v>8</v>
       </c>
       <c r="H223" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>640</v>
       </c>
       <c r="L223" s="2" t="s">
         <v>635</v>
@@ -10279,10 +10291,10 @@
         <v>390</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>641</v>
+        <v>396</v>
       </c>
       <c r="P223" s="2" t="s">
-        <v>656</v>
+        <v>402</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.2">
@@ -10296,54 +10308,51 @@
         <v>592</v>
       </c>
       <c r="F224" s="2">
+        <v>8</v>
+      </c>
+      <c r="H224" s="2">
+        <v>7</v>
+      </c>
+      <c r="L224" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N224" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="P224" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>14</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F225" s="2">
         <v>9</v>
       </c>
-      <c r="H224" s="2">
-        <v>1</v>
-      </c>
-      <c r="L224" s="2" t="s">
+      <c r="H225" s="2">
+        <v>1</v>
+      </c>
+      <c r="L225" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="M224" s="2" t="s">
+      <c r="M225" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="N224" s="2" t="s">
+      <c r="N225" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="P224" s="2" t="s">
+      <c r="P225" s="2" t="s">
         <v>655</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>15</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="F226" s="2">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2">
-        <v>1</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="L226" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="M226" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="N226" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="P226" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.2">
@@ -10360,16 +10369,22 @@
         <v>1</v>
       </c>
       <c r="H227" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" s="2" t="s">
         <v>675</v>
       </c>
+      <c r="L227" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="M227" s="2" t="s">
+        <v>658</v>
+      </c>
       <c r="N227" s="2" t="s">
-        <v>1084</v>
+        <v>657</v>
       </c>
       <c r="P227" s="2" t="s">
-        <v>1083</v>
+        <v>665</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.2">
@@ -10383,25 +10398,19 @@
         <v>674</v>
       </c>
       <c r="F228" s="2">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2">
         <v>2</v>
-      </c>
-      <c r="H228" s="2">
-        <v>1</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="L228" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="M228" s="2" t="s">
-        <v>663</v>
-      </c>
       <c r="N228" s="2" t="s">
-        <v>660</v>
+        <v>1084</v>
       </c>
       <c r="P228" s="2" t="s">
-        <v>666</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.2">
@@ -10430,10 +10439,10 @@
         <v>663</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P229" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.2">
@@ -10462,10 +10471,10 @@
         <v>663</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P230" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.2">
@@ -10479,7 +10488,7 @@
         <v>674</v>
       </c>
       <c r="F231" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H231" s="2">
         <v>1</v>
@@ -10487,11 +10496,17 @@
       <c r="I231" s="2" t="s">
         <v>675</v>
       </c>
+      <c r="L231" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="M231" s="2" t="s">
+        <v>663</v>
+      </c>
       <c r="N231" s="2" t="s">
-        <v>1086</v>
+        <v>661</v>
       </c>
       <c r="P231" s="2" t="s">
-        <v>1091</v>
+        <v>668</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.2">
@@ -10505,7 +10520,7 @@
         <v>674</v>
       </c>
       <c r="F232" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H232" s="2">
         <v>1</v>
@@ -10514,10 +10529,10 @@
         <v>675</v>
       </c>
       <c r="N232" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="P232" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.2">
@@ -10531,7 +10546,7 @@
         <v>674</v>
       </c>
       <c r="F233" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H233" s="2">
         <v>1</v>
@@ -10540,10 +10555,10 @@
         <v>675</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="P233" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.2">
@@ -10557,7 +10572,7 @@
         <v>674</v>
       </c>
       <c r="F234" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H234" s="2">
         <v>1</v>
@@ -10566,10 +10581,10 @@
         <v>675</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="P234" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.2">
@@ -10583,7 +10598,7 @@
         <v>674</v>
       </c>
       <c r="F235" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H235" s="2">
         <v>1</v>
@@ -10592,10 +10607,10 @@
         <v>675</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="P235" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
@@ -10609,25 +10624,19 @@
         <v>674</v>
       </c>
       <c r="F236" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H236" s="2">
         <v>1</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="L236" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="M236" s="2" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>670</v>
+        <v>1090</v>
       </c>
       <c r="P236" s="2" t="s">
-        <v>672</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.2">
@@ -10644,39 +10653,45 @@
         <v>8</v>
       </c>
       <c r="H237" s="2">
+        <v>1</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="L237" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="M237" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="N237" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="P237" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>15</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="F238" s="2">
+        <v>8</v>
+      </c>
+      <c r="H238" s="2">
         <v>2</v>
       </c>
-      <c r="N237" s="2" t="s">
+      <c r="N238" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="P237" s="2" t="s">
+      <c r="P238" s="2" t="s">
         <v>1102</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A242" s="2">
-        <v>16</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="F242" s="2">
-        <v>1</v>
-      </c>
-      <c r="H242" s="2">
-        <v>1</v>
-      </c>
-      <c r="I242" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="N242" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="P242" s="2" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.2">
@@ -10695,11 +10710,14 @@
       <c r="H243" s="2">
         <v>1</v>
       </c>
+      <c r="I243" s="2" t="s">
+        <v>685</v>
+      </c>
       <c r="N243" s="2" t="s">
-        <v>1112</v>
+        <v>682</v>
       </c>
       <c r="P243" s="2" t="s">
-        <v>1113</v>
+        <v>679</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
@@ -10718,14 +10736,11 @@
       <c r="H244" s="2">
         <v>1</v>
       </c>
-      <c r="I244" s="2" t="s">
-        <v>686</v>
-      </c>
       <c r="N244" s="2" t="s">
-        <v>683</v>
+        <v>1112</v>
       </c>
       <c r="P244" s="2" t="s">
-        <v>680</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.2">
@@ -10745,42 +10760,39 @@
         <v>1</v>
       </c>
       <c r="I245" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="N245" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="P245" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>16</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F246" s="2">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2">
+        <v>1</v>
+      </c>
+      <c r="I246" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="N245" s="2" t="s">
+      <c r="N246" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="P245" s="2" t="s">
+      <c r="P246" s="2" t="s">
         <v>681</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A247" s="2">
-        <v>17</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="F247" s="2">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2">
-        <v>1</v>
-      </c>
-      <c r="L247" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="M247" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="N247" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="P247" s="2" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.2">
@@ -10797,19 +10809,19 @@
         <v>1</v>
       </c>
       <c r="H248" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L248" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M248" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N248" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="P248" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.2">
@@ -10826,19 +10838,19 @@
         <v>1</v>
       </c>
       <c r="H249" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L249" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M249" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="N249" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="P249" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.2">
@@ -10855,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="H250" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L250" s="2" t="s">
         <v>691</v>
@@ -10864,10 +10876,10 @@
         <v>699</v>
       </c>
       <c r="N250" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P250" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.2">
@@ -10884,16 +10896,19 @@
         <v>1</v>
       </c>
       <c r="H251" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L251" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M251" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="N251" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
+      </c>
+      <c r="P251" s="2" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -10907,22 +10922,19 @@
         <v>678</v>
       </c>
       <c r="F252" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L252" s="2" t="s">
-        <v>635</v>
+        <v>692</v>
       </c>
       <c r="M252" s="2" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="N252" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="P252" s="2" t="s">
-        <v>636</v>
+        <v>705</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.2">
@@ -10936,212 +10948,243 @@
         <v>678</v>
       </c>
       <c r="F253" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H253" s="2">
         <v>1</v>
       </c>
       <c r="L253" s="2" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="M253" s="2" t="s">
-        <v>706</v>
+        <v>633</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>707</v>
+        <v>634</v>
       </c>
       <c r="P253" s="2" t="s">
-        <v>709</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>17</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F254" s="2">
+        <v>2</v>
+      </c>
+      <c r="H254" s="2">
+        <v>2</v>
+      </c>
+      <c r="N254" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O254" s="5"/>
+      <c r="P254" s="5" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
+        <v>17</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F255" s="2">
+        <v>3</v>
+      </c>
+      <c r="H255" s="2">
+        <v>1</v>
+      </c>
+      <c r="L255" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="M255" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="N255" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="P255" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
         <v>18</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B257" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C257" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="F255" s="2">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2">
-        <v>1</v>
-      </c>
-      <c r="L255" s="2" t="s">
+      <c r="F257" s="2">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2">
+        <v>1</v>
+      </c>
+      <c r="L257" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="M255" s="2" t="s">
+      <c r="M257" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="N255" s="2" t="s">
+      <c r="N257" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="P255" s="2" t="s">
+      <c r="P257" s="2" t="s">
         <v>697</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A256" s="2">
-        <v>18</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="F256" s="2">
-        <v>2</v>
-      </c>
-      <c r="H256" s="2">
-        <v>1</v>
-      </c>
-      <c r="L256" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="M256" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="N256" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="P256" s="2" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
+        <v>18</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F258" s="2">
+        <v>2</v>
+      </c>
+      <c r="H258" s="2">
+        <v>1</v>
+      </c>
+      <c r="L258" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="M258" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="N258" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="P258" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
         <v>19</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C260" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="F258" s="2">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2">
-        <v>1</v>
-      </c>
-      <c r="I258" s="2" t="s">
+      <c r="F260" s="2">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2">
+        <v>1</v>
+      </c>
+      <c r="I260" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="N258" s="2" t="s">
+      <c r="N260" s="2" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A259" s="2">
-        <v>19</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F259" s="2">
-        <v>2</v>
-      </c>
-      <c r="H259" s="2">
-        <v>1</v>
-      </c>
-      <c r="L259" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="M259" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="N259" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="P259" s="2" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>716</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F261" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261" s="2">
         <v>1</v>
       </c>
+      <c r="L261" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="M261" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="N261" s="2" t="s">
-        <v>599</v>
+        <v>634</v>
       </c>
       <c r="P261" s="2" t="s">
-        <v>719</v>
+        <v>636</v>
       </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>716</v>
       </c>
       <c r="C262" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="F262" s="2">
+        <v>2</v>
+      </c>
+      <c r="H262" s="2">
+        <v>2</v>
+      </c>
+      <c r="N262" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O262" s="5"/>
+      <c r="P262" s="5" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>20</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="F262" s="2">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2">
-        <v>1</v>
-      </c>
-      <c r="N262" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="P262" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A263" s="2">
-        <v>20</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="F263" s="2">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2">
-        <v>1</v>
-      </c>
-      <c r="N263" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="P263" s="2" t="s">
-        <v>1108</v>
+      <c r="F264" s="2">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2">
+        <v>1</v>
+      </c>
+      <c r="N264" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="P264" s="2" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F265" s="2">
         <v>1</v>
@@ -11149,153 +11192,112 @@
       <c r="H265" s="2">
         <v>1</v>
       </c>
-      <c r="I265" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="N265" s="2" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="P265" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
+        <v>20</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F266" s="2">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2">
+        <v>1</v>
+      </c>
+      <c r="N266" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="P266" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
         <v>21</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B268" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="F266" s="2">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2">
+      <c r="F268" s="2">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2">
+        <v>1</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="N268" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="P268" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>21</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F269" s="2">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2">
         <v>2</v>
       </c>
-      <c r="I266" s="2" t="s">
+      <c r="I269" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="N266" s="2" t="s">
+      <c r="N269" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="P266" s="2" t="s">
+      <c r="P269" s="2" t="s">
         <v>1104</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A271" s="2">
-        <v>22</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F271" s="2">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2">
-        <v>1</v>
-      </c>
-      <c r="I271" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="N271" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="P271" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A273" s="2">
-        <v>23</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F273" s="2">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2">
-        <v>1</v>
-      </c>
-      <c r="I273" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="L273" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="M273" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="N273" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="P273" s="2" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F274" s="2">
         <v>1</v>
       </c>
       <c r="H274" s="2">
-        <v>2</v>
-      </c>
-      <c r="I274" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="L274" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="M274" s="2" t="s">
-        <v>736</v>
+        <v>1</v>
+      </c>
+      <c r="I274" s="4" t="s">
+        <v>729</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>738</v>
+        <v>705</v>
       </c>
       <c r="P274" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A275" s="2">
-        <v>23</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F275" s="2">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2">
-        <v>3</v>
-      </c>
-      <c r="I275" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="L275" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="M275" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="N275" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="P275" s="2" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.2">
@@ -11309,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="H276" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I276" s="2" t="s">
         <v>732</v>
@@ -11321,99 +11323,105 @@
         <v>736</v>
       </c>
       <c r="N276" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="P276" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>952</v>
+        <v>731</v>
       </c>
       <c r="F277" s="2">
         <v>1</v>
       </c>
       <c r="H277" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
+      </c>
+      <c r="L277" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="M277" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="N277" s="2" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="P277" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>953</v>
+        <v>731</v>
       </c>
       <c r="F278" s="2">
         <v>1</v>
       </c>
       <c r="H278" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L278" s="2" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="N278" s="2" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="P278" s="2" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>953</v>
+        <v>731</v>
       </c>
       <c r="F279" s="2">
         <v>1</v>
       </c>
       <c r="H279" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L279" s="2" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="M279" s="2" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="N279" s="2" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="P279" s="2" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F280" s="2">
         <v>1</v>
@@ -11422,27 +11430,21 @@
         <v>1</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="L280" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="M280" s="2" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="P280" s="2" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F281" s="2">
         <v>1</v>
@@ -11451,30 +11453,56 @@
         <v>1</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L281" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="N281" s="2" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="P281" s="2" t="s">
-        <v>759</v>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>25</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F282" s="2">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2">
+        <v>1</v>
+      </c>
+      <c r="I282" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="L282" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="M282" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="N282" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="P282" s="2" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>27</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>760</v>
+        <v>26</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>761</v>
+        <v>954</v>
       </c>
       <c r="F283" s="2">
         <v>1</v>
@@ -11482,75 +11510,49 @@
       <c r="H283" s="2">
         <v>1</v>
       </c>
+      <c r="I283" s="2" t="s">
+        <v>735</v>
+      </c>
       <c r="L283" s="2" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>1057</v>
+        <v>755</v>
       </c>
       <c r="N283" s="2" t="s">
-        <v>1058</v>
+        <v>756</v>
       </c>
       <c r="P283" s="2" t="s">
-        <v>1059</v>
+        <v>758</v>
       </c>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>27</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>760</v>
+        <v>26</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>761</v>
+        <v>954</v>
       </c>
       <c r="F284" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284" s="2">
         <v>1</v>
       </c>
+      <c r="I284" s="2" t="s">
+        <v>735</v>
+      </c>
       <c r="L284" s="2" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="M284" s="2" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="N284" s="2" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="P284" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A285" s="2">
-        <v>27</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="F285" s="2">
-        <v>3</v>
-      </c>
-      <c r="H285" s="2">
-        <v>1</v>
-      </c>
-      <c r="L285" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="M285" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="N285" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="P285" s="2" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.2">
@@ -11564,237 +11566,201 @@
         <v>761</v>
       </c>
       <c r="F286" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H286" s="2">
+        <v>1</v>
+      </c>
+      <c r="L286" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="M286" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N286" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="P286" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>27</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="F287" s="2">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2">
         <v>2</v>
       </c>
-      <c r="L286" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="M286" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="N286" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="P286" s="2" t="s">
-        <v>772</v>
+      <c r="N287" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="P287" s="2" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>760</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="F288" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H288" s="2">
         <v>1</v>
       </c>
+      <c r="L288" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="M288" s="2" t="s">
+        <v>764</v>
+      </c>
       <c r="N288" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="P288" s="2" t="s">
-        <v>774</v>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>27</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="F289" s="2">
+        <v>3</v>
+      </c>
+      <c r="H289" s="2">
+        <v>1</v>
+      </c>
+      <c r="L289" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="M289" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="N289" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="P289" s="2" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>895</v>
+        <v>760</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>896</v>
+        <v>761</v>
       </c>
       <c r="F290" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H290" s="2">
-        <v>1</v>
-      </c>
-      <c r="I290" s="5" t="s">
-        <v>776</v>
+        <v>2</v>
       </c>
       <c r="L290" s="2" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="M290" s="2" t="s">
-        <v>390</v>
+        <v>768</v>
       </c>
       <c r="N290" s="2" t="s">
-        <v>392</v>
+        <v>770</v>
       </c>
       <c r="P290" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A291" s="2">
-        <v>29</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="F291" s="2">
-        <v>1</v>
-      </c>
-      <c r="H291" s="2">
-        <v>2</v>
-      </c>
-      <c r="I291" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="L291" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="M291" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N291" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="P291" s="2" t="s">
-        <v>399</v>
+        <v>772</v>
       </c>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>895</v>
+        <v>760</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>896</v>
+        <v>773</v>
       </c>
       <c r="F292" s="2">
         <v>1</v>
       </c>
       <c r="H292" s="2">
-        <v>3</v>
-      </c>
-      <c r="I292" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="L292" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="M292" s="2" t="s">
-        <v>390</v>
+        <v>1</v>
       </c>
       <c r="N292" s="2" t="s">
-        <v>394</v>
+        <v>775</v>
       </c>
       <c r="P292" s="2" t="s">
-        <v>400</v>
+        <v>774</v>
       </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>895</v>
+        <v>760</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>896</v>
+        <v>773</v>
       </c>
       <c r="F293" s="2">
         <v>1</v>
       </c>
       <c r="H293" s="2">
-        <v>4</v>
-      </c>
-      <c r="I293" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="L293" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="M293" s="2" t="s">
-        <v>390</v>
+        <v>1</v>
       </c>
       <c r="N293" s="2" t="s">
-        <v>395</v>
+        <v>1118</v>
       </c>
       <c r="P293" s="2" t="s">
-        <v>401</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>895</v>
+        <v>760</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>896</v>
+        <v>773</v>
       </c>
       <c r="F294" s="2">
         <v>1</v>
       </c>
       <c r="H294" s="2">
-        <v>5</v>
-      </c>
-      <c r="I294" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="L294" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="M294" s="2" t="s">
-        <v>390</v>
+        <v>1</v>
       </c>
       <c r="N294" s="2" t="s">
-        <v>391</v>
+        <v>1119</v>
       </c>
       <c r="P294" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A295" s="2">
-        <v>29</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="F295" s="2">
-        <v>1</v>
-      </c>
-      <c r="H295" s="2">
-        <v>6</v>
-      </c>
-      <c r="I295" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="L295" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="M295" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N295" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="P295" s="2" t="s">
-        <v>402</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
@@ -11808,25 +11774,25 @@
         <v>896</v>
       </c>
       <c r="F296" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H296" s="2">
         <v>1</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L296" s="2" t="s">
-        <v>653</v>
+        <v>799</v>
       </c>
       <c r="M296" s="2" t="s">
-        <v>652</v>
+        <v>390</v>
       </c>
       <c r="N296" s="2" t="s">
-        <v>654</v>
+        <v>392</v>
       </c>
       <c r="P296" s="2" t="s">
-        <v>655</v>
+        <v>398</v>
       </c>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.2">
@@ -11840,22 +11806,25 @@
         <v>896</v>
       </c>
       <c r="F297" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H297" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I297" s="5" t="s">
+        <v>776</v>
       </c>
       <c r="L297" s="2" t="s">
-        <v>621</v>
+        <v>799</v>
       </c>
       <c r="M297" s="2" t="s">
-        <v>622</v>
+        <v>390</v>
       </c>
       <c r="N297" s="2" t="s">
-        <v>623</v>
+        <v>393</v>
       </c>
       <c r="P297" s="2" t="s">
-        <v>624</v>
+        <v>399</v>
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.2">
@@ -11869,22 +11838,25 @@
         <v>896</v>
       </c>
       <c r="F298" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H298" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I298" s="5" t="s">
+        <v>776</v>
       </c>
       <c r="L298" s="2" t="s">
-        <v>609</v>
+        <v>799</v>
       </c>
       <c r="M298" s="2" t="s">
-        <v>606</v>
+        <v>390</v>
       </c>
       <c r="N298" s="2" t="s">
-        <v>617</v>
+        <v>394</v>
       </c>
       <c r="P298" s="2" t="s">
-        <v>619</v>
+        <v>400</v>
       </c>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
@@ -11898,279 +11870,320 @@
         <v>896</v>
       </c>
       <c r="F299" s="2">
+        <v>1</v>
+      </c>
+      <c r="H299" s="2">
         <v>4</v>
       </c>
-      <c r="H299" s="2">
-        <v>1</v>
+      <c r="I299" s="5" t="s">
+        <v>776</v>
       </c>
       <c r="L299" s="2" t="s">
-        <v>609</v>
+        <v>799</v>
       </c>
       <c r="M299" s="2" t="s">
-        <v>606</v>
+        <v>390</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>618</v>
+        <v>395</v>
       </c>
       <c r="P299" s="2" t="s">
-        <v>620</v>
+        <v>401</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>29</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>896</v>
+      </c>
       <c r="F300" s="2">
+        <v>1</v>
+      </c>
+      <c r="H300" s="2">
         <v>5</v>
       </c>
-      <c r="H300" s="2">
-        <v>1</v>
+      <c r="I300" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="L300" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="M300" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="N300" s="2" t="s">
-        <v>1082</v>
+        <v>391</v>
       </c>
       <c r="P300" s="2" t="s">
-        <v>1085</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>29</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F301" s="2">
+        <v>1</v>
+      </c>
+      <c r="H301" s="2">
+        <v>6</v>
+      </c>
+      <c r="I301" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="L301" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="M301" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N301" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="P301" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>895</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F302" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302" s="2">
         <v>1</v>
       </c>
-      <c r="I302" s="2" t="s">
-        <v>800</v>
+      <c r="I302" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="L302" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="M302" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="N302" s="2" t="s">
-        <v>705</v>
+        <v>654</v>
+      </c>
+      <c r="P302" s="2" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>895</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F303" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H303" s="2">
         <v>1</v>
       </c>
-      <c r="I303" s="2" t="s">
-        <v>801</v>
+      <c r="L303" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="M303" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>705</v>
+        <v>623</v>
+      </c>
+      <c r="P303" s="2" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>895</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F304" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H304" s="2">
         <v>1</v>
       </c>
-      <c r="I304" s="2" t="s">
-        <v>802</v>
+      <c r="L304" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M304" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="N304" s="2" t="s">
-        <v>705</v>
+        <v>617</v>
+      </c>
+      <c r="P304" s="2" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>895</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F305" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H305" s="2">
         <v>1</v>
       </c>
-      <c r="I305" s="2" t="s">
-        <v>803</v>
+      <c r="L305" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M305" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A307" s="2">
-        <v>31</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="F307" s="2">
-        <v>1</v>
-      </c>
-      <c r="H307" s="2">
-        <v>1</v>
-      </c>
-      <c r="I307" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="L307" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="M307" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="N307" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="P307" s="2" t="s">
-        <v>542</v>
+        <v>618</v>
+      </c>
+      <c r="P305" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>29</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F306" s="2">
+        <v>5</v>
+      </c>
+      <c r="H306" s="2">
+        <v>1</v>
+      </c>
+      <c r="N306" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="P306" s="2" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F308" s="2">
         <v>1</v>
       </c>
       <c r="H308" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="L308" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="M308" s="2" t="s">
-        <v>538</v>
+        <v>800</v>
       </c>
       <c r="N308" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="P308" s="2" t="s">
-        <v>543</v>
+        <v>705</v>
       </c>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F309" s="2">
         <v>1</v>
       </c>
       <c r="H309" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="L309" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="M309" s="2" t="s">
-        <v>538</v>
+        <v>801</v>
       </c>
       <c r="N309" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="P309" s="2" t="s">
-        <v>544</v>
+        <v>705</v>
       </c>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F310" s="2">
         <v>1</v>
       </c>
       <c r="H310" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="L310" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="M310" s="2" t="s">
-        <v>538</v>
+        <v>802</v>
       </c>
       <c r="N310" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="P310" s="2" t="s">
-        <v>546</v>
+        <v>705</v>
       </c>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F311" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H311" s="2">
         <v>1</v>
       </c>
-      <c r="L311" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="M311" s="2" t="s">
-        <v>805</v>
+      <c r="I311" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="N311" s="2" t="s">
         <v>705</v>
@@ -12178,13 +12191,13 @@
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F313" s="2">
         <v>1</v>
@@ -12192,231 +12205,211 @@
       <c r="H313" s="2">
         <v>1</v>
       </c>
+      <c r="I313" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="L313" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="M313" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="N313" s="2" t="s">
-        <v>806</v>
+        <v>539</v>
       </c>
       <c r="P313" s="2" t="s">
-        <v>900</v>
+        <v>542</v>
       </c>
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F314" s="2">
         <v>1</v>
       </c>
       <c r="H314" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="L314" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="M314" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="N314" s="2" t="s">
-        <v>807</v>
+        <v>540</v>
       </c>
       <c r="P314" s="2" t="s">
-        <v>901</v>
+        <v>543</v>
       </c>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F315" s="2">
         <v>1</v>
       </c>
       <c r="H315" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="L315" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="M315" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="N315" s="2" t="s">
-        <v>808</v>
+        <v>541</v>
       </c>
       <c r="P315" s="2" t="s">
-        <v>902</v>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>31</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="F316" s="2">
+        <v>1</v>
+      </c>
+      <c r="H316" s="2">
+        <v>4</v>
+      </c>
+      <c r="I316" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="L316" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="M316" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="N316" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="P316" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="F317" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H317" s="2">
         <v>1</v>
       </c>
       <c r="L317" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="M317" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N317" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="P317" s="2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A318" s="2">
-        <v>33</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="F318" s="2">
-        <v>2</v>
-      </c>
-      <c r="H318" s="2">
-        <v>1</v>
-      </c>
-      <c r="L318" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="M318" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="N318" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="P318" s="2" t="s">
-        <v>908</v>
+        <v>705</v>
       </c>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>904</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F319" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H319" s="2">
-        <v>2</v>
-      </c>
-      <c r="L319" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="M319" s="2" t="s">
-        <v>813</v>
+        <v>1</v>
       </c>
       <c r="N319" s="2" t="s">
-        <v>909</v>
+        <v>806</v>
       </c>
       <c r="P319" s="2" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>904</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F320" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H320" s="2">
-        <v>3</v>
-      </c>
-      <c r="L320" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="M320" s="2" t="s">
-        <v>813</v>
+        <v>1</v>
       </c>
       <c r="N320" s="2" t="s">
-        <v>910</v>
+        <v>807</v>
       </c>
       <c r="P320" s="2" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>904</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F321" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321" s="2">
-        <v>4</v>
-      </c>
-      <c r="L321" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="M321" s="2" t="s">
-        <v>813</v>
+        <v>1</v>
       </c>
       <c r="N321" s="2" t="s">
-        <v>911</v>
+        <v>808</v>
       </c>
       <c r="P321" s="2" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A322" s="2">
-        <v>33</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="F322" s="2">
-        <v>3</v>
-      </c>
-      <c r="H322" s="2">
-        <v>1</v>
-      </c>
-      <c r="L322" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="M322" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="N322" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="P322" s="2" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.2">
@@ -12430,22 +12423,22 @@
         <v>906</v>
       </c>
       <c r="F323" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H323" s="2">
         <v>1</v>
       </c>
       <c r="L323" s="2" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="M323" s="2" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="N323" s="2" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="P323" s="2" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.2">
@@ -12459,22 +12452,22 @@
         <v>906</v>
       </c>
       <c r="F324" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H324" s="2">
         <v>1</v>
       </c>
       <c r="L324" s="2" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="M324" s="2" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="N324" s="2" t="s">
-        <v>826</v>
+        <v>907</v>
       </c>
       <c r="P324" s="2" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.2">
@@ -12488,22 +12481,22 @@
         <v>906</v>
       </c>
       <c r="F325" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H325" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L325" s="2" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="M325" s="2" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="N325" s="2" t="s">
-        <v>829</v>
+        <v>909</v>
       </c>
       <c r="P325" s="2" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.2">
@@ -12517,22 +12510,22 @@
         <v>906</v>
       </c>
       <c r="F326" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H326" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L326" s="2" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="M326" s="2" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="N326" s="2" t="s">
-        <v>832</v>
+        <v>910</v>
       </c>
       <c r="P326" s="2" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.2">
@@ -12546,22 +12539,22 @@
         <v>906</v>
       </c>
       <c r="F327" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H327" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L327" s="2" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="M327" s="2" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="N327" s="2" t="s">
-        <v>835</v>
+        <v>911</v>
       </c>
       <c r="P327" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.2">
@@ -12575,22 +12568,22 @@
         <v>906</v>
       </c>
       <c r="F328" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H328" s="2">
         <v>1</v>
       </c>
       <c r="L328" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="M328" s="2" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="N328" s="2" t="s">
-        <v>922</v>
+        <v>820</v>
       </c>
       <c r="P328" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.2">
@@ -12604,22 +12597,22 @@
         <v>906</v>
       </c>
       <c r="F329" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H329" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L329" s="2" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="M329" s="2" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="N329" s="2" t="s">
-        <v>924</v>
+        <v>823</v>
       </c>
       <c r="P329" s="2" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.2">
@@ -12633,22 +12626,22 @@
         <v>906</v>
       </c>
       <c r="F330" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H330" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L330" s="2" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="M330" s="2" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="N330" s="2" t="s">
-        <v>910</v>
+        <v>826</v>
       </c>
       <c r="P330" s="2" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.2">
@@ -12662,22 +12655,22 @@
         <v>906</v>
       </c>
       <c r="F331" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H331" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L331" s="2" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="M331" s="2" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="N331" s="2" t="s">
-        <v>911</v>
+        <v>829</v>
       </c>
       <c r="P331" s="2" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.2">
@@ -12691,22 +12684,22 @@
         <v>906</v>
       </c>
       <c r="F332" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H332" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L332" s="2" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="M332" s="2" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="N332" s="2" t="s">
-        <v>925</v>
+        <v>832</v>
       </c>
       <c r="P332" s="2" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.2">
@@ -12719,25 +12712,23 @@
       <c r="C333" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="F333" s="3">
-        <v>10</v>
+      <c r="F333" s="2">
+        <v>8</v>
       </c>
       <c r="H333" s="2">
         <v>1</v>
       </c>
-      <c r="I333" s="3"/>
-      <c r="J333" s="3"/>
       <c r="L333" s="2" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="M333" s="2" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="N333" s="2" t="s">
-        <v>928</v>
+        <v>835</v>
       </c>
       <c r="P333" s="2" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.2">
@@ -12750,25 +12741,23 @@
       <c r="C334" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="F334" s="3">
-        <v>10</v>
+      <c r="F334" s="2">
+        <v>9</v>
       </c>
       <c r="H334" s="2">
-        <v>2</v>
-      </c>
-      <c r="I334" s="3"/>
-      <c r="J334" s="3"/>
+        <v>1</v>
+      </c>
       <c r="L334" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M334" s="2" t="s">
-        <v>933</v>
+        <v>815</v>
       </c>
       <c r="N334" s="2" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="P334" s="2" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
@@ -12781,25 +12770,23 @@
       <c r="C335" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="F335" s="3">
-        <v>10</v>
+      <c r="F335" s="2">
+        <v>9</v>
       </c>
       <c r="H335" s="2">
-        <v>3</v>
-      </c>
-      <c r="I335" s="3"/>
-      <c r="J335" s="3"/>
+        <v>2</v>
+      </c>
       <c r="L335" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M335" s="2" t="s">
-        <v>933</v>
+        <v>815</v>
       </c>
       <c r="N335" s="2" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="P335" s="2" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
@@ -12812,25 +12799,23 @@
       <c r="C336" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="F336" s="3">
-        <v>10</v>
+      <c r="F336" s="2">
+        <v>9</v>
       </c>
       <c r="H336" s="2">
-        <v>4</v>
-      </c>
-      <c r="I336" s="3"/>
-      <c r="J336" s="6"/>
+        <v>3</v>
+      </c>
       <c r="L336" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M336" s="2" t="s">
-        <v>933</v>
+        <v>815</v>
       </c>
       <c r="N336" s="2" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="P336" s="2" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.2">
@@ -12843,25 +12828,23 @@
       <c r="C337" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="F337" s="3">
-        <v>10</v>
+      <c r="F337" s="2">
+        <v>9</v>
       </c>
       <c r="H337" s="2">
-        <v>5</v>
-      </c>
-      <c r="I337" s="3"/>
-      <c r="J337" s="6"/>
+        <v>4</v>
+      </c>
       <c r="L337" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M337" s="2" t="s">
-        <v>938</v>
+        <v>815</v>
       </c>
       <c r="N337" s="2" t="s">
-        <v>936</v>
+        <v>911</v>
       </c>
       <c r="P337" s="2" t="s">
-        <v>939</v>
+        <v>914</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.2">
@@ -12874,25 +12857,23 @@
       <c r="C338" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="F338" s="3">
-        <v>10</v>
+      <c r="F338" s="2">
+        <v>9</v>
       </c>
       <c r="H338" s="2">
-        <v>6</v>
-      </c>
-      <c r="I338" s="3"/>
-      <c r="J338" s="6"/>
+        <v>5</v>
+      </c>
       <c r="L338" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M338" s="2" t="s">
-        <v>938</v>
+        <v>815</v>
       </c>
       <c r="N338" s="2" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="P338" s="2" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.2">
@@ -12906,24 +12887,24 @@
         <v>906</v>
       </c>
       <c r="F339" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H339" s="2">
         <v>1</v>
       </c>
       <c r="I339" s="3"/>
-      <c r="J339" s="6"/>
+      <c r="J339" s="3"/>
       <c r="L339" s="2" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="N339" s="2" t="s">
-        <v>838</v>
+        <v>928</v>
       </c>
       <c r="P339" s="2" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.2">
@@ -12937,24 +12918,24 @@
         <v>906</v>
       </c>
       <c r="F340" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H340" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" s="3"/>
-      <c r="J340" s="6"/>
+      <c r="J340" s="3"/>
       <c r="L340" s="2" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="M340" s="2" t="s">
-        <v>840</v>
+        <v>933</v>
       </c>
       <c r="N340" s="2" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="P340" s="2" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.2">
@@ -12968,24 +12949,24 @@
         <v>906</v>
       </c>
       <c r="F341" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H341" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I341" s="3"/>
-      <c r="J341" s="6"/>
+      <c r="J341" s="3"/>
       <c r="L341" s="2" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>840</v>
+        <v>933</v>
       </c>
       <c r="N341" s="2" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
       <c r="P341" s="2" t="s">
-        <v>908</v>
+        <v>934</v>
       </c>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.2">
@@ -12999,553 +12980,615 @@
         <v>906</v>
       </c>
       <c r="F342" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H342" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I342" s="3"/>
+      <c r="J342" s="6"/>
       <c r="L342" s="2" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="M342" s="2" t="s">
-        <v>842</v>
+        <v>933</v>
       </c>
       <c r="N342" s="2" t="s">
-        <v>843</v>
+        <v>932</v>
       </c>
       <c r="P342" s="2" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F343" s="3"/>
+      <c r="A343" s="2">
+        <v>33</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="F343" s="3">
+        <v>10</v>
+      </c>
+      <c r="H343" s="2">
+        <v>5</v>
+      </c>
       <c r="I343" s="3"/>
       <c r="J343" s="6"/>
+      <c r="L343" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="M343" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="N343" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="P343" s="2" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>960</v>
+        <v>906</v>
       </c>
       <c r="F344" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H344" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I344" s="3"/>
+      <c r="J344" s="6"/>
+      <c r="L344" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="M344" s="2" t="s">
+        <v>938</v>
       </c>
       <c r="N344" s="2" t="s">
-        <v>845</v>
+        <v>937</v>
       </c>
       <c r="P344" s="2" t="s">
-        <v>844</v>
+        <v>940</v>
       </c>
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>960</v>
+        <v>906</v>
       </c>
       <c r="F345" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H345" s="2">
         <v>1</v>
       </c>
       <c r="I345" s="3"/>
       <c r="J345" s="6"/>
+      <c r="L345" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="M345" s="2" t="s">
+        <v>837</v>
+      </c>
       <c r="N345" s="2" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="P345" s="2" t="s">
-        <v>846</v>
+        <v>941</v>
       </c>
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>960</v>
+        <v>906</v>
       </c>
       <c r="F346" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H346" s="2">
         <v>1</v>
       </c>
+      <c r="I346" s="3"/>
+      <c r="J346" s="6"/>
+      <c r="L346" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="M346" s="2" t="s">
+        <v>840</v>
+      </c>
       <c r="N346" s="2" t="s">
-        <v>849</v>
+        <v>943</v>
       </c>
       <c r="P346" s="2" t="s">
-        <v>848</v>
+        <v>942</v>
       </c>
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F347" s="3"/>
+      <c r="A347" s="2">
+        <v>33</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="F347" s="3">
+        <v>12</v>
+      </c>
+      <c r="H347" s="2">
+        <v>2</v>
+      </c>
       <c r="I347" s="3"/>
-      <c r="J347" s="3"/>
+      <c r="J347" s="6"/>
+      <c r="L347" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="M347" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="N347" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="P347" s="2" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>961</v>
+        <v>906</v>
       </c>
       <c r="F348" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H348" s="2">
         <v>1</v>
       </c>
       <c r="L348" s="2" t="s">
-        <v>850</v>
+        <v>841</v>
+      </c>
+      <c r="M348" s="2" t="s">
+        <v>842</v>
       </c>
       <c r="N348" s="2" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="P348" s="2" t="s">
-        <v>962</v>
+        <v>923</v>
       </c>
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A349" s="2">
-        <v>35</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="F349" s="3">
-        <v>2</v>
-      </c>
-      <c r="H349" s="2">
-        <v>1</v>
-      </c>
-      <c r="J349" s="3"/>
-      <c r="L349" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="N349" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="P349" s="2" t="s">
-        <v>966</v>
-      </c>
+      <c r="F349" s="3"/>
+      <c r="I349" s="3"/>
+      <c r="J349" s="6"/>
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>959</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F350" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H350" s="2">
-        <v>2</v>
-      </c>
-      <c r="J350" s="3"/>
-      <c r="L350" s="2" t="s">
-        <v>963</v>
+        <v>1</v>
       </c>
       <c r="N350" s="2" t="s">
-        <v>964</v>
+        <v>845</v>
       </c>
       <c r="P350" s="2" t="s">
-        <v>968</v>
+        <v>844</v>
       </c>
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>959</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F351" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" s="2">
-        <v>3</v>
-      </c>
-      <c r="J351" s="3"/>
-      <c r="L351" s="2" t="s">
-        <v>963</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I351" s="3"/>
+      <c r="J351" s="6"/>
       <c r="N351" s="2" t="s">
-        <v>965</v>
+        <v>847</v>
       </c>
       <c r="P351" s="2" t="s">
-        <v>967</v>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A352" s="2">
+        <v>34</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="F352" s="3">
+        <v>1</v>
+      </c>
+      <c r="H352" s="2">
+        <v>1</v>
+      </c>
+      <c r="N352" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="P352" s="2" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A353" s="2">
-        <v>36</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="F353" s="7">
-        <v>1</v>
-      </c>
-      <c r="H353" s="2">
-        <v>1</v>
-      </c>
+      <c r="F353" s="3"/>
+      <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="L353" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="M353" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="N353" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="P353" s="2" t="s">
-        <v>970</v>
-      </c>
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>780</v>
+        <v>959</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F354" s="3">
         <v>1</v>
       </c>
       <c r="H354" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L354" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="M354" s="2" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="N354" s="2" t="s">
-        <v>971</v>
+        <v>851</v>
       </c>
       <c r="P354" s="2" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>780</v>
+        <v>959</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F355" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" s="2">
-        <v>3</v>
-      </c>
-      <c r="I355" s="3"/>
-      <c r="J355" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="J355" s="3"/>
       <c r="L355" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="M355" s="2" t="s">
-        <v>857</v>
+        <v>963</v>
       </c>
       <c r="N355" s="2" t="s">
-        <v>972</v>
+        <v>852</v>
       </c>
       <c r="P355" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>780</v>
+        <v>959</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F356" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H356" s="2">
-        <v>4</v>
-      </c>
-      <c r="I356" s="3"/>
+        <v>2</v>
+      </c>
       <c r="J356" s="3"/>
       <c r="L356" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="M356" s="2" t="s">
-        <v>857</v>
+        <v>963</v>
       </c>
       <c r="N356" s="2" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="P356" s="2" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>780</v>
+        <v>959</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F357" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" s="2">
-        <v>5</v>
-      </c>
-      <c r="I357" s="3"/>
+        <v>3</v>
+      </c>
       <c r="J357" s="3"/>
       <c r="L357" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="M357" s="2" t="s">
-        <v>857</v>
+        <v>963</v>
       </c>
       <c r="N357" s="2" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="P357" s="2" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A358" s="2">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
         <v>36</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B359" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C359" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="F358" s="3">
-        <v>1</v>
-      </c>
-      <c r="H358" s="2">
-        <v>6</v>
-      </c>
-      <c r="I358" s="3"/>
-      <c r="J358" s="3"/>
-      <c r="L358" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="M358" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="N358" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="P358" s="2" t="s">
-        <v>981</v>
+      <c r="F359" s="7">
+        <v>1</v>
+      </c>
+      <c r="H359" s="2">
+        <v>1</v>
+      </c>
+      <c r="J359" s="3"/>
+      <c r="L359" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="M359" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="N359" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="P359" s="2" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
-        <v>37</v>
-      </c>
-      <c r="B360" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="C360" s="5" t="s">
-        <v>982</v>
+      <c r="C360" s="2" t="s">
+        <v>969</v>
       </c>
       <c r="F360" s="3">
         <v>1</v>
       </c>
       <c r="H360" s="2">
-        <v>1</v>
-      </c>
-      <c r="I360" s="3"/>
-      <c r="J360" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="L360" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="M360" s="2" t="s">
+        <v>857</v>
+      </c>
       <c r="N360" s="2" t="s">
-        <v>859</v>
+        <v>971</v>
       </c>
       <c r="P360" s="2" t="s">
-        <v>983</v>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>36</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="F361" s="3">
+        <v>1</v>
+      </c>
+      <c r="H361" s="2">
+        <v>3</v>
+      </c>
+      <c r="I361" s="3"/>
+      <c r="J361" s="6"/>
+      <c r="L361" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="M361" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="N361" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="P361" s="2" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>984</v>
+        <v>780</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="F362" s="3">
         <v>1</v>
       </c>
       <c r="H362" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I362" s="3"/>
-      <c r="J362" s="7"/>
+      <c r="J362" s="3"/>
       <c r="L362" s="2" t="s">
-        <v>204</v>
+        <v>856</v>
       </c>
       <c r="M362" s="2" t="s">
-        <v>202</v>
+        <v>857</v>
       </c>
       <c r="N362" s="2" t="s">
-        <v>203</v>
+        <v>973</v>
       </c>
       <c r="P362" s="2" t="s">
-        <v>205</v>
+        <v>977</v>
       </c>
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>984</v>
+        <v>780</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="F363" s="2">
-        <v>2</v>
+        <v>969</v>
+      </c>
+      <c r="F363" s="3">
+        <v>1</v>
       </c>
       <c r="H363" s="2">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I363" s="3"/>
+      <c r="J363" s="3"/>
       <c r="L363" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="M363" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="N363" s="2" t="s">
-        <v>862</v>
+        <v>974</v>
       </c>
       <c r="P363" s="2" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
     </row>
     <row r="364" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F364" s="3"/>
+      <c r="A364" s="2">
+        <v>36</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="F364" s="3">
+        <v>1</v>
+      </c>
+      <c r="H364" s="2">
+        <v>6</v>
+      </c>
       <c r="I364" s="3"/>
-      <c r="J364" s="7"/>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A365" s="2">
-        <v>39</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="F365" s="2">
-        <v>1</v>
-      </c>
-      <c r="H365" s="2">
-        <v>1</v>
-      </c>
-      <c r="L365" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="M365" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="N365" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="P365" s="2" t="s">
-        <v>987</v>
+      <c r="J364" s="3"/>
+      <c r="L364" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="M364" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="N364" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="P364" s="2" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
-        <v>39</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>986</v>
+        <v>37</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>982</v>
       </c>
       <c r="F366" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366" s="2">
         <v>1</v>
       </c>
+      <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="L366" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="M366" s="2" t="s">
-        <v>867</v>
-      </c>
       <c r="N366" s="2" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="P366" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F368" s="3">
         <v>1</v>
@@ -13554,247 +13597,208 @@
         <v>1</v>
       </c>
       <c r="I368" s="3"/>
-      <c r="J368" s="3"/>
+      <c r="J368" s="7"/>
       <c r="L368" s="2" t="s">
-        <v>869</v>
+        <v>204</v>
       </c>
       <c r="M368" s="2" t="s">
-        <v>870</v>
+        <v>202</v>
       </c>
       <c r="N368" s="2" t="s">
-        <v>871</v>
+        <v>203</v>
       </c>
       <c r="P368" s="2" t="s">
-        <v>999</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>38</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="F369" s="2">
+        <v>2</v>
+      </c>
+      <c r="H369" s="2">
+        <v>1</v>
+      </c>
+      <c r="L369" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="M369" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="N369" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="P369" s="2" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A370" s="2">
-        <v>41</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="F370" s="3">
-        <v>1</v>
-      </c>
-      <c r="H370" s="2">
-        <v>1</v>
-      </c>
+      <c r="F370" s="3"/>
       <c r="I370" s="3"/>
-      <c r="J370" s="3"/>
-      <c r="N370" s="2" t="s">
-        <v>705</v>
+      <c r="J370" s="7"/>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>39</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="F371" s="2">
+        <v>1</v>
+      </c>
+      <c r="H371" s="2">
+        <v>1</v>
+      </c>
+      <c r="L371" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="M371" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="N371" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="P371" s="2" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="F372" s="8">
-        <v>1</v>
+        <v>986</v>
+      </c>
+      <c r="F372" s="3">
+        <v>2</v>
       </c>
       <c r="H372" s="2">
         <v>1</v>
       </c>
-      <c r="I372" s="3"/>
       <c r="J372" s="3"/>
+      <c r="L372" s="2" t="s">
+        <v>866</v>
+      </c>
       <c r="M372" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="N372" s="2" t="s">
-        <v>995</v>
+        <v>868</v>
       </c>
       <c r="P372" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F373" s="3"/>
-      <c r="I373" s="3"/>
-      <c r="J373" s="3"/>
+        <v>989</v>
+      </c>
     </row>
     <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="F374" s="2">
+        <v>991</v>
+      </c>
+      <c r="F374" s="3">
         <v>1</v>
       </c>
       <c r="H374" s="2">
         <v>1</v>
       </c>
+      <c r="I374" s="3"/>
+      <c r="J374" s="3"/>
       <c r="L374" s="2" t="s">
-        <v>589</v>
+        <v>869</v>
       </c>
       <c r="M374" s="2" t="s">
-        <v>587</v>
+        <v>870</v>
       </c>
       <c r="N374" s="2" t="s">
-        <v>588</v>
+        <v>871</v>
       </c>
       <c r="P374" s="2" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F375" s="3"/>
-      <c r="I375" s="3"/>
-      <c r="J375" s="3"/>
+        <v>999</v>
+      </c>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F376" s="2">
+        <v>990</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="F376" s="3">
         <v>1</v>
       </c>
       <c r="H376" s="2">
         <v>1</v>
       </c>
-      <c r="I376" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="L376" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="M376" s="2" t="s">
-        <v>874</v>
-      </c>
+      <c r="I376" s="3"/>
+      <c r="J376" s="3"/>
       <c r="N376" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="P376" s="2" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A377" s="2">
-        <v>44</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F377" s="2">
-        <v>1</v>
-      </c>
-      <c r="H377" s="2">
-        <v>1</v>
-      </c>
-      <c r="I377" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="L377" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="M377" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="N377" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="P377" s="2" t="s">
-        <v>1008</v>
+        <v>705</v>
       </c>
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F378" s="2">
+        <v>994</v>
+      </c>
+      <c r="F378" s="8">
         <v>1</v>
       </c>
       <c r="H378" s="2">
         <v>1</v>
       </c>
-      <c r="I378" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="L378" s="2" t="s">
-        <v>873</v>
-      </c>
+      <c r="I378" s="3"/>
+      <c r="J378" s="3"/>
       <c r="M378" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="N378" s="2" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="P378" s="2" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="379" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A379" s="2">
-        <v>44</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F379" s="2">
-        <v>1</v>
-      </c>
-      <c r="H379" s="2">
-        <v>1</v>
-      </c>
-      <c r="I379" s="2" t="s">
-        <v>781</v>
-      </c>
+      <c r="F379" s="3"/>
+      <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="L379" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="M379" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="N379" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="P379" s="2" t="s">
-        <v>1010</v>
-      </c>
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F380" s="2">
         <v>1</v>
@@ -13802,20 +13806,17 @@
       <c r="H380" s="2">
         <v>1</v>
       </c>
-      <c r="I380" s="2" t="s">
-        <v>781</v>
-      </c>
       <c r="L380" s="2" t="s">
-        <v>873</v>
+        <v>589</v>
       </c>
       <c r="M380" s="2" t="s">
-        <v>874</v>
+        <v>587</v>
       </c>
       <c r="N380" s="2" t="s">
-        <v>1007</v>
+        <v>588</v>
       </c>
       <c r="P380" s="2" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.2">
@@ -13825,13 +13826,13 @@
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="F382" s="2">
         <v>1</v>
@@ -13840,199 +13841,226 @@
         <v>1</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L382" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="M382" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="N382" s="2" t="s">
-        <v>877</v>
+        <v>1003</v>
       </c>
       <c r="P382" s="2" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F383" s="3">
-        <v>2</v>
+        <v>1001</v>
+      </c>
+      <c r="F383" s="2">
+        <v>1</v>
       </c>
       <c r="H383" s="2">
         <v>1</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="J383" s="6"/>
+        <v>781</v>
+      </c>
       <c r="L383" s="2" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="M383" s="2" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="N383" s="2" t="s">
-        <v>705</v>
+        <v>1004</v>
+      </c>
+      <c r="P383" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A384" s="2">
+        <v>44</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F384" s="2">
+        <v>1</v>
+      </c>
+      <c r="H384" s="2">
+        <v>1</v>
+      </c>
+      <c r="I384" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="L384" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="M384" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="N384" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P384" s="2" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F385" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F385" s="2">
         <v>1</v>
       </c>
       <c r="H385" s="2">
         <v>1</v>
       </c>
-      <c r="I385" s="3"/>
+      <c r="I385" s="2" t="s">
+        <v>781</v>
+      </c>
       <c r="J385" s="3"/>
+      <c r="L385" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="M385" s="2" t="s">
+        <v>874</v>
+      </c>
       <c r="N385" s="2" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="P385" s="2" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="F386" s="2">
         <v>1</v>
       </c>
       <c r="H386" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="L386" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="M386" s="2" t="s">
+        <v>874</v>
       </c>
       <c r="N386" s="2" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="P386" s="2" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="387" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A387" s="2">
-        <v>46</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F387" s="3">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2">
-        <v>3</v>
-      </c>
+      <c r="F387" s="3"/>
       <c r="I387" s="3"/>
-      <c r="J387" s="6"/>
-      <c r="N387" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="P387" s="2" t="s">
-        <v>1022</v>
+      <c r="J387" s="3"/>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A388" s="2">
+        <v>45</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F388" s="2">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2">
+        <v>1</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="L388" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="M388" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="N388" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="P388" s="2" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F389" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H389" s="2">
         <v>1</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J389" s="6"/>
       <c r="L389" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M389" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="N389" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="P389" s="2" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A390" s="2">
-        <v>47</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F390" s="2">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2">
-        <v>1</v>
-      </c>
-      <c r="I390" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="J390" s="6"/>
-      <c r="L390" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="M390" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="N390" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="P390" s="2" t="s">
-        <v>1030</v>
+        <v>705</v>
       </c>
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>1015</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="F391" s="3">
         <v>1</v>
@@ -14040,102 +14068,72 @@
       <c r="H391" s="2">
         <v>1</v>
       </c>
-      <c r="I391" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="J391" s="6"/>
-      <c r="L391" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="M391" s="2" t="s">
-        <v>881</v>
-      </c>
+      <c r="I391" s="3"/>
+      <c r="J391" s="3"/>
       <c r="N391" s="2" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="P391" s="2" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>1015</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="F392" s="2">
         <v>1</v>
       </c>
       <c r="H392" s="2">
-        <v>1</v>
-      </c>
-      <c r="I392" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="J392" s="6"/>
-      <c r="L392" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="M392" s="2" t="s">
-        <v>881</v>
+        <v>2</v>
       </c>
       <c r="N392" s="2" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="P392" s="2" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>1015</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="F393" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H393" s="2">
-        <v>1</v>
-      </c>
-      <c r="I393" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="L393" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="M393" s="2" t="s">
-        <v>883</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I393" s="3"/>
+      <c r="J393" s="6"/>
       <c r="N393" s="2" t="s">
-        <v>884</v>
+        <v>1019</v>
       </c>
       <c r="P393" s="2" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F394" s="3"/>
-      <c r="I394" s="3"/>
-      <c r="J394" s="6"/>
+        <v>1022</v>
+      </c>
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="F395" s="3">
         <v>1</v>
@@ -14143,27 +14141,65 @@
       <c r="H395" s="2">
         <v>1</v>
       </c>
+      <c r="I395" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J395" s="6"/>
+      <c r="L395" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="M395" s="2" t="s">
+        <v>881</v>
+      </c>
       <c r="N395" s="2" t="s">
-        <v>885</v>
+        <v>1024</v>
       </c>
       <c r="P395" s="2" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="396" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F396" s="3"/>
-      <c r="I396" s="3"/>
-      <c r="J396" s="3"/>
+      <c r="A396" s="2">
+        <v>47</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F396" s="2">
+        <v>1</v>
+      </c>
+      <c r="H396" s="2">
+        <v>1</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J396" s="6"/>
+      <c r="L396" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="M396" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="N396" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P396" s="2" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="F397" s="3">
         <v>1</v>
@@ -14172,296 +14208,238 @@
         <v>1</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
+      </c>
+      <c r="J397" s="6"/>
+      <c r="L397" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="M397" s="2" t="s">
+        <v>881</v>
       </c>
       <c r="N397" s="2" t="s">
-        <v>886</v>
+        <v>1026</v>
       </c>
       <c r="P397" s="2" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F398" s="3">
-        <v>2</v>
+        <v>1023</v>
+      </c>
+      <c r="F398" s="2">
+        <v>1</v>
       </c>
       <c r="H398" s="2">
         <v>1</v>
       </c>
-      <c r="J398" s="3"/>
+      <c r="I398" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J398" s="6"/>
       <c r="L398" s="2" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="M398" s="2" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="N398" s="2" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="P398" s="2" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="F399" s="3">
         <v>2</v>
       </c>
       <c r="H399" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I399" s="2" t="s">
+        <v>785</v>
       </c>
       <c r="L399" s="2" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="M399" s="2" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="N399" s="2" t="s">
-        <v>1040</v>
+        <v>884</v>
       </c>
       <c r="P399" s="2" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="400" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A400" s="2">
-        <v>49</v>
-      </c>
-      <c r="B400" s="2" t="s">
+      <c r="F400" s="3"/>
+      <c r="I400" s="3"/>
+      <c r="J400" s="6"/>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>48</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F400" s="3">
-        <v>2</v>
-      </c>
-      <c r="H400" s="2">
-        <v>3</v>
-      </c>
-      <c r="J400" s="3"/>
-      <c r="L400" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="M400" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="N400" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="P400" s="2" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F401" s="3"/>
-      <c r="J401" s="3"/>
+      <c r="C401" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F401" s="3">
+        <v>1</v>
+      </c>
+      <c r="H401" s="2">
+        <v>1</v>
+      </c>
+      <c r="N401" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="P401" s="2" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="402" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A402" s="2">
-        <v>50</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F402" s="3">
-        <v>1</v>
-      </c>
-      <c r="H402" s="2">
-        <v>1</v>
-      </c>
-      <c r="I402" s="2" t="s">
-        <v>787</v>
-      </c>
+      <c r="F402" s="3"/>
+      <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="L402" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="M402" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="N402" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="P402" s="2" t="s">
-        <v>613</v>
-      </c>
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
-        <v>50</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C403" s="5" t="s">
-        <v>1045</v>
+        <v>49</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>1034</v>
       </c>
       <c r="F403" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H403" s="2">
         <v>1</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="J403" s="3"/>
-      <c r="L403" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="M403" s="2" t="s">
-        <v>616</v>
+        <v>786</v>
       </c>
       <c r="N403" s="2" t="s">
-        <v>614</v>
+        <v>886</v>
       </c>
       <c r="P403" s="2" t="s">
-        <v>615</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
-        <v>50</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C404" s="5" t="s">
-        <v>1045</v>
+        <v>49</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>1034</v>
       </c>
       <c r="F404" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H404" s="2">
         <v>1</v>
-      </c>
-      <c r="I404" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="J404" s="3"/>
       <c r="L404" s="2" t="s">
-        <v>609</v>
+        <v>887</v>
       </c>
       <c r="M404" s="2" t="s">
-        <v>606</v>
+        <v>888</v>
       </c>
       <c r="N404" s="2" t="s">
-        <v>617</v>
+        <v>1038</v>
       </c>
       <c r="P404" s="2" t="s">
-        <v>619</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
-        <v>50</v>
-      </c>
-      <c r="B405" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>1045</v>
+        <v>49</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>1034</v>
       </c>
       <c r="F405" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H405" s="2">
-        <v>1</v>
-      </c>
-      <c r="I405" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="J405" s="3"/>
+        <v>2</v>
+      </c>
       <c r="L405" s="2" t="s">
-        <v>609</v>
+        <v>887</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>606</v>
+        <v>888</v>
       </c>
       <c r="N405" s="2" t="s">
-        <v>618</v>
+        <v>1040</v>
       </c>
       <c r="P405" s="2" t="s">
-        <v>620</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
-        <v>50</v>
-      </c>
-      <c r="B406" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C406" s="5" t="s">
-        <v>1045</v>
+        <v>49</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>1034</v>
       </c>
       <c r="F406" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H406" s="2">
-        <v>1</v>
-      </c>
-      <c r="I406" s="2" t="s">
-        <v>787</v>
+        <v>3</v>
       </c>
       <c r="J406" s="3"/>
+      <c r="L406" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="M406" s="2" t="s">
+        <v>888</v>
+      </c>
       <c r="N406" s="2" t="s">
-        <v>705</v>
+        <v>1039</v>
+      </c>
+      <c r="P406" s="2" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A407" s="2">
-        <v>50</v>
-      </c>
-      <c r="B407" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C407" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F407" s="3">
-        <v>5</v>
-      </c>
-      <c r="H407" s="2">
-        <v>1</v>
-      </c>
-      <c r="I407" s="2" t="s">
-        <v>790</v>
-      </c>
+      <c r="F407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="L407" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="M407" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="N407" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="P407" s="2" t="s">
-        <v>630</v>
-      </c>
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
@@ -14474,26 +14452,26 @@
         <v>1045</v>
       </c>
       <c r="F408" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H408" s="2">
         <v>1</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="J408" s="3"/>
       <c r="L408" s="2" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="M408" s="2" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="N408" s="2" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="P408" s="2" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.2">
@@ -14507,26 +14485,26 @@
         <v>1045</v>
       </c>
       <c r="F409" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H409" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="J409" s="7"/>
+        <v>788</v>
+      </c>
+      <c r="J409" s="3"/>
       <c r="L409" s="2" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="M409" s="2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="N409" s="2" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="P409" s="2" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
     </row>
     <row r="410" spans="1:16" x14ac:dyDescent="0.2">
@@ -14540,25 +14518,26 @@
         <v>1045</v>
       </c>
       <c r="F410" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H410" s="2">
         <v>1</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>791</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="J410" s="3"/>
       <c r="L410" s="2" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="M410" s="2" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="N410" s="2" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="P410" s="2" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.2">
@@ -14572,19 +14551,26 @@
         <v>1045</v>
       </c>
       <c r="F411" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H411" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
+      </c>
+      <c r="J411" s="3"/>
+      <c r="L411" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M411" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="N411" s="2" t="s">
-        <v>1107</v>
+        <v>618</v>
       </c>
       <c r="P411" s="2" t="s">
-        <v>1106</v>
+        <v>620</v>
       </c>
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.2">
@@ -14598,26 +14584,17 @@
         <v>1045</v>
       </c>
       <c r="F412" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H412" s="2">
         <v>1</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="J412" s="3"/>
-      <c r="L412" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="M412" s="2" t="s">
-        <v>736</v>
-      </c>
       <c r="N412" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="P412" s="2" t="s">
-        <v>1048</v>
+        <v>705</v>
       </c>
     </row>
     <row r="413" spans="1:16" x14ac:dyDescent="0.2">
@@ -14631,26 +14608,26 @@
         <v>1045</v>
       </c>
       <c r="F413" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H413" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J413" s="3"/>
       <c r="L413" s="2" t="s">
-        <v>741</v>
+        <v>629</v>
       </c>
       <c r="M413" s="2" t="s">
-        <v>736</v>
+        <v>625</v>
       </c>
       <c r="N413" s="2" t="s">
-        <v>739</v>
+        <v>626</v>
       </c>
       <c r="P413" s="2" t="s">
-        <v>742</v>
+        <v>630</v>
       </c>
     </row>
     <row r="414" spans="1:16" x14ac:dyDescent="0.2">
@@ -14664,26 +14641,26 @@
         <v>1045</v>
       </c>
       <c r="F414" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H414" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="J414" s="6"/>
+        <v>790</v>
+      </c>
+      <c r="J414" s="3"/>
       <c r="L414" s="2" t="s">
-        <v>741</v>
+        <v>629</v>
       </c>
       <c r="M414" s="2" t="s">
-        <v>736</v>
+        <v>625</v>
       </c>
       <c r="N414" s="2" t="s">
-        <v>740</v>
+        <v>627</v>
       </c>
       <c r="P414" s="2" t="s">
-        <v>744</v>
+        <v>631</v>
       </c>
     </row>
     <row r="415" spans="1:16" x14ac:dyDescent="0.2">
@@ -14697,22 +14674,26 @@
         <v>1045</v>
       </c>
       <c r="F415" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H415" s="2">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="J415" s="7"/>
       <c r="L415" s="2" t="s">
-        <v>389</v>
+        <v>629</v>
       </c>
       <c r="M415" s="2" t="s">
-        <v>390</v>
+        <v>625</v>
       </c>
       <c r="N415" s="2" t="s">
-        <v>392</v>
+        <v>628</v>
       </c>
       <c r="P415" s="2" t="s">
-        <v>398</v>
+        <v>632</v>
       </c>
     </row>
     <row r="416" spans="1:16" x14ac:dyDescent="0.2">
@@ -14726,22 +14707,25 @@
         <v>1045</v>
       </c>
       <c r="F416" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H416" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="L416" s="2" t="s">
-        <v>389</v>
+        <v>635</v>
       </c>
       <c r="M416" s="2" t="s">
-        <v>390</v>
+        <v>633</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>393</v>
+        <v>634</v>
       </c>
       <c r="P416" s="2" t="s">
-        <v>399</v>
+        <v>636</v>
       </c>
     </row>
     <row r="417" spans="1:16" x14ac:dyDescent="0.2">
@@ -14755,24 +14739,19 @@
         <v>1045</v>
       </c>
       <c r="F417" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H417" s="2">
-        <v>3</v>
-      </c>
-      <c r="I417" s="3"/>
-      <c r="J417" s="6"/>
-      <c r="L417" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="M417" s="2" t="s">
-        <v>390</v>
+        <v>2</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>791</v>
       </c>
       <c r="N417" s="2" t="s">
-        <v>394</v>
+        <v>1107</v>
       </c>
       <c r="P417" s="2" t="s">
-        <v>400</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="418" spans="1:16" x14ac:dyDescent="0.2">
@@ -14786,24 +14765,26 @@
         <v>1045</v>
       </c>
       <c r="F418" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H418" s="2">
-        <v>4</v>
-      </c>
-      <c r="I418" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>792</v>
+      </c>
       <c r="J418" s="3"/>
       <c r="L418" s="2" t="s">
-        <v>389</v>
+        <v>741</v>
       </c>
       <c r="M418" s="2" t="s">
-        <v>390</v>
+        <v>736</v>
       </c>
       <c r="N418" s="2" t="s">
-        <v>395</v>
+        <v>737</v>
       </c>
       <c r="P418" s="2" t="s">
-        <v>401</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="419" spans="1:16" x14ac:dyDescent="0.2">
@@ -14817,24 +14798,26 @@
         <v>1045</v>
       </c>
       <c r="F419" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H419" s="2">
-        <v>5</v>
-      </c>
-      <c r="I419" s="3"/>
-      <c r="J419" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="I419" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="J419" s="3"/>
       <c r="L419" s="2" t="s">
-        <v>389</v>
+        <v>741</v>
       </c>
       <c r="M419" s="2" t="s">
-        <v>390</v>
+        <v>736</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>396</v>
+        <v>739</v>
       </c>
       <c r="P419" s="2" t="s">
-        <v>402</v>
+        <v>742</v>
       </c>
     </row>
     <row r="420" spans="1:16" x14ac:dyDescent="0.2">
@@ -14848,22 +14831,26 @@
         <v>1045</v>
       </c>
       <c r="F420" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H420" s="2">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="J420" s="6"/>
       <c r="L420" s="2" t="s">
-        <v>635</v>
+        <v>741</v>
       </c>
       <c r="M420" s="2" t="s">
-        <v>390</v>
+        <v>736</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>391</v>
+        <v>740</v>
       </c>
       <c r="P420" s="2" t="s">
-        <v>397</v>
+        <v>744</v>
       </c>
     </row>
     <row r="421" spans="1:16" x14ac:dyDescent="0.2">
@@ -14880,19 +14867,19 @@
         <v>8</v>
       </c>
       <c r="H421" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L421" s="2" t="s">
-        <v>635</v>
+        <v>389</v>
       </c>
       <c r="M421" s="2" t="s">
         <v>390</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>641</v>
+        <v>392</v>
       </c>
       <c r="P421" s="2" t="s">
-        <v>656</v>
+        <v>398</v>
       </c>
     </row>
     <row r="422" spans="1:16" x14ac:dyDescent="0.2">
@@ -14906,242 +14893,235 @@
         <v>1045</v>
       </c>
       <c r="F422" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H422" s="2">
-        <v>1</v>
-      </c>
-      <c r="I422" s="2" t="s">
-        <v>794</v>
+        <v>2</v>
       </c>
       <c r="L422" s="2" t="s">
-        <v>653</v>
+        <v>389</v>
       </c>
       <c r="M422" s="2" t="s">
-        <v>652</v>
+        <v>390</v>
       </c>
       <c r="N422" s="2" t="s">
-        <v>654</v>
+        <v>393</v>
       </c>
       <c r="P422" s="2" t="s">
-        <v>655</v>
+        <v>399</v>
       </c>
     </row>
     <row r="423" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F423" s="3"/>
+      <c r="A423" s="2">
+        <v>50</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F423" s="3">
+        <v>8</v>
+      </c>
+      <c r="H423" s="2">
+        <v>3</v>
+      </c>
       <c r="I423" s="3"/>
       <c r="J423" s="6"/>
+      <c r="L423" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M423" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N423" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="P423" s="2" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B424" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F424" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H424" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
+      <c r="L424" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M424" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="N424" s="2" t="s">
-        <v>705</v>
+        <v>395</v>
       </c>
       <c r="P424" s="2" t="s">
-        <v>705</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>50</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F425" s="3">
+        <v>8</v>
+      </c>
+      <c r="H425" s="2">
+        <v>5</v>
+      </c>
+      <c r="I425" s="3"/>
+      <c r="J425" s="6"/>
+      <c r="L425" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M425" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N425" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="P425" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
-        <v>52</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>1051</v>
+        <v>50</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>1045</v>
       </c>
       <c r="F426" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H426" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L426" s="2" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="M426" s="2" t="s">
-        <v>616</v>
+        <v>390</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>614</v>
+        <v>391</v>
       </c>
       <c r="P426" s="2" t="s">
-        <v>615</v>
+        <v>397</v>
       </c>
     </row>
     <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>52</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>1051</v>
+        <v>50</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>1045</v>
       </c>
       <c r="F427" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H427" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L427" s="2" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="M427" s="2" t="s">
-        <v>606</v>
+        <v>390</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="P427" s="2" t="s">
-        <v>619</v>
+        <v>656</v>
       </c>
     </row>
     <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
-        <v>52</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F428" s="7">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F428" s="3">
+        <v>9</v>
       </c>
       <c r="H428" s="2">
-        <v>2</v>
-      </c>
-      <c r="I428" s="3"/>
-      <c r="J428" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>794</v>
+      </c>
       <c r="L428" s="2" t="s">
-        <v>609</v>
+        <v>653</v>
       </c>
       <c r="M428" s="2" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="N428" s="2" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="P428" s="2" t="s">
-        <v>620</v>
+        <v>655</v>
       </c>
     </row>
     <row r="429" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A429" s="2">
-        <v>52</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F429" s="7">
-        <v>3</v>
-      </c>
-      <c r="H429" s="2">
-        <v>1</v>
-      </c>
-      <c r="I429" s="2" t="s">
-        <v>790</v>
-      </c>
+      <c r="F429" s="3"/>
+      <c r="I429" s="3"/>
       <c r="J429" s="6"/>
-      <c r="L429" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="M429" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="N429" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="P429" s="2" t="s">
-        <v>630</v>
-      </c>
     </row>
     <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
-        <v>52</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F430" s="2">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F430" s="3">
+        <v>1</v>
       </c>
       <c r="H430" s="2">
-        <v>2</v>
-      </c>
-      <c r="I430" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="L430" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="M430" s="2" t="s">
-        <v>625</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I430" s="3"/>
+      <c r="J430" s="3"/>
       <c r="N430" s="2" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="P430" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A431" s="2">
-        <v>52</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F431" s="7">
-        <v>3</v>
-      </c>
-      <c r="H431" s="2">
-        <v>3</v>
-      </c>
-      <c r="I431" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="J431" s="6"/>
-      <c r="L431" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="M431" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="N431" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="P431" s="2" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
     </row>
     <row r="432" spans="1:16" x14ac:dyDescent="0.2">
@@ -15154,26 +15134,23 @@
       <c r="C432" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="F432" s="7">
-        <v>4</v>
+      <c r="F432" s="3">
+        <v>1</v>
       </c>
       <c r="H432" s="2">
         <v>1</v>
       </c>
-      <c r="I432" s="2" t="s">
-        <v>791</v>
-      </c>
       <c r="L432" s="2" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="N432" s="2" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="P432" s="2" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
     </row>
     <row r="433" spans="1:16" x14ac:dyDescent="0.2">
@@ -15186,17 +15163,23 @@
       <c r="C433" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="F433" s="7">
-        <v>4</v>
+      <c r="F433" s="3">
+        <v>2</v>
       </c>
       <c r="H433" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L433" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M433" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="N433" s="2" t="s">
-        <v>1107</v>
+        <v>617</v>
       </c>
       <c r="P433" s="2" t="s">
-        <v>1106</v>
+        <v>619</v>
       </c>
     </row>
     <row r="434" spans="1:16" x14ac:dyDescent="0.2">
@@ -15210,26 +15193,24 @@
         <v>1051</v>
       </c>
       <c r="F434" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H434" s="2">
-        <v>1</v>
-      </c>
-      <c r="I434" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="J434" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="I434" s="3"/>
+      <c r="J434" s="3"/>
       <c r="L434" s="2" t="s">
-        <v>741</v>
+        <v>609</v>
       </c>
       <c r="M434" s="2" t="s">
-        <v>736</v>
+        <v>606</v>
       </c>
       <c r="N434" s="2" t="s">
-        <v>737</v>
+        <v>618</v>
       </c>
       <c r="P434" s="2" t="s">
-        <v>743</v>
+        <v>620</v>
       </c>
     </row>
     <row r="435" spans="1:16" x14ac:dyDescent="0.2">
@@ -15243,26 +15224,26 @@
         <v>1051</v>
       </c>
       <c r="F435" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H435" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J435" s="6"/>
       <c r="L435" s="2" t="s">
-        <v>741</v>
+        <v>629</v>
       </c>
       <c r="M435" s="2" t="s">
-        <v>736</v>
+        <v>625</v>
       </c>
       <c r="N435" s="2" t="s">
-        <v>738</v>
+        <v>626</v>
       </c>
       <c r="P435" s="2" t="s">
-        <v>745</v>
+        <v>630</v>
       </c>
     </row>
     <row r="436" spans="1:16" x14ac:dyDescent="0.2">
@@ -15275,27 +15256,26 @@
       <c r="C436" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="F436" s="7">
-        <v>5</v>
+      <c r="F436" s="2">
+        <v>3</v>
       </c>
       <c r="H436" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="J436" s="6"/>
+        <v>790</v>
+      </c>
       <c r="L436" s="2" t="s">
-        <v>741</v>
+        <v>629</v>
       </c>
       <c r="M436" s="2" t="s">
-        <v>736</v>
+        <v>625</v>
       </c>
       <c r="N436" s="2" t="s">
-        <v>739</v>
+        <v>627</v>
       </c>
       <c r="P436" s="2" t="s">
-        <v>742</v>
+        <v>631</v>
       </c>
     </row>
     <row r="437" spans="1:16" x14ac:dyDescent="0.2">
@@ -15309,26 +15289,26 @@
         <v>1051</v>
       </c>
       <c r="F437" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H437" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J437" s="6"/>
       <c r="L437" s="2" t="s">
-        <v>741</v>
+        <v>629</v>
       </c>
       <c r="M437" s="2" t="s">
-        <v>736</v>
+        <v>625</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>740</v>
+        <v>628</v>
       </c>
       <c r="P437" s="2" t="s">
-        <v>744</v>
+        <v>632</v>
       </c>
     </row>
     <row r="438" spans="1:16" x14ac:dyDescent="0.2">
@@ -15342,26 +15322,25 @@
         <v>1051</v>
       </c>
       <c r="F438" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H438" s="2">
         <v>1</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="J438" s="3"/>
+        <v>791</v>
+      </c>
       <c r="L438" s="2" t="s">
-        <v>389</v>
+        <v>635</v>
       </c>
       <c r="M438" s="2" t="s">
-        <v>390</v>
+        <v>633</v>
       </c>
       <c r="N438" s="2" t="s">
-        <v>391</v>
+        <v>634</v>
       </c>
       <c r="P438" s="2" t="s">
-        <v>397</v>
+        <v>636</v>
       </c>
     </row>
     <row r="439" spans="1:16" x14ac:dyDescent="0.2">
@@ -15374,27 +15353,17 @@
       <c r="C439" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="F439" s="3">
-        <v>6</v>
+      <c r="F439" s="7">
+        <v>4</v>
       </c>
       <c r="H439" s="2">
         <v>2</v>
       </c>
-      <c r="I439" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="J439" s="6"/>
-      <c r="L439" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="M439" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="N439" s="2" t="s">
-        <v>392</v>
+        <v>1107</v>
       </c>
       <c r="P439" s="2" t="s">
-        <v>398</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="440" spans="1:16" x14ac:dyDescent="0.2">
@@ -15408,25 +15377,26 @@
         <v>1051</v>
       </c>
       <c r="F440" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H440" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>793</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="J440" s="6"/>
       <c r="L440" s="2" t="s">
-        <v>389</v>
+        <v>741</v>
       </c>
       <c r="M440" s="2" t="s">
-        <v>390</v>
+        <v>736</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>393</v>
+        <v>737</v>
       </c>
       <c r="P440" s="2" t="s">
-        <v>399</v>
+        <v>743</v>
       </c>
     </row>
     <row r="441" spans="1:16" x14ac:dyDescent="0.2">
@@ -15439,27 +15409,27 @@
       <c r="C441" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="F441" s="3">
-        <v>6</v>
+      <c r="F441" s="7">
+        <v>5</v>
       </c>
       <c r="H441" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J441" s="6"/>
       <c r="L441" s="2" t="s">
-        <v>389</v>
+        <v>741</v>
       </c>
       <c r="M441" s="2" t="s">
-        <v>390</v>
+        <v>736</v>
       </c>
       <c r="N441" s="2" t="s">
-        <v>394</v>
+        <v>738</v>
       </c>
       <c r="P441" s="2" t="s">
-        <v>400</v>
+        <v>745</v>
       </c>
     </row>
     <row r="442" spans="1:16" x14ac:dyDescent="0.2">
@@ -15473,26 +15443,26 @@
         <v>1051</v>
       </c>
       <c r="F442" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H442" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I442" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="J442" s="3"/>
+        <v>792</v>
+      </c>
+      <c r="J442" s="6"/>
       <c r="L442" s="2" t="s">
-        <v>389</v>
+        <v>741</v>
       </c>
       <c r="M442" s="2" t="s">
-        <v>390</v>
+        <v>736</v>
       </c>
       <c r="N442" s="2" t="s">
-        <v>395</v>
+        <v>739</v>
       </c>
       <c r="P442" s="2" t="s">
-        <v>401</v>
+        <v>742</v>
       </c>
     </row>
     <row r="443" spans="1:16" x14ac:dyDescent="0.2">
@@ -15505,26 +15475,27 @@
       <c r="C443" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="F443" s="3">
-        <v>6</v>
+      <c r="F443" s="7">
+        <v>5</v>
       </c>
       <c r="H443" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>793</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="J443" s="6"/>
       <c r="L443" s="2" t="s">
-        <v>389</v>
+        <v>741</v>
       </c>
       <c r="M443" s="2" t="s">
-        <v>390</v>
+        <v>736</v>
       </c>
       <c r="N443" s="2" t="s">
-        <v>396</v>
+        <v>740</v>
       </c>
       <c r="P443" s="2" t="s">
-        <v>402</v>
+        <v>744</v>
       </c>
     </row>
     <row r="444" spans="1:16" x14ac:dyDescent="0.2">
@@ -15537,26 +15508,27 @@
       <c r="C444" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="F444" s="3">
+      <c r="F444" s="7">
         <v>6</v>
       </c>
       <c r="H444" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I444" s="2" t="s">
         <v>793</v>
       </c>
+      <c r="J444" s="3"/>
       <c r="L444" s="2" t="s">
-        <v>635</v>
+        <v>389</v>
       </c>
       <c r="M444" s="2" t="s">
         <v>390</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>641</v>
+        <v>391</v>
       </c>
       <c r="P444" s="2" t="s">
-        <v>656</v>
+        <v>397</v>
       </c>
     </row>
     <row r="445" spans="1:16" x14ac:dyDescent="0.2">
@@ -15570,155 +15542,373 @@
         <v>1051</v>
       </c>
       <c r="F445" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H445" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" s="2" t="s">
-        <v>794</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="J445" s="6"/>
       <c r="L445" s="2" t="s">
-        <v>653</v>
+        <v>389</v>
       </c>
       <c r="M445" s="2" t="s">
-        <v>652</v>
+        <v>390</v>
       </c>
       <c r="N445" s="2" t="s">
-        <v>654</v>
+        <v>392</v>
       </c>
       <c r="P445" s="2" t="s">
-        <v>655</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A446" s="2">
+        <v>52</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F446" s="7">
+        <v>6</v>
+      </c>
+      <c r="H446" s="2">
+        <v>3</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="L446" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M446" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N446" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P446" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="447" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F447" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H447" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>779</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="J447" s="6"/>
       <c r="L447" s="2" t="s">
-        <v>635</v>
+        <v>389</v>
       </c>
       <c r="M447" s="2" t="s">
-        <v>633</v>
+        <v>390</v>
       </c>
       <c r="N447" s="2" t="s">
-        <v>634</v>
+        <v>394</v>
       </c>
       <c r="P447" s="2" t="s">
-        <v>636</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A448" s="2">
+        <v>52</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F448" s="7">
+        <v>6</v>
+      </c>
+      <c r="H448" s="2">
+        <v>5</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J448" s="3"/>
+      <c r="L448" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="M448" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N448" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="P448" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="449" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
-        <v>54</v>
-      </c>
-      <c r="B449" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="C449" s="5" t="s">
-        <v>796</v>
+        <v>52</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>1051</v>
       </c>
       <c r="F449" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H449" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I449" s="2" t="s">
+        <v>793</v>
       </c>
       <c r="L449" s="2" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="M449" s="2" t="s">
-        <v>889</v>
+        <v>390</v>
       </c>
       <c r="N449" s="2" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="P449" s="2" t="s">
-        <v>439</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A450" s="2">
+        <v>52</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F450" s="3">
+        <v>6</v>
+      </c>
+      <c r="H450" s="2">
+        <v>7</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="L450" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="M450" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="N450" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="P450" s="2" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
+        <v>52</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F451" s="3">
+        <v>7</v>
+      </c>
+      <c r="H451" s="2">
+        <v>1</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="L451" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="M451" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="N451" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="P451" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A453" s="2">
+        <v>53</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F453" s="3">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2">
+        <v>1</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="L453" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="M453" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="N453" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="P453" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A454" s="2">
+        <v>53</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F454" s="3">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2">
+        <v>2</v>
+      </c>
+      <c r="N454" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P454" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A456" s="2">
+        <v>54</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F456" s="3">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2">
+        <v>1</v>
+      </c>
+      <c r="L456" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M456" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="N456" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="P456" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A458" s="2">
         <v>55</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B458" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="C458" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="F451" s="3">
-        <v>1</v>
-      </c>
-      <c r="H451" s="2">
-        <v>1</v>
-      </c>
-      <c r="I451" s="3"/>
-      <c r="J451" s="3"/>
-      <c r="L451" s="2" t="s">
+      <c r="F458" s="3">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2">
+        <v>1</v>
+      </c>
+      <c r="I458" s="3"/>
+      <c r="J458" s="3"/>
+      <c r="L458" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="M451" s="2" t="s">
+      <c r="M458" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="N451" s="2" t="s">
+      <c r="N458" s="2" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A452" s="2">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A459" s="2">
         <v>55</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B459" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C452" s="2" t="s">
+      <c r="C459" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="F452" s="2">
+      <c r="F459" s="2">
         <v>2</v>
       </c>
-      <c r="H452" s="2">
-        <v>1</v>
-      </c>
-      <c r="L452" s="2" t="s">
+      <c r="H459" s="2">
+        <v>1</v>
+      </c>
+      <c r="L459" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="M452" s="2" t="s">
+      <c r="M459" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="N452" s="2" t="s">
+      <c r="N459" s="2" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F453" s="3"/>
-      <c r="I453" s="3"/>
-      <c r="J453" s="3"/>
-    </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F455" s="3"/>
-      <c r="I455" s="3"/>
-      <c r="J455" s="3"/>
-    </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F456" s="3"/>
-      <c r="J456" s="3"/>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F460" s="3"/>
+      <c r="I460" s="3"/>
+      <c r="J460" s="3"/>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F462" s="3"/>
+      <c r="I462" s="3"/>
+      <c r="J462" s="3"/>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F463" s="3"/>
+      <c r="J463" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15726,6 +15916,7 @@
     <hyperlink ref="N106" r:id="rId1" display="https://www.genome.jp/entry/K00456" xr:uid="{CED0AB15-CE19-BA4B-923A-0ECC85F7D950}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -15733,8 +15924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65014A18-B2D8-8B4D-B757-A477CADA3FA4}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ocean_microbiomics_results/Sulfate.xlsx
+++ b/ocean_microbiomics_results/Sulfate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Documents/GitHub/sulfurtraits/ocean_microbiomics_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C134AB-B15D-D040-8FD2-4C6B468EB611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2918BFE8-D844-A445-8379-0745068128FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="760" windowWidth="28800" windowHeight="17180" xr2:uid="{C46F703C-E130-4146-8E70-4FF57A214435}"/>
+    <workbookView xWindow="860" yWindow="760" windowWidth="28800" windowHeight="17180" activeTab="1" xr2:uid="{C46F703C-E130-4146-8E70-4FF57A214435}"/>
   </bookViews>
   <sheets>
     <sheet name="Sulfate" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="1140">
   <si>
     <t>Metabolite</t>
   </si>
@@ -3436,6 +3436,27 @@
   </si>
   <si>
     <t>met17_2</t>
+  </si>
+  <si>
+    <t>R12718</t>
+  </si>
+  <si>
+    <t>5.3.3.23</t>
+  </si>
+  <si>
+    <t>K25035</t>
+  </si>
+  <si>
+    <t>rlp</t>
+  </si>
+  <si>
+    <t>R10936</t>
+  </si>
+  <si>
+    <t>4.2.1.155</t>
+  </si>
+  <si>
+    <t>K20036</t>
   </si>
 </sst>
 </file>
@@ -3890,10 +3911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E88251-DA92-7748-8897-50AC81C61AF4}">
-  <dimension ref="A1:AB469"/>
+  <dimension ref="A1:AB472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="N380" sqref="N380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8919,16 +8940,22 @@
         <v>513</v>
       </c>
       <c r="F169" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H169" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>1134</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>1060</v>
+        <v>1135</v>
       </c>
       <c r="P169" s="2" t="s">
-        <v>1059</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
@@ -8942,16 +8969,16 @@
         <v>513</v>
       </c>
       <c r="F170" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H170" s="2">
         <v>1</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="P170" s="2" t="s">
-        <v>111</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
@@ -8965,48 +8992,39 @@
         <v>513</v>
       </c>
       <c r="F171" s="2">
+        <v>17</v>
+      </c>
+      <c r="H171" s="2">
+        <v>1</v>
+      </c>
+      <c r="N171" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>8</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F172" s="2">
         <v>18</v>
       </c>
-      <c r="H171" s="2">
-        <v>1</v>
-      </c>
-      <c r="N171" s="2" t="s">
+      <c r="H172" s="2">
+        <v>1</v>
+      </c>
+      <c r="N172" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="P171" s="2" t="s">
+      <c r="P172" s="2" t="s">
         <v>1063</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
-        <v>9</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F174" s="2">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2">
-        <v>1</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="L174" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="M174" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="N174" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="P174" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
@@ -9023,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>516</v>
@@ -9035,10 +9053,10 @@
         <v>515</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
@@ -9055,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="H176" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>516</v>
@@ -9067,10 +9085,10 @@
         <v>515</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
@@ -9087,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="H177" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177" s="2" t="s">
         <v>516</v>
@@ -9099,10 +9117,10 @@
         <v>515</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P177" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
@@ -9119,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I178" s="2" t="s">
         <v>516</v>
@@ -9131,10 +9149,10 @@
         <v>515</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
@@ -9151,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="H179" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I179" s="2" t="s">
         <v>516</v>
@@ -9163,10 +9181,10 @@
         <v>515</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P179" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
@@ -9183,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="H180" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I180" s="2" t="s">
         <v>516</v>
@@ -9195,10 +9213,10 @@
         <v>515</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
@@ -9215,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="H181" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>516</v>
@@ -9227,10 +9245,10 @@
         <v>515</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
@@ -9247,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="H182" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>516</v>
@@ -9259,10 +9277,10 @@
         <v>515</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
@@ -9279,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="H183" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>516</v>
@@ -9291,10 +9309,10 @@
         <v>515</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
@@ -9311,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>516</v>
@@ -9323,39 +9341,42 @@
         <v>515</v>
       </c>
       <c r="N184" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>9</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F185" s="2">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2">
+        <v>11</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="N185" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="P184" s="2" t="s">
+      <c r="P185" s="2" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
-        <v>10</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F186" s="2">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2">
-        <v>1</v>
-      </c>
-      <c r="L186" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="M186" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="N186" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="P186" s="2" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
@@ -9372,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="H187" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L187" s="2" t="s">
         <v>532</v>
@@ -9381,10 +9402,10 @@
         <v>533</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P187" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
@@ -9401,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="H188" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>532</v>
@@ -9410,10 +9431,10 @@
         <v>533</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P188" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
@@ -9430,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="H189" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>532</v>
@@ -9439,10 +9460,10 @@
         <v>533</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
@@ -9456,22 +9477,22 @@
         <v>531</v>
       </c>
       <c r="F190" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
@@ -9488,7 +9509,7 @@
         <v>2</v>
       </c>
       <c r="H191" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L191" s="2" t="s">
         <v>545</v>
@@ -9497,10 +9518,10 @@
         <v>544</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P191" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
@@ -9514,22 +9535,22 @@
         <v>531</v>
       </c>
       <c r="F192" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H192" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
@@ -9546,16 +9567,16 @@
         <v>3</v>
       </c>
       <c r="H193" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="P193" s="2" t="s">
         <v>564</v>
@@ -9572,22 +9593,22 @@
         <v>531</v>
       </c>
       <c r="F194" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H194" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="P194" s="2" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
@@ -9604,7 +9625,7 @@
         <v>4</v>
       </c>
       <c r="H195" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L195" s="2" t="s">
         <v>568</v>
@@ -9613,10 +9634,10 @@
         <v>569</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="P195" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
@@ -9633,7 +9654,7 @@
         <v>4</v>
       </c>
       <c r="H196" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L196" s="2" t="s">
         <v>568</v>
@@ -9642,10 +9663,10 @@
         <v>569</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P196" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
@@ -9662,7 +9683,7 @@
         <v>4</v>
       </c>
       <c r="H197" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L197" s="2" t="s">
         <v>568</v>
@@ -9671,10 +9692,10 @@
         <v>569</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
@@ -9691,7 +9712,7 @@
         <v>4</v>
       </c>
       <c r="H198" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>568</v>
@@ -9700,10 +9721,10 @@
         <v>569</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
@@ -9720,7 +9741,7 @@
         <v>4</v>
       </c>
       <c r="H199" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L199" s="2" t="s">
         <v>568</v>
@@ -9729,10 +9750,10 @@
         <v>569</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P199" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
@@ -9746,48 +9767,51 @@
         <v>531</v>
       </c>
       <c r="F200" s="2">
+        <v>4</v>
+      </c>
+      <c r="H200" s="2">
+        <v>6</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>10</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F201" s="2">
         <v>5</v>
       </c>
-      <c r="H200" s="2">
-        <v>1</v>
-      </c>
-      <c r="L200" s="2" t="s">
+      <c r="H201" s="2">
+        <v>1</v>
+      </c>
+      <c r="L201" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="M200" s="2" t="s">
+      <c r="M201" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="N200" s="2" t="s">
+      <c r="N201" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="P200" s="2" t="s">
+      <c r="P201" s="2" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
-        <v>11</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F202" s="2">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2">
-        <v>1</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="N202" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="P202" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
@@ -9804,16 +9828,16 @@
         <v>1</v>
       </c>
       <c r="H203" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P203" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
@@ -9830,16 +9854,16 @@
         <v>1</v>
       </c>
       <c r="H204" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
@@ -9856,39 +9880,42 @@
         <v>1</v>
       </c>
       <c r="H205" s="2">
+        <v>3</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="N205" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="P205" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>11</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F206" s="2">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2">
         <v>4</v>
       </c>
-      <c r="I205" s="2" t="s">
+      <c r="I206" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="N205" s="2" t="s">
+      <c r="N206" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="P205" s="2" t="s">
+      <c r="P206" s="2" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A207" s="2">
-        <v>12</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F207" s="2">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2">
-        <v>1</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="P207" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
@@ -9905,16 +9932,13 @@
         <v>1</v>
       </c>
       <c r="H208" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="N208" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P208" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.2">
@@ -9931,16 +9955,16 @@
         <v>1</v>
       </c>
       <c r="H209" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P209" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.2">
@@ -9957,39 +9981,36 @@
         <v>1</v>
       </c>
       <c r="H210" s="2">
+        <v>3</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="N210" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="P210" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>12</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F211" s="2">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2">
         <v>4</v>
       </c>
-      <c r="P210" s="2" t="s">
+      <c r="P211" s="2" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A212" s="2">
-        <v>13</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F212" s="2">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2">
-        <v>1</v>
-      </c>
-      <c r="L212" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="M212" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="N212" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="P212" s="2" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.2">
@@ -10006,42 +10027,42 @@
         <v>1</v>
       </c>
       <c r="H213" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L213" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="M213" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="N213" s="2" t="s">
-        <v>1093</v>
+        <v>605</v>
       </c>
       <c r="P213" s="2" t="s">
-        <v>1094</v>
+        <v>606</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>13</v>
+      </c>
       <c r="B214" s="2" t="s">
         <v>586</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>1126</v>
-      </c>
       <c r="F214" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H214" s="2">
-        <v>1</v>
-      </c>
-      <c r="L214" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="M214" s="2" t="s">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>607</v>
+        <v>1093</v>
       </c>
       <c r="P214" s="2" t="s">
-        <v>608</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.2">
@@ -10055,22 +10076,22 @@
         <v>1126</v>
       </c>
       <c r="F215" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H215" s="2">
         <v>1</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P215" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
@@ -10084,22 +10105,22 @@
         <v>1126</v>
       </c>
       <c r="F216" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H216" s="2">
         <v>1</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="P216" s="2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.2">
@@ -10113,22 +10134,22 @@
         <v>1126</v>
       </c>
       <c r="F217" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H217" s="2">
         <v>1</v>
       </c>
       <c r="L217" s="2" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="N217" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="P217" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.2">
@@ -10145,7 +10166,7 @@
         <v>5</v>
       </c>
       <c r="H218" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L218" s="2" t="s">
         <v>604</v>
@@ -10154,10 +10175,10 @@
         <v>601</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P218" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.2">
@@ -10171,22 +10192,22 @@
         <v>1126</v>
       </c>
       <c r="F219" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H219" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="P219" s="2" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.2">
@@ -10203,7 +10224,7 @@
         <v>6</v>
       </c>
       <c r="H220" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L220" s="2" t="s">
         <v>624</v>
@@ -10212,10 +10233,10 @@
         <v>620</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P220" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.2">
@@ -10232,7 +10253,7 @@
         <v>6</v>
       </c>
       <c r="H221" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L221" s="2" t="s">
         <v>624</v>
@@ -10241,10 +10262,10 @@
         <v>620</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P221" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.2">
@@ -10258,22 +10279,22 @@
         <v>1126</v>
       </c>
       <c r="F222" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H222" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="P222" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.2">
@@ -10290,13 +10311,19 @@
         <v>7</v>
       </c>
       <c r="H223" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L223" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>1090</v>
+        <v>629</v>
       </c>
       <c r="P223" s="2" t="s">
-        <v>1089</v>
+        <v>631</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.2">
@@ -10310,25 +10337,16 @@
         <v>1126</v>
       </c>
       <c r="F224" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H224" s="2">
-        <v>1</v>
-      </c>
-      <c r="I224" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="L224" s="2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="M224" s="2" t="s">
-        <v>385</v>
+        <v>2</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>386</v>
+        <v>1090</v>
       </c>
       <c r="P224" s="2" t="s">
-        <v>392</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.2">
@@ -10345,10 +10363,10 @@
         <v>8</v>
       </c>
       <c r="H225" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L225" s="2" t="s">
         <v>1105</v>
@@ -10357,10 +10375,10 @@
         <v>385</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P225" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.2">
@@ -10377,7 +10395,7 @@
         <v>8</v>
       </c>
       <c r="H226" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>633</v>
@@ -10389,10 +10407,10 @@
         <v>385</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P226" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.2">
@@ -10409,7 +10427,7 @@
         <v>8</v>
       </c>
       <c r="H227" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I227" s="2" t="s">
         <v>633</v>
@@ -10421,10 +10439,10 @@
         <v>385</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P227" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.2">
@@ -10441,10 +10459,10 @@
         <v>8</v>
       </c>
       <c r="H228" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L228" s="2" t="s">
         <v>1105</v>
@@ -10453,10 +10471,10 @@
         <v>385</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P228" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.2">
@@ -10473,10 +10491,10 @@
         <v>8</v>
       </c>
       <c r="H229" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L229" s="2" t="s">
         <v>1105</v>
@@ -10485,10 +10503,10 @@
         <v>385</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P229" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.2">
@@ -10505,7 +10523,10 @@
         <v>8</v>
       </c>
       <c r="H230" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="L230" s="2" t="s">
         <v>1105</v>
@@ -10514,10 +10535,10 @@
         <v>385</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>636</v>
+        <v>391</v>
       </c>
       <c r="P230" s="2" t="s">
-        <v>651</v>
+        <v>397</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.2">
@@ -10531,54 +10552,51 @@
         <v>1126</v>
       </c>
       <c r="F231" s="2">
+        <v>8</v>
+      </c>
+      <c r="H231" s="2">
+        <v>7</v>
+      </c>
+      <c r="L231" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M231" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N231" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="P231" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B232" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F232" s="2">
         <v>9</v>
       </c>
-      <c r="H231" s="2">
-        <v>1</v>
-      </c>
-      <c r="L231" s="2" t="s">
+      <c r="H232" s="2">
+        <v>1</v>
+      </c>
+      <c r="L232" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="M231" s="2" t="s">
+      <c r="M232" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="N231" s="2" t="s">
+      <c r="N232" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="P231" s="2" t="s">
+      <c r="P232" s="2" t="s">
         <v>650</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A233" s="2">
-        <v>14</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F233" s="2">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2">
-        <v>1</v>
-      </c>
-      <c r="I233" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="L233" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="M233" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="N233" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="P233" s="2" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.2">
@@ -10595,48 +10613,48 @@
         <v>1</v>
       </c>
       <c r="H234" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" s="2" t="s">
         <v>670</v>
       </c>
+      <c r="L234" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="M234" s="2" t="s">
+        <v>653</v>
+      </c>
       <c r="N234" s="2" t="s">
-        <v>1072</v>
+        <v>652</v>
       </c>
       <c r="P234" s="2" t="s">
-        <v>1071</v>
+        <v>660</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1128</v>
+        <v>668</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1129</v>
+        <v>669</v>
       </c>
       <c r="F235" s="2">
         <v>1</v>
       </c>
       <c r="H235" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="L235" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="M235" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>655</v>
+        <v>1072</v>
       </c>
       <c r="P235" s="2" t="s">
-        <v>661</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
@@ -10665,10 +10683,10 @@
         <v>658</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P236" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.2">
@@ -10697,36 +10715,42 @@
         <v>658</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="P237" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>668</v>
+        <v>1128</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>669</v>
+        <v>1129</v>
       </c>
       <c r="F238" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H238" s="2">
         <v>1</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>670</v>
+        <v>1130</v>
+      </c>
+      <c r="L238" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="M238" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>1074</v>
+        <v>656</v>
       </c>
       <c r="P238" s="2" t="s">
-        <v>1079</v>
+        <v>663</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.2">
@@ -10740,7 +10764,7 @@
         <v>669</v>
       </c>
       <c r="F239" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H239" s="2">
         <v>1</v>
@@ -10749,10 +10773,10 @@
         <v>670</v>
       </c>
       <c r="N239" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="P239" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.2">
@@ -10766,7 +10790,7 @@
         <v>669</v>
       </c>
       <c r="F240" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H240" s="2">
         <v>1</v>
@@ -10775,10 +10799,10 @@
         <v>670</v>
       </c>
       <c r="N240" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="P240" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.2">
@@ -10792,7 +10816,7 @@
         <v>669</v>
       </c>
       <c r="F241" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H241" s="2">
         <v>1</v>
@@ -10801,10 +10825,10 @@
         <v>670</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="P241" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.2">
@@ -10818,7 +10842,7 @@
         <v>669</v>
       </c>
       <c r="F242" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H242" s="2">
         <v>1</v>
@@ -10827,10 +10851,10 @@
         <v>670</v>
       </c>
       <c r="N242" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="P242" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.2">
@@ -10844,25 +10868,19 @@
         <v>669</v>
       </c>
       <c r="F243" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H243" s="2">
         <v>1</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="L243" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="M243" s="2" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="N243" s="2" t="s">
-        <v>665</v>
+        <v>1078</v>
       </c>
       <c r="P243" s="2" t="s">
-        <v>667</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
@@ -10879,39 +10897,45 @@
         <v>7</v>
       </c>
       <c r="H244" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="L244" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="M244" s="2" t="s">
+        <v>664</v>
       </c>
       <c r="N244" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="P244" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>14</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F245" s="2">
+        <v>7</v>
+      </c>
+      <c r="H245" s="2">
+        <v>2</v>
+      </c>
+      <c r="N245" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="P244" s="2" t="s">
+      <c r="P245" s="2" t="s">
         <v>1085</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A249" s="2">
-        <v>15</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F249" s="2">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2">
-        <v>1</v>
-      </c>
-      <c r="I249" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="N249" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="P249" s="2" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.2">
@@ -10930,11 +10954,14 @@
       <c r="H250" s="2">
         <v>1</v>
       </c>
+      <c r="I250" s="2" t="s">
+        <v>680</v>
+      </c>
       <c r="N250" s="2" t="s">
-        <v>1095</v>
+        <v>677</v>
       </c>
       <c r="P250" s="2" t="s">
-        <v>1096</v>
+        <v>674</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.2">
@@ -10953,14 +10980,11 @@
       <c r="H251" s="2">
         <v>1</v>
       </c>
-      <c r="I251" s="2" t="s">
-        <v>681</v>
-      </c>
       <c r="N251" s="2" t="s">
-        <v>678</v>
+        <v>1095</v>
       </c>
       <c r="P251" s="2" t="s">
-        <v>675</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -10980,42 +11004,39 @@
         <v>1</v>
       </c>
       <c r="I252" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="N252" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="P252" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>15</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F253" s="2">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2">
+        <v>1</v>
+      </c>
+      <c r="I253" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="N252" s="2" t="s">
+      <c r="N253" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="P252" s="2" t="s">
+      <c r="P253" s="2" t="s">
         <v>676</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A254" s="2">
-        <v>16</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="F254" s="2">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2">
-        <v>1</v>
-      </c>
-      <c r="L254" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="M254" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="N254" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="P254" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.2">
@@ -11032,19 +11053,19 @@
         <v>1</v>
       </c>
       <c r="H255" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L255" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="P255" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.2">
@@ -11061,19 +11082,19 @@
         <v>1</v>
       </c>
       <c r="H256" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L256" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="P256" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.2">
@@ -11090,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="H257" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L257" s="2" t="s">
         <v>686</v>
@@ -11099,10 +11120,10 @@
         <v>694</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="P257" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.2">
@@ -11119,16 +11140,19 @@
         <v>1</v>
       </c>
       <c r="H258" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L258" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M258" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
+      </c>
+      <c r="P258" s="2" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.2">
@@ -11142,22 +11166,19 @@
         <v>673</v>
       </c>
       <c r="F259" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L259" s="2" t="s">
-        <v>630</v>
+        <v>687</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="P259" s="2" t="s">
-        <v>631</v>
+        <v>700</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.2">
@@ -11174,14 +11195,19 @@
         <v>2</v>
       </c>
       <c r="H260" s="2">
-        <v>2</v>
-      </c>
-      <c r="N260" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="O260" s="5"/>
-      <c r="P260" s="5" t="s">
-        <v>1089</v>
+        <v>1</v>
+      </c>
+      <c r="L260" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M260" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="N260" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="P260" s="2" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.2">
@@ -11195,54 +11221,46 @@
         <v>673</v>
       </c>
       <c r="F261" s="2">
+        <v>2</v>
+      </c>
+      <c r="H261" s="2">
+        <v>2</v>
+      </c>
+      <c r="N261" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O261" s="5"/>
+      <c r="P261" s="5" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>16</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F262" s="2">
         <v>3</v>
       </c>
-      <c r="H261" s="2">
-        <v>1</v>
-      </c>
-      <c r="L261" s="2" t="s">
+      <c r="H262" s="2">
+        <v>1</v>
+      </c>
+      <c r="L262" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="M261" s="2" t="s">
+      <c r="M262" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="N261" s="2" t="s">
+      <c r="N262" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="P261" s="2" t="s">
+      <c r="P262" s="2" t="s">
         <v>704</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A263" s="2">
-        <v>17</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="F263" s="2">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2">
-        <v>1</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="L263" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="M263" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="N263" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="P263" s="2" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.2">
@@ -11256,74 +11274,77 @@
         <v>706</v>
       </c>
       <c r="F264" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H264" s="2">
         <v>1</v>
       </c>
       <c r="I264" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L264" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="M264" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="N264" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="P264" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>17</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F265" s="2">
+        <v>2</v>
+      </c>
+      <c r="H265" s="2">
+        <v>1</v>
+      </c>
+      <c r="I265" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="M264" s="2" t="s">
+      <c r="M265" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="N264" s="2" t="s">
+      <c r="N265" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="P264" s="2" t="s">
+      <c r="P265" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A266" s="2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
         <v>18</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="F266" s="2">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2">
-        <v>1</v>
-      </c>
-      <c r="I266" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="N266" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B267" s="2" t="s">
         <v>708</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D267" s="2" t="s">
-        <v>1126</v>
-      </c>
       <c r="F267" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H267" s="2">
         <v>1</v>
       </c>
-      <c r="L267" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="M267" s="2" t="s">
-        <v>628</v>
+      <c r="I267" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="N267" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="P267" s="2" t="s">
-        <v>631</v>
+        <v>700</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.2">
@@ -11340,37 +11361,43 @@
         <v>2</v>
       </c>
       <c r="H268" s="2">
-        <v>2</v>
-      </c>
-      <c r="N268" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L268" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M268" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="N268" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="P268" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B269" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F269" s="2">
+        <v>2</v>
+      </c>
+      <c r="H269" s="2">
+        <v>2</v>
+      </c>
+      <c r="N269" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="O268" s="5"/>
-      <c r="P268" s="5" t="s">
+      <c r="O269" s="5"/>
+      <c r="P269" s="5" t="s">
         <v>1089</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A270" s="2">
-        <v>19</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="F270" s="2">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2">
-        <v>1</v>
-      </c>
-      <c r="N270" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="P270" s="2" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.2">
@@ -11390,10 +11417,10 @@
         <v>1</v>
       </c>
       <c r="N271" s="2" t="s">
-        <v>700</v>
+        <v>594</v>
       </c>
       <c r="P271" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.2">
@@ -11413,36 +11440,33 @@
         <v>1</v>
       </c>
       <c r="N272" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="P272" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>19</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F273" s="2">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2">
+        <v>1</v>
+      </c>
+      <c r="N273" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="P272" s="2" t="s">
+      <c r="P273" s="2" t="s">
         <v>1091</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A274" s="2">
-        <v>20</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F274" s="2">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2">
-        <v>1</v>
-      </c>
-      <c r="I274" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="N274" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="P274" s="2" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.2">
@@ -11459,71 +11483,68 @@
         <v>1</v>
       </c>
       <c r="H275" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="N275" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="P275" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>20</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F276" s="2">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2">
+        <v>2</v>
+      </c>
+      <c r="I276" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="N275" s="2" t="s">
+      <c r="N276" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="P275" s="2" t="s">
+      <c r="P276" s="2" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B280" s="2" t="s">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B281" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C281" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D281" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="F280" s="2">
-        <v>1</v>
-      </c>
-      <c r="H280" s="2">
-        <v>1</v>
-      </c>
-      <c r="I280" s="4" t="s">
+      <c r="F281" s="2">
+        <v>1</v>
+      </c>
+      <c r="H281" s="2">
+        <v>1</v>
+      </c>
+      <c r="I281" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="N280" s="2" t="s">
+      <c r="N281" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="P280" s="2" t="s">
+      <c r="P281" s="2" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C282" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F282" s="2">
-        <v>1</v>
-      </c>
-      <c r="H282" s="2">
-        <v>1</v>
-      </c>
-      <c r="I282" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="L282" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="M282" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="N282" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="P282" s="2" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.2">
@@ -11537,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="H283" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" s="2" t="s">
         <v>724</v>
@@ -11549,10 +11570,10 @@
         <v>728</v>
       </c>
       <c r="N283" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P283" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.2">
@@ -11566,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="H284" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" s="2" t="s">
         <v>724</v>
@@ -11578,10 +11599,10 @@
         <v>728</v>
       </c>
       <c r="N284" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P284" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.2">
@@ -11595,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="H285" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I285" s="2" t="s">
         <v>724</v>
@@ -11607,41 +11628,47 @@
         <v>728</v>
       </c>
       <c r="N285" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="P285" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C286" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F286" s="2">
+        <v>1</v>
+      </c>
+      <c r="H286" s="2">
+        <v>4</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="L286" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="M286" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="N286" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="P285" s="2" t="s">
+      <c r="P286" s="2" t="s">
         <v>736</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A286" s="2">
-        <v>21</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="F286" s="2">
-        <v>1</v>
-      </c>
-      <c r="H286" s="2">
-        <v>1</v>
-      </c>
-      <c r="I286" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="N286" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="P286" s="2" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F287" s="2">
         <v>1</v>
@@ -11650,19 +11677,13 @@
         <v>1</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="L287" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="M287" s="2" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="N287" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="P287" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.2">
@@ -11688,18 +11709,18 @@
         <v>740</v>
       </c>
       <c r="N288" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P288" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F289" s="2">
         <v>1</v>
@@ -11708,19 +11729,19 @@
         <v>1</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L289" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="P289" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.2">
@@ -11746,39 +11767,39 @@
         <v>747</v>
       </c>
       <c r="N290" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="P290" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>23</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="F291" s="2">
+        <v>1</v>
+      </c>
+      <c r="H291" s="2">
+        <v>1</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="L291" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="M291" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="N291" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="P290" s="2" t="s">
+      <c r="P291" s="2" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A292" s="2">
-        <v>24</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F292" s="2">
-        <v>1</v>
-      </c>
-      <c r="H292" s="2">
-        <v>1</v>
-      </c>
-      <c r="L292" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="M292" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="N292" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="P292" s="2" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.2">
@@ -11795,13 +11816,19 @@
         <v>1</v>
       </c>
       <c r="H293" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L293" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="M293" s="2" t="s">
+        <v>1045</v>
       </c>
       <c r="N293" s="2" t="s">
-        <v>1099</v>
+        <v>1046</v>
       </c>
       <c r="P293" s="2" t="s">
-        <v>1047</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.2">
@@ -11815,22 +11842,16 @@
         <v>753</v>
       </c>
       <c r="F294" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H294" s="2">
-        <v>1</v>
-      </c>
-      <c r="L294" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="M294" s="2" t="s">
-        <v>756</v>
+        <v>2</v>
       </c>
       <c r="N294" s="2" t="s">
-        <v>757</v>
+        <v>1099</v>
       </c>
       <c r="P294" s="2" t="s">
-        <v>758</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
@@ -11844,22 +11865,22 @@
         <v>753</v>
       </c>
       <c r="F295" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H295" s="2">
         <v>1</v>
       </c>
       <c r="L295" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M295" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="N295" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="P295" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.2">
@@ -11876,7 +11897,7 @@
         <v>3</v>
       </c>
       <c r="H296" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L296" s="2" t="s">
         <v>759</v>
@@ -11885,33 +11906,39 @@
         <v>760</v>
       </c>
       <c r="N296" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="P296" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>24</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="F297" s="2">
+        <v>3</v>
+      </c>
+      <c r="H297" s="2">
+        <v>2</v>
+      </c>
+      <c r="L297" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="M297" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="N297" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="P296" s="2" t="s">
+      <c r="P297" s="2" t="s">
         <v>764</v>
-      </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A298" s="2">
-        <v>25</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="F298" s="2">
-        <v>1</v>
-      </c>
-      <c r="H298" s="2">
-        <v>1</v>
-      </c>
-      <c r="N298" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="P298" s="2" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.2">
@@ -11931,10 +11958,10 @@
         <v>1</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>1101</v>
+        <v>767</v>
       </c>
       <c r="P299" s="2" t="s">
-        <v>1103</v>
+        <v>766</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
@@ -11954,42 +11981,33 @@
         <v>1</v>
       </c>
       <c r="N300" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P300" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>25</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F301" s="2">
+        <v>1</v>
+      </c>
+      <c r="H301" s="2">
+        <v>1</v>
+      </c>
+      <c r="N301" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="P300" s="2" t="s">
+      <c r="P301" s="2" t="s">
         <v>1104</v>
-      </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A302" s="2">
-        <v>26</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="F302" s="2">
-        <v>1</v>
-      </c>
-      <c r="H302" s="2">
-        <v>1</v>
-      </c>
-      <c r="I302" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="L302" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="M302" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="N302" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="P302" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.2">
@@ -12006,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="H303" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" s="5" t="s">
         <v>768</v>
@@ -12018,10 +12036,10 @@
         <v>385</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P303" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.2">
@@ -12038,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" s="5" t="s">
         <v>768</v>
@@ -12050,10 +12068,10 @@
         <v>385</v>
       </c>
       <c r="N304" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P304" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.2">
@@ -12070,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="H305" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I305" s="5" t="s">
         <v>768</v>
@@ -12082,10 +12100,10 @@
         <v>385</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P305" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.2">
@@ -12102,7 +12120,7 @@
         <v>1</v>
       </c>
       <c r="H306" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I306" s="5" t="s">
         <v>768</v>
@@ -12114,10 +12132,10 @@
         <v>385</v>
       </c>
       <c r="N306" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P306" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.2">
@@ -12134,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="H307" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I307" s="5" t="s">
         <v>768</v>
@@ -12146,10 +12164,10 @@
         <v>385</v>
       </c>
       <c r="N307" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P307" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.2">
@@ -12163,25 +12181,25 @@
         <v>888</v>
       </c>
       <c r="F308" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H308" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L308" s="2" t="s">
-        <v>648</v>
+        <v>791</v>
       </c>
       <c r="M308" s="2" t="s">
-        <v>647</v>
+        <v>385</v>
       </c>
       <c r="N308" s="2" t="s">
-        <v>649</v>
+        <v>391</v>
       </c>
       <c r="P308" s="2" t="s">
-        <v>650</v>
+        <v>397</v>
       </c>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.2">
@@ -12195,22 +12213,25 @@
         <v>888</v>
       </c>
       <c r="F309" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H309" s="2">
         <v>1</v>
       </c>
+      <c r="I309" s="5" t="s">
+        <v>769</v>
+      </c>
       <c r="L309" s="2" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="M309" s="2" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="N309" s="2" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
       <c r="P309" s="2" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.2">
@@ -12224,22 +12245,22 @@
         <v>888</v>
       </c>
       <c r="F310" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H310" s="2">
         <v>1</v>
       </c>
       <c r="L310" s="2" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="N310" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="P310" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.2">
@@ -12265,10 +12286,10 @@
         <v>601</v>
       </c>
       <c r="N311" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P311" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.2">
@@ -12282,39 +12303,45 @@
         <v>888</v>
       </c>
       <c r="F312" s="2">
+        <v>4</v>
+      </c>
+      <c r="H312" s="2">
+        <v>1</v>
+      </c>
+      <c r="L312" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="M312" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="N312" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="P312" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>26</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="F313" s="2">
         <v>5</v>
       </c>
-      <c r="H312" s="2">
-        <v>1</v>
-      </c>
-      <c r="N312" s="2" t="s">
+      <c r="H313" s="2">
+        <v>1</v>
+      </c>
+      <c r="N313" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="P312" s="2" t="s">
+      <c r="P313" s="2" t="s">
         <v>1073</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B314" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F314" s="2">
-        <v>1</v>
-      </c>
-      <c r="H314" s="2">
-        <v>1</v>
-      </c>
-      <c r="I314" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="N314" s="2" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.2">
@@ -12334,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N315" s="2" t="s">
         <v>700</v>
@@ -12357,7 +12384,7 @@
         <v>1</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N316" s="2" t="s">
         <v>700</v>
@@ -12380,42 +12407,33 @@
         <v>1</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N317" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B319" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="D319" s="2" t="s">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B318" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D318" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="F319" s="2">
-        <v>1</v>
-      </c>
-      <c r="H319" s="2">
-        <v>1</v>
-      </c>
-      <c r="I319" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="L319" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="M319" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="N319" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="P319" s="2" t="s">
-        <v>537</v>
+      <c r="F318" s="2">
+        <v>1</v>
+      </c>
+      <c r="H318" s="2">
+        <v>1</v>
+      </c>
+      <c r="I318" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="N318" s="2" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.2">
@@ -12432,7 +12450,7 @@
         <v>1</v>
       </c>
       <c r="H320" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" s="2" t="s">
         <v>770</v>
@@ -12444,10 +12462,10 @@
         <v>533</v>
       </c>
       <c r="N320" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P320" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.2">
@@ -12464,7 +12482,7 @@
         <v>1</v>
       </c>
       <c r="H321" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" s="2" t="s">
         <v>770</v>
@@ -12476,10 +12494,10 @@
         <v>533</v>
       </c>
       <c r="N321" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P321" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.2">
@@ -12496,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="H322" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I322" s="2" t="s">
         <v>770</v>
@@ -12508,10 +12526,10 @@
         <v>533</v>
       </c>
       <c r="N322" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P322" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.2">
@@ -12525,42 +12543,51 @@
         <v>1126</v>
       </c>
       <c r="F323" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H323" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I323" s="2" t="s">
+        <v>770</v>
       </c>
       <c r="L323" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="M323" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="N323" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="P323" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B324" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F324" s="2">
+        <v>2</v>
+      </c>
+      <c r="H324" s="2">
+        <v>1</v>
+      </c>
+      <c r="L324" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="M323" s="2" t="s">
+      <c r="M324" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="N323" s="2" t="s">
+      <c r="N324" s="2" t="s">
         <v>700</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A325" s="2">
-        <v>27</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="F325" s="2">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2">
-        <v>1</v>
-      </c>
-      <c r="N325" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="P325" s="2" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.2">
@@ -12580,10 +12607,10 @@
         <v>1</v>
       </c>
       <c r="N326" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P326" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.2">
@@ -12603,39 +12630,33 @@
         <v>1</v>
       </c>
       <c r="N327" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="P327" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A328" s="2">
+        <v>27</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="F328" s="2">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2">
+        <v>1</v>
+      </c>
+      <c r="N328" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="P327" s="2" t="s">
+      <c r="P328" s="2" t="s">
         <v>894</v>
-      </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A329" s="2">
-        <v>28</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="F329" s="2">
-        <v>1</v>
-      </c>
-      <c r="H329" s="2">
-        <v>1</v>
-      </c>
-      <c r="L329" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="M329" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="N329" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="P329" s="2" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.2">
@@ -12649,22 +12670,22 @@
         <v>898</v>
       </c>
       <c r="F330" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H330" s="2">
         <v>1</v>
       </c>
       <c r="L330" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="M330" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="N330" s="2" t="s">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="P330" s="2" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.2">
@@ -12681,7 +12702,7 @@
         <v>2</v>
       </c>
       <c r="H331" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L331" s="2" t="s">
         <v>804</v>
@@ -12690,10 +12711,10 @@
         <v>805</v>
       </c>
       <c r="N331" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="P331" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.2">
@@ -12710,7 +12731,7 @@
         <v>2</v>
       </c>
       <c r="H332" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L332" s="2" t="s">
         <v>804</v>
@@ -12719,10 +12740,10 @@
         <v>805</v>
       </c>
       <c r="N332" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="P332" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.2">
@@ -12739,7 +12760,7 @@
         <v>2</v>
       </c>
       <c r="H333" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L333" s="2" t="s">
         <v>804</v>
@@ -12748,10 +12769,10 @@
         <v>805</v>
       </c>
       <c r="N333" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="P333" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.2">
@@ -12765,22 +12786,22 @@
         <v>898</v>
       </c>
       <c r="F334" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H334" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L334" s="2" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="M334" s="2" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="N334" s="2" t="s">
-        <v>812</v>
+        <v>903</v>
       </c>
       <c r="P334" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
@@ -12794,22 +12815,22 @@
         <v>898</v>
       </c>
       <c r="F335" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H335" s="2">
         <v>1</v>
       </c>
       <c r="L335" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="M335" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="N335" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="P335" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
@@ -12823,22 +12844,22 @@
         <v>898</v>
       </c>
       <c r="F336" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H336" s="2">
         <v>1</v>
       </c>
       <c r="L336" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="M336" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="N336" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="P336" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.2">
@@ -12852,22 +12873,22 @@
         <v>898</v>
       </c>
       <c r="F337" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H337" s="2">
         <v>1</v>
       </c>
       <c r="L337" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="M337" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="N337" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="P337" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.2">
@@ -12881,22 +12902,22 @@
         <v>898</v>
       </c>
       <c r="F338" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H338" s="2">
         <v>1</v>
       </c>
       <c r="L338" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="M338" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="N338" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="P338" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.2">
@@ -12910,22 +12931,22 @@
         <v>898</v>
       </c>
       <c r="F339" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H339" s="2">
         <v>1</v>
       </c>
       <c r="L339" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="N339" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="P339" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.2">
@@ -12939,22 +12960,22 @@
         <v>898</v>
       </c>
       <c r="F340" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H340" s="2">
         <v>1</v>
       </c>
       <c r="L340" s="2" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="M340" s="2" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="N340" s="2" t="s">
-        <v>914</v>
+        <v>827</v>
       </c>
       <c r="P340" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.2">
@@ -12971,7 +12992,7 @@
         <v>9</v>
       </c>
       <c r="H341" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L341" s="2" t="s">
         <v>806</v>
@@ -12980,10 +13001,10 @@
         <v>807</v>
       </c>
       <c r="N341" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="P341" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.2">
@@ -13000,7 +13021,7 @@
         <v>9</v>
       </c>
       <c r="H342" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L342" s="2" t="s">
         <v>806</v>
@@ -13009,10 +13030,10 @@
         <v>807</v>
       </c>
       <c r="N342" s="2" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="P342" s="2" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.2">
@@ -13029,7 +13050,7 @@
         <v>9</v>
       </c>
       <c r="H343" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L343" s="2" t="s">
         <v>806</v>
@@ -13038,10 +13059,10 @@
         <v>807</v>
       </c>
       <c r="N343" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="P343" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.2">
@@ -13058,7 +13079,7 @@
         <v>9</v>
       </c>
       <c r="H344" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L344" s="2" t="s">
         <v>806</v>
@@ -13067,10 +13088,10 @@
         <v>807</v>
       </c>
       <c r="N344" s="2" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="P344" s="2" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.2">
@@ -13083,25 +13104,23 @@
       <c r="C345" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="F345" s="3">
-        <v>10</v>
+      <c r="F345" s="2">
+        <v>9</v>
       </c>
       <c r="H345" s="2">
-        <v>1</v>
-      </c>
-      <c r="I345" s="3"/>
-      <c r="J345" s="3"/>
+        <v>5</v>
+      </c>
       <c r="L345" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M345" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N345" s="2" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="P345" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.2">
@@ -13118,7 +13137,7 @@
         <v>10</v>
       </c>
       <c r="H346" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
@@ -13126,13 +13145,13 @@
         <v>808</v>
       </c>
       <c r="M346" s="2" t="s">
-        <v>925</v>
+        <v>809</v>
       </c>
       <c r="N346" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="P346" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.2">
@@ -13149,7 +13168,7 @@
         <v>10</v>
       </c>
       <c r="H347" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
@@ -13160,10 +13179,10 @@
         <v>925</v>
       </c>
       <c r="N347" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="P347" s="2" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.2">
@@ -13180,10 +13199,10 @@
         <v>10</v>
       </c>
       <c r="H348" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I348" s="3"/>
-      <c r="J348" s="6"/>
+      <c r="J348" s="3"/>
       <c r="L348" s="2" t="s">
         <v>808</v>
       </c>
@@ -13191,10 +13210,10 @@
         <v>925</v>
       </c>
       <c r="N348" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="P348" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.2">
@@ -13211,7 +13230,7 @@
         <v>10</v>
       </c>
       <c r="H349" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I349" s="3"/>
       <c r="J349" s="6"/>
@@ -13219,13 +13238,13 @@
         <v>808</v>
       </c>
       <c r="M349" s="2" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="N349" s="2" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="P349" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.2">
@@ -13242,7 +13261,7 @@
         <v>10</v>
       </c>
       <c r="H350" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I350" s="3"/>
       <c r="J350" s="6"/>
@@ -13253,10 +13272,10 @@
         <v>930</v>
       </c>
       <c r="N350" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="P350" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.2">
@@ -13270,24 +13289,24 @@
         <v>898</v>
       </c>
       <c r="F351" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H351" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I351" s="3"/>
       <c r="J351" s="6"/>
       <c r="L351" s="2" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>829</v>
+        <v>930</v>
       </c>
       <c r="N351" s="2" t="s">
-        <v>830</v>
+        <v>929</v>
       </c>
       <c r="P351" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.2">
@@ -13301,7 +13320,7 @@
         <v>898</v>
       </c>
       <c r="F352" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H352" s="2">
         <v>1</v>
@@ -13309,16 +13328,16 @@
       <c r="I352" s="3"/>
       <c r="J352" s="6"/>
       <c r="L352" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="M352" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="N352" s="2" t="s">
-        <v>935</v>
+        <v>830</v>
       </c>
       <c r="P352" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.2">
@@ -13335,7 +13354,7 @@
         <v>12</v>
       </c>
       <c r="H353" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" s="3"/>
       <c r="J353" s="6"/>
@@ -13346,10 +13365,10 @@
         <v>832</v>
       </c>
       <c r="N353" s="2" t="s">
-        <v>899</v>
+        <v>935</v>
       </c>
       <c r="P353" s="2" t="s">
-        <v>900</v>
+        <v>934</v>
       </c>
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.2">
@@ -13363,51 +13382,59 @@
         <v>898</v>
       </c>
       <c r="F354" s="3">
+        <v>12</v>
+      </c>
+      <c r="H354" s="2">
+        <v>2</v>
+      </c>
+      <c r="I354" s="3"/>
+      <c r="J354" s="6"/>
+      <c r="L354" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="M354" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="N354" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="P354" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>28</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="F355" s="3">
         <v>13</v>
       </c>
-      <c r="H354" s="2">
-        <v>1</v>
-      </c>
-      <c r="L354" s="2" t="s">
+      <c r="H355" s="2">
+        <v>1</v>
+      </c>
+      <c r="L355" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="M354" s="2" t="s">
+      <c r="M355" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="N354" s="2" t="s">
+      <c r="N355" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="P354" s="2" t="s">
+      <c r="P355" s="2" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F355" s="3"/>
-      <c r="I355" s="3"/>
-      <c r="J355" s="6"/>
-    </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A356" s="2">
-        <v>29</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="F356" s="3">
-        <v>1</v>
-      </c>
-      <c r="H356" s="2">
-        <v>1</v>
-      </c>
-      <c r="N356" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="P356" s="2" t="s">
-        <v>836</v>
-      </c>
+      <c r="F356" s="3"/>
+      <c r="I356" s="3"/>
+      <c r="J356" s="6"/>
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
@@ -13425,13 +13452,11 @@
       <c r="H357" s="2">
         <v>1</v>
       </c>
-      <c r="I357" s="3"/>
-      <c r="J357" s="6"/>
       <c r="N357" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="P357" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.2">
@@ -13450,43 +13475,42 @@
       <c r="H358" s="2">
         <v>1</v>
       </c>
+      <c r="I358" s="3"/>
+      <c r="J358" s="6"/>
       <c r="N358" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="P358" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>29</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="F359" s="3">
+        <v>1</v>
+      </c>
+      <c r="H359" s="2">
+        <v>1</v>
+      </c>
+      <c r="N359" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="P358" s="2" t="s">
+      <c r="P359" s="2" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F359" s="3"/>
-      <c r="I359" s="3"/>
-      <c r="J359" s="3"/>
-    </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A360" s="2">
-        <v>30</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="F360" s="3">
-        <v>1</v>
-      </c>
-      <c r="H360" s="2">
-        <v>1</v>
-      </c>
-      <c r="L360" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="N360" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="P360" s="2" t="s">
-        <v>950</v>
-      </c>
+      <c r="F360" s="3"/>
+      <c r="I360" s="3"/>
+      <c r="J360" s="3"/>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
@@ -13499,20 +13523,19 @@
         <v>949</v>
       </c>
       <c r="F361" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H361" s="2">
         <v>1</v>
       </c>
-      <c r="J361" s="3"/>
       <c r="L361" s="2" t="s">
-        <v>951</v>
+        <v>842</v>
       </c>
       <c r="N361" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P361" s="2" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.2">
@@ -13529,17 +13552,17 @@
         <v>2</v>
       </c>
       <c r="H362" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J362" s="3"/>
       <c r="L362" s="2" t="s">
         <v>951</v>
       </c>
       <c r="N362" s="2" t="s">
-        <v>952</v>
+        <v>844</v>
       </c>
       <c r="P362" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.2">
@@ -13556,47 +13579,44 @@
         <v>2</v>
       </c>
       <c r="H363" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J363" s="3"/>
       <c r="L363" s="2" t="s">
         <v>951</v>
       </c>
       <c r="N363" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="P363" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>30</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="F364" s="3">
+        <v>2</v>
+      </c>
+      <c r="H364" s="2">
+        <v>3</v>
+      </c>
+      <c r="J364" s="3"/>
+      <c r="L364" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="N364" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="P363" s="2" t="s">
+      <c r="P364" s="2" t="s">
         <v>955</v>
-      </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A365" s="2">
-        <v>31</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="F365" s="7">
-        <v>1</v>
-      </c>
-      <c r="H365" s="2">
-        <v>1</v>
-      </c>
-      <c r="J365" s="3"/>
-      <c r="L365" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="M365" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="N365" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="P365" s="2" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.2">
@@ -13609,23 +13629,24 @@
       <c r="C366" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="F366" s="3">
+      <c r="F366" s="7">
         <v>1</v>
       </c>
       <c r="H366" s="2">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J366" s="3"/>
       <c r="L366" s="2" t="s">
         <v>845</v>
       </c>
       <c r="M366" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="N366" s="2" t="s">
-        <v>959</v>
+        <v>847</v>
       </c>
       <c r="P366" s="2" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.2">
@@ -13642,21 +13663,19 @@
         <v>1</v>
       </c>
       <c r="H367" s="2">
-        <v>3</v>
-      </c>
-      <c r="I367" s="3"/>
-      <c r="J367" s="6"/>
+        <v>2</v>
+      </c>
       <c r="L367" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="M367" s="2" t="s">
         <v>849</v>
       </c>
       <c r="N367" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P367" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.2">
@@ -13673,10 +13692,10 @@
         <v>1</v>
       </c>
       <c r="H368" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I368" s="3"/>
-      <c r="J368" s="3"/>
+      <c r="J368" s="6"/>
       <c r="L368" s="2" t="s">
         <v>848</v>
       </c>
@@ -13684,10 +13703,10 @@
         <v>849</v>
       </c>
       <c r="N368" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P368" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.2">
@@ -13704,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="H369" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
@@ -13715,10 +13734,10 @@
         <v>849</v>
       </c>
       <c r="N369" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="P369" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.2">
@@ -13735,77 +13754,77 @@
         <v>1</v>
       </c>
       <c r="H370" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
       <c r="L370" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="M370" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="N370" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="P370" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>31</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="F371" s="3">
+        <v>1</v>
+      </c>
+      <c r="H371" s="2">
+        <v>6</v>
+      </c>
+      <c r="I371" s="3"/>
+      <c r="J371" s="3"/>
+      <c r="L371" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="M370" s="2" t="s">
+      <c r="M371" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="N370" s="2" t="s">
+      <c r="N371" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="P370" s="2" t="s">
+      <c r="P371" s="2" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B372" s="5" t="s">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B373" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="C372" s="5" t="s">
+      <c r="C373" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="D372" s="2" t="s">
+      <c r="D373" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="F372" s="3">
-        <v>1</v>
-      </c>
-      <c r="H372" s="2">
-        <v>1</v>
-      </c>
-      <c r="I372" s="3"/>
-      <c r="J372" s="3"/>
-      <c r="N372" s="2" t="s">
+      <c r="F373" s="3">
+        <v>1</v>
+      </c>
+      <c r="H373" s="2">
+        <v>1</v>
+      </c>
+      <c r="I373" s="3"/>
+      <c r="J373" s="3"/>
+      <c r="N373" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="P372" s="2" t="s">
+      <c r="P373" s="2" t="s">
         <v>971</v>
-      </c>
-    </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A374" s="2">
-        <v>32</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="F374" s="3">
-        <v>1</v>
-      </c>
-      <c r="H374" s="2">
-        <v>1</v>
-      </c>
-      <c r="I374" s="3"/>
-      <c r="J374" s="7"/>
-      <c r="L374" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="M374" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N374" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="P374" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.2">
@@ -13818,250 +13837,268 @@
       <c r="C375" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="F375" s="2">
-        <v>2</v>
+      <c r="F375" s="3">
+        <v>1</v>
       </c>
       <c r="H375" s="2">
         <v>1</v>
       </c>
+      <c r="I375" s="3"/>
+      <c r="J375" s="7"/>
       <c r="L375" s="2" t="s">
-        <v>852</v>
+        <v>204</v>
       </c>
       <c r="M375" s="2" t="s">
-        <v>853</v>
+        <v>202</v>
       </c>
       <c r="N375" s="2" t="s">
-        <v>854</v>
+        <v>203</v>
       </c>
       <c r="P375" s="2" t="s">
-        <v>976</v>
+        <v>205</v>
       </c>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F376" s="3"/>
+      <c r="A376" s="5">
+        <v>32</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="F376" s="3">
+        <v>1</v>
+      </c>
+      <c r="H376" s="2">
+        <v>2</v>
+      </c>
       <c r="I376" s="3"/>
       <c r="J376" s="7"/>
+      <c r="M376" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N376" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="P376" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>972</v>
       </c>
       <c r="C377" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="F377" s="2">
+        <v>2</v>
+      </c>
+      <c r="H377" s="2">
+        <v>1</v>
+      </c>
+      <c r="L377" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="M377" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="N377" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="P377" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I378" s="3"/>
+      <c r="J378" s="7"/>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A379" s="2">
+        <v>33</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="F377" s="2">
-        <v>1</v>
-      </c>
-      <c r="H377" s="2">
-        <v>1</v>
-      </c>
-      <c r="L377" s="2" t="s">
+      <c r="F379" s="2">
+        <v>1</v>
+      </c>
+      <c r="H379" s="2">
+        <v>1</v>
+      </c>
+      <c r="L379" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M377" s="2" t="s">
+      <c r="M379" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="N377" s="2" t="s">
+      <c r="N379" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="P377" s="2" t="s">
+      <c r="P379" s="2" t="s">
         <v>975</v>
-      </c>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A378" s="2">
-        <v>33</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="F378" s="3">
-        <v>2</v>
-      </c>
-      <c r="H378" s="2">
-        <v>1</v>
-      </c>
-      <c r="J378" s="3"/>
-      <c r="L378" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="M378" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="N378" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="P378" s="2" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
+        <v>33</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="F380" s="2">
+        <v>3</v>
+      </c>
+      <c r="H380" s="2">
+        <v>1</v>
+      </c>
+      <c r="L380" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M380" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="N380" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A381" s="2">
+        <v>33</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="F381" s="3">
+        <v>2</v>
+      </c>
+      <c r="H381" s="2">
+        <v>1</v>
+      </c>
+      <c r="J381" s="3"/>
+      <c r="L381" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="M381" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="N381" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="P381" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A383" s="2">
         <v>34</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B383" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C383" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="F380" s="3">
-        <v>1</v>
-      </c>
-      <c r="H380" s="2">
-        <v>1</v>
-      </c>
-      <c r="I380" s="3"/>
-      <c r="J380" s="3"/>
-      <c r="L380" s="2" t="s">
+      <c r="F383" s="3">
+        <v>1</v>
+      </c>
+      <c r="H383" s="2">
+        <v>1</v>
+      </c>
+      <c r="I383" s="3"/>
+      <c r="J383" s="3"/>
+      <c r="L383" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="M380" s="2" t="s">
+      <c r="M383" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="N380" s="2" t="s">
+      <c r="N383" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="P380" s="2" t="s">
+      <c r="P383" s="2" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B382" s="2" t="s">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B385" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="C382" s="5" t="s">
+      <c r="C385" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="D382" s="2" t="s">
+      <c r="D385" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="F382" s="3">
-        <v>1</v>
-      </c>
-      <c r="H382" s="2">
-        <v>1</v>
-      </c>
-      <c r="I382" s="3"/>
-      <c r="J382" s="3"/>
-      <c r="N382" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B384" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F384" s="8">
-        <v>1</v>
-      </c>
-      <c r="H384" s="2">
-        <v>1</v>
-      </c>
-      <c r="I384" s="3"/>
-      <c r="J384" s="3"/>
-      <c r="M384" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="N384" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="P384" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F385" s="3"/>
+      <c r="F385" s="3">
+        <v>1</v>
+      </c>
+      <c r="H385" s="2">
+        <v>1</v>
+      </c>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A386" s="2">
-        <v>35</v>
-      </c>
-      <c r="B386" s="2" t="s">
+      <c r="N385" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B387" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="F386" s="2">
-        <v>1</v>
-      </c>
-      <c r="H386" s="2">
-        <v>1</v>
-      </c>
-      <c r="L386" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="M386" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="N386" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="P386" s="2" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F387" s="3"/>
+      <c r="C387" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F387" s="8">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2">
+        <v>1</v>
+      </c>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
+      <c r="M387" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="N387" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="P387" s="2" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="388" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A388" s="2">
-        <v>36</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="F388" s="2">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2">
-        <v>1</v>
-      </c>
-      <c r="I388" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="L388" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="M388" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="N388" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="P388" s="2" t="s">
-        <v>990</v>
-      </c>
+      <c r="F388" s="3"/>
+      <c r="I388" s="3"/>
+      <c r="J388" s="3"/>
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F389" s="2">
         <v>1</v>
@@ -14069,53 +14106,23 @@
       <c r="H389" s="2">
         <v>1</v>
       </c>
-      <c r="I389" s="2" t="s">
-        <v>773</v>
-      </c>
       <c r="L389" s="2" t="s">
-        <v>865</v>
+        <v>584</v>
       </c>
       <c r="M389" s="2" t="s">
-        <v>866</v>
+        <v>582</v>
       </c>
       <c r="N389" s="2" t="s">
-        <v>992</v>
+        <v>583</v>
       </c>
       <c r="P389" s="2" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="390" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A390" s="2">
-        <v>36</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="F390" s="2">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2">
-        <v>1</v>
-      </c>
-      <c r="I390" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="L390" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="M390" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="N390" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="P390" s="2" t="s">
-        <v>997</v>
-      </c>
+      <c r="F390" s="3"/>
+      <c r="I390" s="3"/>
+      <c r="J390" s="3"/>
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
@@ -14136,7 +14143,6 @@
       <c r="I391" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="J391" s="3"/>
       <c r="L391" s="2" t="s">
         <v>865</v>
       </c>
@@ -14144,10 +14150,10 @@
         <v>866</v>
       </c>
       <c r="N391" s="2" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="P391" s="2" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="392" spans="1:16" x14ac:dyDescent="0.2">
@@ -14176,26 +14182,53 @@
         <v>866</v>
       </c>
       <c r="N392" s="2" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="P392" s="2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F393" s="3"/>
-      <c r="I393" s="3"/>
-      <c r="J393" s="3"/>
+      <c r="A393" s="2">
+        <v>36</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="F393" s="2">
+        <v>1</v>
+      </c>
+      <c r="H393" s="2">
+        <v>1</v>
+      </c>
+      <c r="I393" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="L393" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="M393" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="N393" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="P393" s="2" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="F394" s="2">
         <v>1</v>
@@ -14204,224 +14237,195 @@
         <v>1</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>774</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="J394" s="3"/>
       <c r="L394" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N394" s="2" t="s">
-        <v>869</v>
+        <v>994</v>
       </c>
       <c r="P394" s="2" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F395" s="3">
-        <v>2</v>
+        <v>989</v>
+      </c>
+      <c r="F395" s="2">
+        <v>1</v>
       </c>
       <c r="H395" s="2">
         <v>1</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="J395" s="6"/>
+        <v>773</v>
+      </c>
       <c r="L395" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="M395" s="2" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="N395" s="2" t="s">
-        <v>700</v>
-      </c>
+        <v>995</v>
+      </c>
+      <c r="P395" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F396" s="3"/>
+      <c r="I396" s="3"/>
+      <c r="J396" s="3"/>
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F397" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F397" s="2">
         <v>1</v>
       </c>
       <c r="H397" s="2">
         <v>1</v>
       </c>
-      <c r="I397" s="3"/>
-      <c r="J397" s="3"/>
+      <c r="I397" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="L397" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="M397" s="2" t="s">
+        <v>868</v>
+      </c>
       <c r="N397" s="2" t="s">
-        <v>1005</v>
+        <v>869</v>
       </c>
       <c r="P397" s="2" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
+        <v>37</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F398" s="3">
+        <v>2</v>
+      </c>
+      <c r="H398" s="2">
+        <v>1</v>
+      </c>
+      <c r="I398" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="J398" s="6"/>
+      <c r="L398" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="M398" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="N398" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A400" s="2">
         <v>38</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B400" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="C400" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="F398" s="2">
-        <v>1</v>
-      </c>
-      <c r="H398" s="2">
-        <v>2</v>
-      </c>
-      <c r="N398" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="P398" s="2" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A399" s="2">
-        <v>38</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F399" s="3">
-        <v>1</v>
-      </c>
-      <c r="H399" s="2">
-        <v>3</v>
-      </c>
-      <c r="I399" s="3"/>
-      <c r="J399" s="6"/>
-      <c r="N399" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="P399" s="2" t="s">
-        <v>1010</v>
+      <c r="F400" s="3">
+        <v>1</v>
+      </c>
+      <c r="H400" s="2">
+        <v>1</v>
+      </c>
+      <c r="I400" s="3"/>
+      <c r="J400" s="3"/>
+      <c r="N400" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P400" s="2" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F401" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F401" s="2">
         <v>1</v>
       </c>
       <c r="H401" s="2">
-        <v>1</v>
-      </c>
-      <c r="I401" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="J401" s="6"/>
-      <c r="L401" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="M401" s="2" t="s">
-        <v>873</v>
+        <v>2</v>
       </c>
       <c r="N401" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="P401" s="2" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F402" s="2">
+        <v>1004</v>
+      </c>
+      <c r="F402" s="3">
         <v>1</v>
       </c>
       <c r="H402" s="2">
-        <v>1</v>
-      </c>
-      <c r="I402" s="2" t="s">
-        <v>776</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I402" s="3"/>
       <c r="J402" s="6"/>
-      <c r="L402" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="M402" s="2" t="s">
-        <v>873</v>
-      </c>
       <c r="N402" s="2" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="P402" s="2" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A403" s="2">
-        <v>39</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F403" s="3">
-        <v>1</v>
-      </c>
-      <c r="H403" s="2">
-        <v>1</v>
-      </c>
-      <c r="I403" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="J403" s="6"/>
-      <c r="L403" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="M403" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="N403" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="P403" s="2" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.2">
@@ -14434,7 +14438,7 @@
       <c r="C404" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="F404" s="2">
+      <c r="F404" s="3">
         <v>1</v>
       </c>
       <c r="H404" s="2">
@@ -14451,10 +14455,10 @@
         <v>873</v>
       </c>
       <c r="N404" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="P404" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="405" spans="1:16" x14ac:dyDescent="0.2">
@@ -14467,145 +14471,159 @@
       <c r="C405" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="F405" s="3">
-        <v>2</v>
+      <c r="F405" s="2">
+        <v>1</v>
       </c>
       <c r="H405" s="2">
         <v>1</v>
       </c>
       <c r="I405" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="J405" s="6"/>
+      <c r="L405" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="M405" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="N405" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P405" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>39</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F406" s="3">
+        <v>1</v>
+      </c>
+      <c r="H406" s="2">
+        <v>1</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="J406" s="6"/>
+      <c r="L406" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="M406" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="N406" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P406" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A407" s="2">
+        <v>39</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F407" s="2">
+        <v>1</v>
+      </c>
+      <c r="H407" s="2">
+        <v>1</v>
+      </c>
+      <c r="I407" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="J407" s="6"/>
+      <c r="L407" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="M407" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="N407" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P407" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>39</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F408" s="3">
+        <v>2</v>
+      </c>
+      <c r="H408" s="2">
+        <v>1</v>
+      </c>
+      <c r="I408" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="L405" s="2" t="s">
+      <c r="L408" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="M405" s="2" t="s">
+      <c r="M408" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="N405" s="2" t="s">
+      <c r="N408" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="P405" s="2" t="s">
+      <c r="P408" s="2" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F406" s="3"/>
-      <c r="I406" s="3"/>
-      <c r="J406" s="6"/>
-    </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B407" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F407" s="3">
-        <v>1</v>
-      </c>
-      <c r="H407" s="2">
-        <v>1</v>
-      </c>
-      <c r="N407" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="P407" s="2" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F408" s="3"/>
-      <c r="I408" s="3"/>
-      <c r="J408" s="3"/>
-    </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B409" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F409" s="3">
-        <v>1</v>
-      </c>
-      <c r="H409" s="2">
-        <v>1</v>
-      </c>
-      <c r="I409" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="N409" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="P409" s="2" t="s">
-        <v>1025</v>
-      </c>
+      <c r="F409" s="3"/>
+      <c r="I409" s="3"/>
+      <c r="J409" s="6"/>
     </row>
     <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B410" s="2" t="s">
         <v>1021</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="F410" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H410" s="2">
         <v>1</v>
       </c>
-      <c r="J410" s="3"/>
-      <c r="L410" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="M410" s="2" t="s">
-        <v>880</v>
-      </c>
       <c r="N410" s="2" t="s">
-        <v>1026</v>
+        <v>877</v>
       </c>
       <c r="P410" s="2" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B411" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F411" s="3">
-        <v>2</v>
-      </c>
-      <c r="H411" s="2">
-        <v>2</v>
-      </c>
-      <c r="L411" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="M411" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="N411" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="P411" s="2" t="s">
-        <v>1029</v>
-      </c>
+      <c r="F411" s="3"/>
+      <c r="I411" s="3"/>
+      <c r="J411" s="3"/>
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B412" s="2" t="s">
@@ -14618,127 +14636,113 @@
         <v>1125</v>
       </c>
       <c r="F412" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H412" s="2">
+        <v>1</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="N412" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="P412" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B413" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F413" s="3">
+        <v>2</v>
+      </c>
+      <c r="H413" s="2">
+        <v>1</v>
+      </c>
+      <c r="J413" s="3"/>
+      <c r="L413" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="M413" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="N413" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="P413" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B414" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F414" s="3">
+        <v>2</v>
+      </c>
+      <c r="H414" s="2">
+        <v>2</v>
+      </c>
+      <c r="L414" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="M414" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="N414" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P414" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B415" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F415" s="3">
+        <v>2</v>
+      </c>
+      <c r="H415" s="2">
         <v>3</v>
-      </c>
-      <c r="J412" s="3"/>
-      <c r="L412" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="M412" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="N412" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P412" s="2" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F413" s="3"/>
-      <c r="J413" s="3"/>
-    </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A414" s="2">
-        <v>40</v>
-      </c>
-      <c r="B414" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C414" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F414" s="3">
-        <v>1</v>
-      </c>
-      <c r="H414" s="2">
-        <v>1</v>
-      </c>
-      <c r="I414" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="J414" s="3"/>
-      <c r="L414" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="M414" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="N414" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="P414" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A415" s="2">
-        <v>40</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C415" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F415" s="3">
-        <v>2</v>
-      </c>
-      <c r="H415" s="2">
-        <v>1</v>
-      </c>
-      <c r="I415" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="J415" s="3"/>
       <c r="L415" s="2" t="s">
-        <v>603</v>
+        <v>879</v>
       </c>
       <c r="M415" s="2" t="s">
-        <v>611</v>
+        <v>880</v>
       </c>
       <c r="N415" s="2" t="s">
-        <v>609</v>
+        <v>1027</v>
       </c>
       <c r="P415" s="2" t="s">
-        <v>610</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="416" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A416" s="2">
-        <v>40</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C416" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F416" s="3">
-        <v>3</v>
-      </c>
-      <c r="H416" s="2">
-        <v>1</v>
-      </c>
-      <c r="I416" s="2" t="s">
-        <v>781</v>
-      </c>
+      <c r="F416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="L416" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="M416" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="N416" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="P416" s="2" t="s">
-        <v>614</v>
-      </c>
     </row>
     <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
@@ -14751,26 +14755,26 @@
         <v>1033</v>
       </c>
       <c r="F417" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H417" s="2">
         <v>1</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J417" s="3"/>
       <c r="L417" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M417" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N417" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="P417" s="2" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="418" spans="1:16" x14ac:dyDescent="0.2">
@@ -14784,17 +14788,26 @@
         <v>1033</v>
       </c>
       <c r="F418" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H418" s="2">
         <v>1</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J418" s="3"/>
+      <c r="L418" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="M418" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="N418" s="2" t="s">
-        <v>700</v>
+        <v>609</v>
+      </c>
+      <c r="P418" s="2" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="419" spans="1:16" x14ac:dyDescent="0.2">
@@ -14808,26 +14821,26 @@
         <v>1033</v>
       </c>
       <c r="F419" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H419" s="2">
         <v>1</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J419" s="3"/>
       <c r="L419" s="2" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="M419" s="2" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="P419" s="2" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="420" spans="1:16" x14ac:dyDescent="0.2">
@@ -14841,26 +14854,26 @@
         <v>1033</v>
       </c>
       <c r="F420" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H420" s="2">
         <v>1</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J420" s="3"/>
       <c r="L420" s="2" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="M420" s="2" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="P420" s="2" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="421" spans="1:16" x14ac:dyDescent="0.2">
@@ -14874,26 +14887,17 @@
         <v>1033</v>
       </c>
       <c r="F421" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H421" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="J421" s="7"/>
-      <c r="L421" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="M421" s="2" t="s">
-        <v>620</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="J421" s="3"/>
       <c r="N421" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="P421" s="2" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
     </row>
     <row r="422" spans="1:16" x14ac:dyDescent="0.2">
@@ -14907,25 +14911,26 @@
         <v>1033</v>
       </c>
       <c r="F422" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H422" s="2">
         <v>1</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>783</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="J422" s="3"/>
       <c r="L422" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="M422" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="N422" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="P422" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="423" spans="1:16" x14ac:dyDescent="0.2">
@@ -14939,19 +14944,26 @@
         <v>1033</v>
       </c>
       <c r="F423" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H423" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
+      </c>
+      <c r="J423" s="3"/>
+      <c r="L423" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="M423" s="2" t="s">
+        <v>620</v>
       </c>
       <c r="N423" s="2" t="s">
-        <v>1090</v>
+        <v>622</v>
       </c>
       <c r="P423" s="2" t="s">
-        <v>1089</v>
+        <v>626</v>
       </c>
     </row>
     <row r="424" spans="1:16" x14ac:dyDescent="0.2">
@@ -14965,26 +14977,26 @@
         <v>1033</v>
       </c>
       <c r="F424" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H424" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="J424" s="3"/>
+        <v>782</v>
+      </c>
+      <c r="J424" s="7"/>
       <c r="L424" s="2" t="s">
-        <v>733</v>
+        <v>624</v>
       </c>
       <c r="M424" s="2" t="s">
-        <v>728</v>
+        <v>620</v>
       </c>
       <c r="N424" s="2" t="s">
-        <v>729</v>
+        <v>623</v>
       </c>
       <c r="P424" s="2" t="s">
-        <v>1036</v>
+        <v>627</v>
       </c>
     </row>
     <row r="425" spans="1:16" x14ac:dyDescent="0.2">
@@ -14998,26 +15010,25 @@
         <v>1033</v>
       </c>
       <c r="F425" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H425" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="J425" s="3"/>
+        <v>783</v>
+      </c>
       <c r="L425" s="2" t="s">
-        <v>733</v>
+        <v>630</v>
       </c>
       <c r="M425" s="2" t="s">
-        <v>728</v>
+        <v>628</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>731</v>
+        <v>629</v>
       </c>
       <c r="P425" s="2" t="s">
-        <v>734</v>
+        <v>631</v>
       </c>
     </row>
     <row r="426" spans="1:16" x14ac:dyDescent="0.2">
@@ -15031,26 +15042,19 @@
         <v>1033</v>
       </c>
       <c r="F426" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H426" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="J426" s="6"/>
-      <c r="L426" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="M426" s="2" t="s">
-        <v>728</v>
+        <v>783</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>732</v>
+        <v>1090</v>
       </c>
       <c r="P426" s="2" t="s">
-        <v>736</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="427" spans="1:16" x14ac:dyDescent="0.2">
@@ -15064,22 +15068,26 @@
         <v>1033</v>
       </c>
       <c r="F427" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H427" s="2">
         <v>1</v>
       </c>
+      <c r="I427" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J427" s="3"/>
       <c r="L427" s="2" t="s">
-        <v>384</v>
+        <v>733</v>
       </c>
       <c r="M427" s="2" t="s">
-        <v>385</v>
+        <v>728</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>387</v>
+        <v>729</v>
       </c>
       <c r="P427" s="2" t="s">
-        <v>393</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="428" spans="1:16" x14ac:dyDescent="0.2">
@@ -15093,22 +15101,26 @@
         <v>1033</v>
       </c>
       <c r="F428" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H428" s="2">
         <v>2</v>
       </c>
+      <c r="I428" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J428" s="3"/>
       <c r="L428" s="2" t="s">
-        <v>384</v>
+        <v>733</v>
       </c>
       <c r="M428" s="2" t="s">
-        <v>385</v>
+        <v>728</v>
       </c>
       <c r="N428" s="2" t="s">
-        <v>388</v>
+        <v>731</v>
       </c>
       <c r="P428" s="2" t="s">
-        <v>394</v>
+        <v>734</v>
       </c>
     </row>
     <row r="429" spans="1:16" x14ac:dyDescent="0.2">
@@ -15122,24 +15134,26 @@
         <v>1033</v>
       </c>
       <c r="F429" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H429" s="2">
         <v>3</v>
       </c>
-      <c r="I429" s="3"/>
+      <c r="I429" s="2" t="s">
+        <v>784</v>
+      </c>
       <c r="J429" s="6"/>
       <c r="L429" s="2" t="s">
-        <v>384</v>
+        <v>733</v>
       </c>
       <c r="M429" s="2" t="s">
-        <v>385</v>
+        <v>728</v>
       </c>
       <c r="N429" s="2" t="s">
-        <v>389</v>
+        <v>732</v>
       </c>
       <c r="P429" s="2" t="s">
-        <v>395</v>
+        <v>736</v>
       </c>
     </row>
     <row r="430" spans="1:16" x14ac:dyDescent="0.2">
@@ -15156,10 +15170,8 @@
         <v>8</v>
       </c>
       <c r="H430" s="2">
-        <v>4</v>
-      </c>
-      <c r="I430" s="3"/>
-      <c r="J430" s="3"/>
+        <v>1</v>
+      </c>
       <c r="L430" s="2" t="s">
         <v>384</v>
       </c>
@@ -15167,10 +15179,10 @@
         <v>385</v>
       </c>
       <c r="N430" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P430" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="431" spans="1:16" x14ac:dyDescent="0.2">
@@ -15187,10 +15199,8 @@
         <v>8</v>
       </c>
       <c r="H431" s="2">
-        <v>5</v>
-      </c>
-      <c r="I431" s="3"/>
-      <c r="J431" s="6"/>
+        <v>2</v>
+      </c>
       <c r="L431" s="2" t="s">
         <v>384</v>
       </c>
@@ -15198,10 +15208,10 @@
         <v>385</v>
       </c>
       <c r="N431" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P431" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="432" spans="1:16" x14ac:dyDescent="0.2">
@@ -15218,19 +15228,21 @@
         <v>8</v>
       </c>
       <c r="H432" s="2">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I432" s="3"/>
+      <c r="J432" s="6"/>
       <c r="L432" s="2" t="s">
-        <v>630</v>
+        <v>384</v>
       </c>
       <c r="M432" s="2" t="s">
         <v>385</v>
       </c>
       <c r="N432" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P432" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="433" spans="1:16" x14ac:dyDescent="0.2">
@@ -15247,19 +15259,21 @@
         <v>8</v>
       </c>
       <c r="H433" s="2">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I433" s="3"/>
+      <c r="J433" s="3"/>
       <c r="L433" s="2" t="s">
-        <v>630</v>
+        <v>384</v>
       </c>
       <c r="M433" s="2" t="s">
         <v>385</v>
       </c>
       <c r="N433" s="2" t="s">
-        <v>636</v>
+        <v>390</v>
       </c>
       <c r="P433" s="2" t="s">
-        <v>651</v>
+        <v>396</v>
       </c>
     </row>
     <row r="434" spans="1:16" x14ac:dyDescent="0.2">
@@ -15273,144 +15287,144 @@
         <v>1033</v>
       </c>
       <c r="F434" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H434" s="2">
-        <v>1</v>
-      </c>
-      <c r="I434" s="2" t="s">
-        <v>786</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I434" s="3"/>
+      <c r="J434" s="6"/>
       <c r="L434" s="2" t="s">
-        <v>648</v>
+        <v>384</v>
       </c>
       <c r="M434" s="2" t="s">
-        <v>647</v>
+        <v>385</v>
       </c>
       <c r="N434" s="2" t="s">
-        <v>649</v>
+        <v>391</v>
       </c>
       <c r="P434" s="2" t="s">
-        <v>650</v>
+        <v>397</v>
       </c>
     </row>
     <row r="435" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F435" s="3"/>
-      <c r="I435" s="3"/>
-      <c r="J435" s="6"/>
+      <c r="A435" s="2">
+        <v>40</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F435" s="3">
+        <v>8</v>
+      </c>
+      <c r="H435" s="2">
+        <v>6</v>
+      </c>
+      <c r="L435" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M435" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N435" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="P435" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="436" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B436" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F436" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H436" s="2">
-        <v>1</v>
-      </c>
-      <c r="I436" s="3"/>
-      <c r="J436" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="L436" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M436" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="N436" s="2" t="s">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="P436" s="2" t="s">
-        <v>700</v>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A437" s="2">
+        <v>40</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F437" s="3">
+        <v>9</v>
+      </c>
+      <c r="H437" s="2">
+        <v>1</v>
+      </c>
+      <c r="I437" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="L437" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="M437" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="N437" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="P437" s="2" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="438" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A438" s="2">
-        <v>42</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F438" s="3">
-        <v>1</v>
-      </c>
-      <c r="H438" s="2">
-        <v>1</v>
-      </c>
-      <c r="L438" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="M438" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="N438" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="P438" s="2" t="s">
-        <v>610</v>
-      </c>
+      <c r="F438" s="3"/>
+      <c r="I438" s="3"/>
+      <c r="J438" s="6"/>
     </row>
     <row r="439" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
-        <v>42</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>1039</v>
+        <v>41</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>1037</v>
       </c>
       <c r="F439" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H439" s="2">
         <v>1</v>
       </c>
-      <c r="L439" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="M439" s="2" t="s">
-        <v>601</v>
-      </c>
+      <c r="I439" s="3"/>
+      <c r="J439" s="3"/>
       <c r="N439" s="2" t="s">
-        <v>612</v>
+        <v>700</v>
       </c>
       <c r="P439" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A440" s="2">
-        <v>42</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F440" s="7">
-        <v>2</v>
-      </c>
-      <c r="H440" s="2">
-        <v>2</v>
-      </c>
-      <c r="I440" s="3"/>
-      <c r="J440" s="3"/>
-      <c r="L440" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="M440" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="N440" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="P440" s="2" t="s">
-        <v>615</v>
+        <v>700</v>
       </c>
     </row>
     <row r="441" spans="1:16" x14ac:dyDescent="0.2">
@@ -15423,27 +15437,23 @@
       <c r="C441" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="F441" s="7">
-        <v>3</v>
+      <c r="F441" s="3">
+        <v>1</v>
       </c>
       <c r="H441" s="2">
         <v>1</v>
       </c>
-      <c r="I441" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="J441" s="6"/>
       <c r="L441" s="2" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="M441" s="2" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="N441" s="2" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="P441" s="2" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
     </row>
     <row r="442" spans="1:16" x14ac:dyDescent="0.2">
@@ -15456,26 +15466,23 @@
       <c r="C442" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="F442" s="2">
-        <v>3</v>
+      <c r="F442" s="3">
+        <v>2</v>
       </c>
       <c r="H442" s="2">
-        <v>2</v>
-      </c>
-      <c r="I442" s="2" t="s">
-        <v>782</v>
+        <v>1</v>
       </c>
       <c r="L442" s="2" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="M442" s="2" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="N442" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="P442" s="2" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="443" spans="1:16" x14ac:dyDescent="0.2">
@@ -15489,26 +15496,24 @@
         <v>1039</v>
       </c>
       <c r="F443" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H443" s="2">
-        <v>3</v>
-      </c>
-      <c r="I443" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="J443" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="I443" s="3"/>
+      <c r="J443" s="3"/>
       <c r="L443" s="2" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="M443" s="2" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="N443" s="2" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="P443" s="2" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="444" spans="1:16" x14ac:dyDescent="0.2">
@@ -15522,25 +15527,26 @@
         <v>1039</v>
       </c>
       <c r="F444" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H444" s="2">
         <v>1</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>783</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="J444" s="6"/>
       <c r="L444" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="M444" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="P444" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="445" spans="1:16" x14ac:dyDescent="0.2">
@@ -15553,17 +15559,26 @@
       <c r="C445" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="F445" s="7">
-        <v>4</v>
+      <c r="F445" s="2">
+        <v>3</v>
       </c>
       <c r="H445" s="2">
         <v>2</v>
       </c>
+      <c r="I445" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="L445" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="M445" s="2" t="s">
+        <v>620</v>
+      </c>
       <c r="N445" s="2" t="s">
-        <v>1090</v>
+        <v>622</v>
       </c>
       <c r="P445" s="2" t="s">
-        <v>1089</v>
+        <v>626</v>
       </c>
     </row>
     <row r="446" spans="1:16" x14ac:dyDescent="0.2">
@@ -15577,26 +15592,26 @@
         <v>1039</v>
       </c>
       <c r="F446" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H446" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I446" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J446" s="6"/>
       <c r="L446" s="2" t="s">
-        <v>733</v>
+        <v>624</v>
       </c>
       <c r="M446" s="2" t="s">
-        <v>728</v>
+        <v>620</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>729</v>
+        <v>623</v>
       </c>
       <c r="P446" s="2" t="s">
-        <v>735</v>
+        <v>627</v>
       </c>
     </row>
     <row r="447" spans="1:16" x14ac:dyDescent="0.2">
@@ -15610,26 +15625,25 @@
         <v>1039</v>
       </c>
       <c r="F447" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H447" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="J447" s="6"/>
+        <v>783</v>
+      </c>
       <c r="L447" s="2" t="s">
-        <v>733</v>
+        <v>630</v>
       </c>
       <c r="M447" s="2" t="s">
-        <v>728</v>
+        <v>628</v>
       </c>
       <c r="N447" s="2" t="s">
-        <v>730</v>
+        <v>629</v>
       </c>
       <c r="P447" s="2" t="s">
-        <v>737</v>
+        <v>631</v>
       </c>
     </row>
     <row r="448" spans="1:16" x14ac:dyDescent="0.2">
@@ -15643,26 +15657,16 @@
         <v>1039</v>
       </c>
       <c r="F448" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H448" s="2">
-        <v>3</v>
-      </c>
-      <c r="I448" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="J448" s="6"/>
-      <c r="L448" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="M448" s="2" t="s">
-        <v>728</v>
+        <v>2</v>
       </c>
       <c r="N448" s="2" t="s">
-        <v>731</v>
+        <v>1090</v>
       </c>
       <c r="P448" s="2" t="s">
-        <v>734</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="449" spans="1:16" x14ac:dyDescent="0.2">
@@ -15679,7 +15683,7 @@
         <v>5</v>
       </c>
       <c r="H449" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I449" s="2" t="s">
         <v>784</v>
@@ -15692,10 +15696,10 @@
         <v>728</v>
       </c>
       <c r="N449" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="P449" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="450" spans="1:16" x14ac:dyDescent="0.2">
@@ -15709,26 +15713,26 @@
         <v>1039</v>
       </c>
       <c r="F450" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H450" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="J450" s="3"/>
+        <v>784</v>
+      </c>
+      <c r="J450" s="6"/>
       <c r="L450" s="2" t="s">
-        <v>384</v>
+        <v>733</v>
       </c>
       <c r="M450" s="2" t="s">
-        <v>385</v>
+        <v>728</v>
       </c>
       <c r="N450" s="2" t="s">
-        <v>386</v>
+        <v>730</v>
       </c>
       <c r="P450" s="2" t="s">
-        <v>392</v>
+        <v>737</v>
       </c>
     </row>
     <row r="451" spans="1:16" x14ac:dyDescent="0.2">
@@ -15741,27 +15745,27 @@
       <c r="C451" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="F451" s="3">
-        <v>6</v>
+      <c r="F451" s="7">
+        <v>5</v>
       </c>
       <c r="H451" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J451" s="6"/>
       <c r="L451" s="2" t="s">
-        <v>384</v>
+        <v>733</v>
       </c>
       <c r="M451" s="2" t="s">
-        <v>385</v>
+        <v>728</v>
       </c>
       <c r="N451" s="2" t="s">
-        <v>387</v>
+        <v>731</v>
       </c>
       <c r="P451" s="2" t="s">
-        <v>393</v>
+        <v>734</v>
       </c>
     </row>
     <row r="452" spans="1:16" x14ac:dyDescent="0.2">
@@ -15775,25 +15779,26 @@
         <v>1039</v>
       </c>
       <c r="F452" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H452" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>785</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="J452" s="6"/>
       <c r="L452" s="2" t="s">
-        <v>384</v>
+        <v>733</v>
       </c>
       <c r="M452" s="2" t="s">
-        <v>385</v>
+        <v>728</v>
       </c>
       <c r="N452" s="2" t="s">
-        <v>388</v>
+        <v>732</v>
       </c>
       <c r="P452" s="2" t="s">
-        <v>394</v>
+        <v>736</v>
       </c>
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.2">
@@ -15806,16 +15811,16 @@
       <c r="C453" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="F453" s="3">
+      <c r="F453" s="7">
         <v>6</v>
       </c>
       <c r="H453" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I453" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="J453" s="6"/>
+      <c r="J453" s="3"/>
       <c r="L453" s="2" t="s">
         <v>384</v>
       </c>
@@ -15823,10 +15828,10 @@
         <v>385</v>
       </c>
       <c r="N453" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P453" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="454" spans="1:16" x14ac:dyDescent="0.2">
@@ -15839,16 +15844,16 @@
       <c r="C454" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="F454" s="7">
+      <c r="F454" s="3">
         <v>6</v>
       </c>
       <c r="H454" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I454" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="J454" s="3"/>
+      <c r="J454" s="6"/>
       <c r="L454" s="2" t="s">
         <v>384</v>
       </c>
@@ -15856,10 +15861,10 @@
         <v>385</v>
       </c>
       <c r="N454" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P454" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="455" spans="1:16" x14ac:dyDescent="0.2">
@@ -15872,11 +15877,11 @@
       <c r="C455" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="F455" s="3">
+      <c r="F455" s="7">
         <v>6</v>
       </c>
       <c r="H455" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I455" s="2" t="s">
         <v>785</v>
@@ -15888,10 +15893,10 @@
         <v>385</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P455" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.2">
@@ -15908,22 +15913,23 @@
         <v>6</v>
       </c>
       <c r="H456" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I456" s="2" t="s">
         <v>785</v>
       </c>
+      <c r="J456" s="6"/>
       <c r="L456" s="2" t="s">
-        <v>630</v>
+        <v>384</v>
       </c>
       <c r="M456" s="2" t="s">
         <v>385</v>
       </c>
       <c r="N456" s="2" t="s">
-        <v>636</v>
+        <v>389</v>
       </c>
       <c r="P456" s="2" t="s">
-        <v>651</v>
+        <v>395</v>
       </c>
     </row>
     <row r="457" spans="1:16" x14ac:dyDescent="0.2">
@@ -15936,179 +15942,276 @@
       <c r="C457" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="F457" s="3">
-        <v>7</v>
+      <c r="F457" s="7">
+        <v>6</v>
       </c>
       <c r="H457" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>786</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="J457" s="3"/>
       <c r="L457" s="2" t="s">
-        <v>648</v>
+        <v>384</v>
       </c>
       <c r="M457" s="2" t="s">
-        <v>647</v>
+        <v>385</v>
       </c>
       <c r="N457" s="2" t="s">
-        <v>649</v>
+        <v>390</v>
       </c>
       <c r="P457" s="2" t="s">
-        <v>650</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A458" s="2">
+        <v>42</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F458" s="3">
+        <v>6</v>
+      </c>
+      <c r="H458" s="2">
+        <v>6</v>
+      </c>
+      <c r="I458" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="L458" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M458" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N458" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P458" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F459" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H459" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="L459" s="2" t="s">
         <v>630</v>
       </c>
       <c r="M459" s="2" t="s">
-        <v>628</v>
+        <v>385</v>
       </c>
       <c r="N459" s="2" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="P459" s="2" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
     </row>
     <row r="460" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F460" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H460" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I460" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="L460" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="M460" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="N460" s="2" t="s">
-        <v>1090</v>
+        <v>649</v>
       </c>
       <c r="P460" s="2" t="s">
-        <v>1089</v>
+        <v>650</v>
       </c>
     </row>
     <row r="462" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
+        <v>43</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F462" s="3">
+        <v>1</v>
+      </c>
+      <c r="H462" s="2">
+        <v>1</v>
+      </c>
+      <c r="I462" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="L462" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M462" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="N462" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="P462" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A463" s="2">
+        <v>43</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F463" s="3">
+        <v>1</v>
+      </c>
+      <c r="H463" s="2">
+        <v>2</v>
+      </c>
+      <c r="N463" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="P463" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A465" s="2">
         <v>44</v>
       </c>
-      <c r="B462" s="5" t="s">
+      <c r="B465" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="C462" s="5" t="s">
+      <c r="C465" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="F462" s="3">
-        <v>1</v>
-      </c>
-      <c r="H462" s="2">
-        <v>1</v>
-      </c>
-      <c r="L462" s="2" t="s">
+      <c r="F465" s="3">
+        <v>1</v>
+      </c>
+      <c r="H465" s="2">
+        <v>1</v>
+      </c>
+      <c r="L465" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="M462" s="2" t="s">
+      <c r="M465" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="N462" s="2" t="s">
+      <c r="N465" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="P462" s="2" t="s">
+      <c r="P465" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A464" s="2">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A467" s="2">
         <v>45</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B467" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C464" s="2" t="s">
+      <c r="C467" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="F464" s="3">
-        <v>1</v>
-      </c>
-      <c r="H464" s="2">
-        <v>1</v>
-      </c>
-      <c r="I464" s="3"/>
-      <c r="J464" s="3"/>
-      <c r="L464" s="2" t="s">
+      <c r="F467" s="3">
+        <v>1</v>
+      </c>
+      <c r="H467" s="2">
+        <v>1</v>
+      </c>
+      <c r="I467" s="3"/>
+      <c r="J467" s="3"/>
+      <c r="L467" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="M464" s="2" t="s">
+      <c r="M467" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="N464" s="2" t="s">
+      <c r="N467" s="2" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A465" s="2">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A468" s="2">
         <v>45</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B468" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C465" s="2" t="s">
+      <c r="C468" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="F465" s="2">
-        <v>2</v>
-      </c>
-      <c r="H465" s="2">
-        <v>1</v>
-      </c>
-      <c r="L465" s="2" t="s">
+      <c r="F468" s="2">
+        <v>2</v>
+      </c>
+      <c r="H468" s="2">
+        <v>1</v>
+      </c>
+      <c r="L468" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="M465" s="2" t="s">
+      <c r="M468" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="N465" s="2" t="s">
+      <c r="N468" s="2" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F466" s="3"/>
-      <c r="I466" s="3"/>
-      <c r="J466" s="3"/>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F468" s="3"/>
-      <c r="I468" s="3"/>
-      <c r="J468" s="3"/>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F469" s="3"/>
+      <c r="I469" s="3"/>
       <c r="J469" s="3"/>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F471" s="3"/>
+      <c r="I471" s="3"/>
+      <c r="J471" s="3"/>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F472" s="3"/>
+      <c r="J472" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16122,10 +16225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65014A18-B2D8-8B4D-B757-A477CADA3FA4}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17299,22 +17402,24 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
+        <v>33</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
         <v>34</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="5" t="s">
-        <v>980</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -17325,22 +17430,20 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2" t="s">
         <v>982</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>35</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>984</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -17351,10 +17454,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -17365,10 +17468,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -17379,10 +17482,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -17393,10 +17496,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -17413,24 +17516,24 @@
         <v>1011</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>40</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>1033</v>
+      <c r="A95" s="2">
+        <v>39</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1011</v>
       </c>
       <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1034</v>
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -17441,10 +17544,10 @@
         <v>1033</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -17455,10 +17558,10 @@
         <v>1033</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -17469,38 +17572,38 @@
         <v>1033</v>
       </c>
       <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>40</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C99">
         <v>4</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>1043</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>41</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>42</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>1039</v>
+        <v>41</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1037</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100" t="s">
-        <v>210</v>
+      <c r="D100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -17511,10 +17614,10 @@
         <v>1039</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -17525,32 +17628,32 @@
         <v>1039</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>1044</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>44</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>788</v>
+        <v>43</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1041</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -17561,29 +17664,43 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>45</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>790</v>
+        <v>44</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>788</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
-      <c r="D105" t="s">
-        <v>210</v>
+      <c r="D105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
+        <v>45</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
         <v>46</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
         <v>1</v>
       </c>
     </row>
